--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KDP003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KDP003.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3AFC4EE8-52A4-43C2-97D4-4424DE35D53B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0FB1BB57-0134-4C56-97D6-B5481ABB77AC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9585" tabRatio="628" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -976,7 +976,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1293,6 +1293,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1529,7 +1551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1601,6 +1623,17 @@
     <xf numFmtId="49" fontId="30" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1789,6 +1822,9 @@
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -45782,8 +45818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696D73DC-8710-4936-A161-D0B2548C0096}">
   <dimension ref="A1:CB34"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A1:XFD1048576"/>
+    <sheetView view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BQ34" sqref="BM1:BQ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="15" customHeight="1"/>
@@ -45797,103 +45833,103 @@
       </c>
     </row>
     <row r="2" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="61" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="61" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="61" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="61" t="s">
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="61" t="s">
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="61" t="s">
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="61" t="s">
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="61" t="s">
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="62"/>
-      <c r="AT2" s="62"/>
-      <c r="AU2" s="62"/>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="61" t="s">
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="61" t="s">
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="BB2" s="62"/>
-      <c r="BC2" s="62"/>
-      <c r="BD2" s="63"/>
-      <c r="BE2" s="61" t="s">
+      <c r="BB2" s="67"/>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="68"/>
+      <c r="BE2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="BF2" s="62"/>
-      <c r="BG2" s="61"/>
-      <c r="BH2" s="63"/>
-      <c r="BI2" s="61" t="s">
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="66"/>
+      <c r="BH2" s="68"/>
+      <c r="BI2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="BJ2" s="62"/>
-      <c r="BK2" s="62"/>
-      <c r="BL2" s="63"/>
-      <c r="BM2" s="61" t="s">
+      <c r="BJ2" s="67"/>
+      <c r="BK2" s="67"/>
+      <c r="BL2" s="68"/>
+      <c r="BM2" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="BN2" s="62"/>
-      <c r="BO2" s="62"/>
-      <c r="BP2" s="62"/>
-      <c r="BQ2" s="62"/>
+      <c r="BN2" s="67"/>
+      <c r="BO2" s="67"/>
+      <c r="BP2" s="67"/>
+      <c r="BQ2" s="67"/>
       <c r="BU2" s="3"/>
       <c r="BV2" s="3"/>
       <c r="BW2" s="3"/>
@@ -45904,49 +45940,49 @@
       <c r="CB2" s="3"/>
     </row>
     <row r="3" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="81"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="85"/>
+      <c r="AP3" s="85"/>
+      <c r="AQ3" s="86"/>
       <c r="AR3" s="19"/>
       <c r="AS3" s="19"/>
       <c r="AT3" s="19"/>
@@ -45975,49 +46011,49 @@
       <c r="BQ3" s="19"/>
     </row>
     <row r="4" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="30"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="35"/>
       <c r="AR4" s="13"/>
       <c r="AS4" s="13"/>
       <c r="AT4" s="13"/>
@@ -46046,49 +46082,49 @@
       <c r="BQ4" s="13"/>
     </row>
     <row r="5" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="57"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="60"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="63"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="65"/>
       <c r="AR5" s="16"/>
       <c r="AS5" s="16"/>
       <c r="AT5" s="16"/>
@@ -46117,49 +46153,49 @@
       <c r="BQ5" s="16"/>
     </row>
     <row r="6" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="27"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="29"/>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="30"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+      <c r="AP6" s="34"/>
+      <c r="AQ6" s="35"/>
       <c r="AR6" s="13"/>
       <c r="AS6" s="13"/>
       <c r="AT6" s="13"/>
@@ -46188,49 +46224,49 @@
       <c r="BQ6" s="13"/>
     </row>
     <row r="7" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="56"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="58"/>
-      <c r="AN7" s="59"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="60"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="62"/>
+      <c r="AM7" s="63"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="64"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="65"/>
       <c r="AR7" s="16"/>
       <c r="AS7" s="16"/>
       <c r="AT7" s="16"/>
@@ -46259,49 +46295,49 @@
       <c r="BQ7" s="16"/>
     </row>
     <row r="8" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="30"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+      <c r="AP8" s="34"/>
+      <c r="AQ8" s="35"/>
       <c r="AR8" s="13"/>
       <c r="AS8" s="13"/>
       <c r="AT8" s="13"/>
@@ -46330,49 +46366,49 @@
       <c r="BQ8" s="13"/>
     </row>
     <row r="9" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="56"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="58"/>
-      <c r="AN9" s="59"/>
-      <c r="AO9" s="59"/>
-      <c r="AP9" s="59"/>
-      <c r="AQ9" s="60"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="61"/>
+      <c r="AL9" s="62"/>
+      <c r="AM9" s="63"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="65"/>
       <c r="AR9" s="16"/>
       <c r="AS9" s="16"/>
       <c r="AT9" s="16"/>
@@ -46401,49 +46437,49 @@
       <c r="BQ9" s="16"/>
     </row>
     <row r="10" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="26"/>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="30"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="35"/>
       <c r="AR10" s="13"/>
       <c r="AS10" s="13"/>
       <c r="AT10" s="13"/>
@@ -46472,49 +46508,49 @@
       <c r="BQ10" s="13"/>
     </row>
     <row r="11" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="54"/>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="56"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="59"/>
-      <c r="AO11" s="59"/>
-      <c r="AP11" s="59"/>
-      <c r="AQ11" s="60"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="61"/>
+      <c r="AL11" s="62"/>
+      <c r="AM11" s="63"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="65"/>
       <c r="AR11" s="16"/>
       <c r="AS11" s="16"/>
       <c r="AT11" s="16"/>
@@ -46543,49 +46579,49 @@
       <c r="BQ11" s="16"/>
     </row>
     <row r="12" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="26"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="30"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="35"/>
       <c r="AR12" s="13"/>
       <c r="AS12" s="13"/>
       <c r="AT12" s="13"/>
@@ -46614,49 +46650,49 @@
       <c r="BQ12" s="13"/>
     </row>
     <row r="13" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="56"/>
-      <c r="AL13" s="57"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="60"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="62"/>
+      <c r="AM13" s="63"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="65"/>
       <c r="AR13" s="16"/>
       <c r="AS13" s="16"/>
       <c r="AT13" s="16"/>
@@ -46685,49 +46721,49 @@
       <c r="BQ13" s="16"/>
     </row>
     <row r="14" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="26"/>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="29"/>
-      <c r="AO14" s="29"/>
-      <c r="AP14" s="29"/>
-      <c r="AQ14" s="30"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
+      <c r="AP14" s="34"/>
+      <c r="AQ14" s="35"/>
       <c r="AR14" s="13"/>
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
@@ -46756,49 +46792,49 @@
       <c r="BQ14" s="13"/>
     </row>
     <row r="15" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="54"/>
-      <c r="AJ15" s="55"/>
-      <c r="AK15" s="56"/>
-      <c r="AL15" s="57"/>
-      <c r="AM15" s="58"/>
-      <c r="AN15" s="59"/>
-      <c r="AO15" s="59"/>
-      <c r="AP15" s="59"/>
-      <c r="AQ15" s="60"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="61"/>
+      <c r="AL15" s="62"/>
+      <c r="AM15" s="63"/>
+      <c r="AN15" s="64"/>
+      <c r="AO15" s="64"/>
+      <c r="AP15" s="64"/>
+      <c r="AQ15" s="65"/>
       <c r="AR15" s="16"/>
       <c r="AS15" s="16"/>
       <c r="AT15" s="16"/>
@@ -46827,49 +46863,49 @@
       <c r="BQ15" s="16"/>
     </row>
     <row r="16" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="29"/>
-      <c r="AO16" s="29"/>
-      <c r="AP16" s="29"/>
-      <c r="AQ16" s="30"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="34"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="35"/>
       <c r="AR16" s="13"/>
       <c r="AS16" s="13"/>
       <c r="AT16" s="13"/>
@@ -46898,49 +46934,49 @@
       <c r="BQ16" s="13"/>
     </row>
     <row r="17" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="53"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="56"/>
-      <c r="AL17" s="57"/>
-      <c r="AM17" s="58"/>
-      <c r="AN17" s="59"/>
-      <c r="AO17" s="59"/>
-      <c r="AP17" s="59"/>
-      <c r="AQ17" s="60"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="62"/>
+      <c r="AM17" s="63"/>
+      <c r="AN17" s="64"/>
+      <c r="AO17" s="64"/>
+      <c r="AP17" s="64"/>
+      <c r="AQ17" s="65"/>
       <c r="AR17" s="16"/>
       <c r="AS17" s="16"/>
       <c r="AT17" s="16"/>
@@ -46969,49 +47005,49 @@
       <c r="BQ17" s="16"/>
     </row>
     <row r="18" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="42"/>
-      <c r="AJ18" s="25"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="27"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="29"/>
-      <c r="AO18" s="29"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="30"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="35"/>
       <c r="AR18" s="13"/>
       <c r="AS18" s="13"/>
       <c r="AT18" s="13"/>
@@ -47040,49 +47076,49 @@
       <c r="BQ18" s="13"/>
     </row>
     <row r="19" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="53"/>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="54"/>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="57"/>
-      <c r="AM19" s="58"/>
-      <c r="AN19" s="59"/>
-      <c r="AO19" s="59"/>
-      <c r="AP19" s="59"/>
-      <c r="AQ19" s="60"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="63"/>
+      <c r="AN19" s="64"/>
+      <c r="AO19" s="64"/>
+      <c r="AP19" s="64"/>
+      <c r="AQ19" s="65"/>
       <c r="AR19" s="16"/>
       <c r="AS19" s="16"/>
       <c r="AT19" s="16"/>
@@ -47111,49 +47147,49 @@
       <c r="BQ19" s="16"/>
     </row>
     <row r="20" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="30"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="34"/>
+      <c r="AO20" s="34"/>
+      <c r="AP20" s="34"/>
+      <c r="AQ20" s="35"/>
       <c r="AR20" s="13"/>
       <c r="AS20" s="13"/>
       <c r="AT20" s="13"/>
@@ -47182,49 +47218,49 @@
       <c r="BQ20" s="13"/>
     </row>
     <row r="21" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="53"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="56"/>
-      <c r="AL21" s="57"/>
-      <c r="AM21" s="58"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="60"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="60"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="62"/>
+      <c r="AM21" s="63"/>
+      <c r="AN21" s="64"/>
+      <c r="AO21" s="64"/>
+      <c r="AP21" s="64"/>
+      <c r="AQ21" s="65"/>
       <c r="AR21" s="16"/>
       <c r="AS21" s="16"/>
       <c r="AT21" s="16"/>
@@ -47253,49 +47289,49 @@
       <c r="BQ21" s="16"/>
     </row>
     <row r="22" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="27"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="29"/>
-      <c r="AO22" s="29"/>
-      <c r="AP22" s="29"/>
-      <c r="AQ22" s="30"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="47"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="33"/>
+      <c r="AN22" s="34"/>
+      <c r="AO22" s="34"/>
+      <c r="AP22" s="34"/>
+      <c r="AQ22" s="35"/>
       <c r="AR22" s="13"/>
       <c r="AS22" s="13"/>
       <c r="AT22" s="13"/>
@@ -47324,49 +47360,49 @@
       <c r="BQ22" s="13"/>
     </row>
     <row r="23" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="57"/>
-      <c r="AM23" s="58"/>
-      <c r="AN23" s="59"/>
-      <c r="AO23" s="59"/>
-      <c r="AP23" s="59"/>
-      <c r="AQ23" s="60"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="58"/>
+      <c r="AI23" s="59"/>
+      <c r="AJ23" s="60"/>
+      <c r="AK23" s="61"/>
+      <c r="AL23" s="62"/>
+      <c r="AM23" s="63"/>
+      <c r="AN23" s="64"/>
+      <c r="AO23" s="64"/>
+      <c r="AP23" s="64"/>
+      <c r="AQ23" s="65"/>
       <c r="AR23" s="16"/>
       <c r="AS23" s="16"/>
       <c r="AT23" s="16"/>
@@ -47395,49 +47431,49 @@
       <c r="BQ23" s="16"/>
     </row>
     <row r="24" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="27"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="29"/>
-      <c r="AO24" s="29"/>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="30"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="46"/>
+      <c r="AG24" s="46"/>
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="32"/>
+      <c r="AM24" s="33"/>
+      <c r="AN24" s="34"/>
+      <c r="AO24" s="34"/>
+      <c r="AP24" s="34"/>
+      <c r="AQ24" s="35"/>
       <c r="AR24" s="13"/>
       <c r="AS24" s="13"/>
       <c r="AT24" s="13"/>
@@ -47466,49 +47502,49 @@
       <c r="BQ24" s="13"/>
     </row>
     <row r="25" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="53"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="54"/>
-      <c r="AJ25" s="55"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="58"/>
-      <c r="AN25" s="59"/>
-      <c r="AO25" s="59"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="60"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="58"/>
+      <c r="AG25" s="58"/>
+      <c r="AH25" s="58"/>
+      <c r="AI25" s="59"/>
+      <c r="AJ25" s="60"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="62"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="64"/>
+      <c r="AO25" s="64"/>
+      <c r="AP25" s="64"/>
+      <c r="AQ25" s="65"/>
       <c r="AR25" s="16"/>
       <c r="AS25" s="16"/>
       <c r="AT25" s="16"/>
@@ -47537,49 +47573,49 @@
       <c r="BQ25" s="16"/>
     </row>
     <row r="26" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="39"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="41"/>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="42"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="27"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="29"/>
-      <c r="AO26" s="29"/>
-      <c r="AP26" s="29"/>
-      <c r="AQ26" s="30"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="43"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="31"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="33"/>
+      <c r="AN26" s="34"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="34"/>
+      <c r="AQ26" s="35"/>
       <c r="AR26" s="13"/>
       <c r="AS26" s="13"/>
       <c r="AT26" s="13"/>
@@ -47608,49 +47644,49 @@
       <c r="BQ26" s="13"/>
     </row>
     <row r="27" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="53"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="54"/>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="56"/>
-      <c r="AL27" s="57"/>
-      <c r="AM27" s="58"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="60"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="58"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="58"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="60"/>
+      <c r="AK27" s="61"/>
+      <c r="AL27" s="62"/>
+      <c r="AM27" s="63"/>
+      <c r="AN27" s="64"/>
+      <c r="AO27" s="64"/>
+      <c r="AP27" s="64"/>
+      <c r="AQ27" s="65"/>
       <c r="AR27" s="16"/>
       <c r="AS27" s="16"/>
       <c r="AT27" s="16"/>
@@ -47679,49 +47715,49 @@
       <c r="BQ27" s="16"/>
     </row>
     <row r="28" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="41"/>
-      <c r="AH28" s="41"/>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="26"/>
-      <c r="AL28" s="27"/>
-      <c r="AM28" s="28"/>
-      <c r="AN28" s="29"/>
-      <c r="AO28" s="29"/>
-      <c r="AP28" s="29"/>
-      <c r="AQ28" s="30"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="33"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="34"/>
+      <c r="AQ28" s="35"/>
       <c r="AR28" s="13"/>
       <c r="AS28" s="13"/>
       <c r="AT28" s="13"/>
@@ -47750,49 +47786,49 @@
       <c r="BQ28" s="13"/>
     </row>
     <row r="29" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="53"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="55"/>
-      <c r="AK29" s="56"/>
-      <c r="AL29" s="57"/>
-      <c r="AM29" s="58"/>
-      <c r="AN29" s="59"/>
-      <c r="AO29" s="59"/>
-      <c r="AP29" s="59"/>
-      <c r="AQ29" s="60"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="58"/>
+      <c r="AG29" s="58"/>
+      <c r="AH29" s="58"/>
+      <c r="AI29" s="59"/>
+      <c r="AJ29" s="60"/>
+      <c r="AK29" s="61"/>
+      <c r="AL29" s="62"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="64"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="65"/>
       <c r="AR29" s="16"/>
       <c r="AS29" s="16"/>
       <c r="AT29" s="16"/>
@@ -47821,49 +47857,49 @@
       <c r="BQ29" s="16"/>
     </row>
     <row r="30" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="40"/>
-      <c r="AF30" s="41"/>
-      <c r="AG30" s="41"/>
-      <c r="AH30" s="41"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="25"/>
-      <c r="AK30" s="26"/>
-      <c r="AL30" s="27"/>
-      <c r="AM30" s="28"/>
-      <c r="AN30" s="29"/>
-      <c r="AO30" s="29"/>
-      <c r="AP30" s="29"/>
-      <c r="AQ30" s="30"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="46"/>
+      <c r="AG30" s="46"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="47"/>
+      <c r="AJ30" s="30"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="33"/>
+      <c r="AN30" s="34"/>
+      <c r="AO30" s="34"/>
+      <c r="AP30" s="34"/>
+      <c r="AQ30" s="35"/>
       <c r="AR30" s="13"/>
       <c r="AS30" s="13"/>
       <c r="AT30" s="13"/>
@@ -47892,49 +47928,49 @@
       <c r="BQ30" s="13"/>
     </row>
     <row r="31" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="54"/>
-      <c r="AJ31" s="55"/>
-      <c r="AK31" s="56"/>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="58"/>
-      <c r="AN31" s="59"/>
-      <c r="AO31" s="59"/>
-      <c r="AP31" s="59"/>
-      <c r="AQ31" s="60"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="58"/>
+      <c r="AG31" s="58"/>
+      <c r="AH31" s="58"/>
+      <c r="AI31" s="59"/>
+      <c r="AJ31" s="60"/>
+      <c r="AK31" s="61"/>
+      <c r="AL31" s="62"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="64"/>
+      <c r="AO31" s="64"/>
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="65"/>
       <c r="AR31" s="16"/>
       <c r="AS31" s="16"/>
       <c r="AT31" s="16"/>
@@ -47963,49 +47999,49 @@
       <c r="BQ31" s="16"/>
     </row>
     <row r="32" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="41"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="42"/>
-      <c r="AJ32" s="25"/>
-      <c r="AK32" s="26"/>
-      <c r="AL32" s="27"/>
-      <c r="AM32" s="28"/>
-      <c r="AN32" s="29"/>
-      <c r="AO32" s="29"/>
-      <c r="AP32" s="29"/>
-      <c r="AQ32" s="30"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="46"/>
+      <c r="AI32" s="47"/>
+      <c r="AJ32" s="30"/>
+      <c r="AK32" s="31"/>
+      <c r="AL32" s="32"/>
+      <c r="AM32" s="33"/>
+      <c r="AN32" s="34"/>
+      <c r="AO32" s="34"/>
+      <c r="AP32" s="34"/>
+      <c r="AQ32" s="35"/>
       <c r="AR32" s="13"/>
       <c r="AS32" s="13"/>
       <c r="AT32" s="13"/>
@@ -48034,49 +48070,49 @@
       <c r="BQ32" s="13"/>
     </row>
     <row r="33" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="54"/>
-      <c r="AJ33" s="55"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="58"/>
-      <c r="AN33" s="59"/>
-      <c r="AO33" s="59"/>
-      <c r="AP33" s="59"/>
-      <c r="AQ33" s="60"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="58"/>
+      <c r="AG33" s="58"/>
+      <c r="AH33" s="58"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="60"/>
+      <c r="AK33" s="61"/>
+      <c r="AL33" s="62"/>
+      <c r="AM33" s="63"/>
+      <c r="AN33" s="64"/>
+      <c r="AO33" s="64"/>
+      <c r="AP33" s="64"/>
+      <c r="AQ33" s="65"/>
       <c r="AR33" s="16"/>
       <c r="AS33" s="16"/>
       <c r="AT33" s="16"/>
@@ -48105,49 +48141,49 @@
       <c r="BQ33" s="16"/>
     </row>
     <row r="34" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="40"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="41"/>
-      <c r="AI34" s="42"/>
-      <c r="AJ34" s="25"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="27"/>
-      <c r="AM34" s="28"/>
-      <c r="AN34" s="29"/>
-      <c r="AO34" s="29"/>
-      <c r="AP34" s="29"/>
-      <c r="AQ34" s="30"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="46"/>
+      <c r="AG34" s="46"/>
+      <c r="AH34" s="46"/>
+      <c r="AI34" s="47"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="32"/>
+      <c r="AM34" s="33"/>
+      <c r="AN34" s="34"/>
+      <c r="AO34" s="34"/>
+      <c r="AP34" s="34"/>
+      <c r="AQ34" s="35"/>
       <c r="AR34" s="13"/>
       <c r="AS34" s="13"/>
       <c r="AT34" s="13"/>
@@ -48461,8 +48497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B3A099-E082-43B0-8388-4BFA1FDC2C34}">
   <dimension ref="A1:CB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:Q8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI30" sqref="BI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="15" customHeight="1"/>
@@ -48474,105 +48510,110 @@
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="BM1" s="28"/>
+      <c r="BN1" s="28"/>
+      <c r="BO1" s="28"/>
+      <c r="BP1" s="28"/>
+      <c r="BQ1" s="29"/>
     </row>
     <row r="2" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="61" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="61" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="61" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="61" t="s">
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="61" t="s">
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="61" t="s">
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="61" t="s">
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="61" t="s">
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AS2" s="62"/>
-      <c r="AT2" s="62"/>
-      <c r="AU2" s="62"/>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="61" t="s">
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="61" t="s">
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="BB2" s="62"/>
-      <c r="BC2" s="62"/>
-      <c r="BD2" s="63"/>
-      <c r="BE2" s="61" t="s">
+      <c r="BB2" s="67"/>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="68"/>
+      <c r="BE2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="BF2" s="62"/>
-      <c r="BG2" s="61"/>
-      <c r="BH2" s="63"/>
-      <c r="BI2" s="61" t="s">
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="66"/>
+      <c r="BH2" s="68"/>
+      <c r="BI2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="BJ2" s="62"/>
-      <c r="BK2" s="62"/>
-      <c r="BL2" s="63"/>
-      <c r="BM2" s="61" t="s">
+      <c r="BJ2" s="67"/>
+      <c r="BK2" s="67"/>
+      <c r="BL2" s="68"/>
+      <c r="BM2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="BN2" s="62"/>
-      <c r="BO2" s="62"/>
-      <c r="BP2" s="62"/>
-      <c r="BQ2" s="62"/>
+      <c r="BN2" s="67"/>
+      <c r="BO2" s="67"/>
+      <c r="BP2" s="67"/>
+      <c r="BQ2" s="93"/>
       <c r="BU2" s="3"/>
       <c r="BV2" s="3"/>
       <c r="BW2" s="3"/>
@@ -48583,49 +48624,49 @@
       <c r="CB2" s="3"/>
     </row>
     <row r="3" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="88"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="81"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="85"/>
+      <c r="AP3" s="85"/>
+      <c r="AQ3" s="86"/>
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
       <c r="AT3" s="4"/>
@@ -48647,56 +48688,56 @@
       <c r="BJ3" s="4"/>
       <c r="BK3" s="4"/>
       <c r="BL3" s="5"/>
-      <c r="BM3" s="4"/>
-      <c r="BN3" s="4"/>
-      <c r="BO3" s="4"/>
-      <c r="BP3" s="4"/>
+      <c r="BM3" s="25"/>
+      <c r="BN3" s="25"/>
+      <c r="BO3" s="25"/>
+      <c r="BP3" s="25"/>
       <c r="BQ3" s="22"/>
     </row>
     <row r="4" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="30"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="35"/>
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
@@ -48718,56 +48759,56 @@
       <c r="BJ4" s="7"/>
       <c r="BK4" s="7"/>
       <c r="BL4" s="8"/>
-      <c r="BM4" s="7"/>
-      <c r="BN4" s="7"/>
-      <c r="BO4" s="7"/>
-      <c r="BP4" s="7"/>
+      <c r="BM4" s="27"/>
+      <c r="BN4" s="27"/>
+      <c r="BO4" s="27"/>
+      <c r="BP4" s="27"/>
       <c r="BQ4" s="23"/>
     </row>
     <row r="5" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="57"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="60"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="63"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="65"/>
       <c r="AR5" s="10"/>
       <c r="AS5" s="10"/>
       <c r="AT5" s="10"/>
@@ -48789,56 +48830,56 @@
       <c r="BJ5" s="10"/>
       <c r="BK5" s="10"/>
       <c r="BL5" s="11"/>
-      <c r="BM5" s="10"/>
-      <c r="BN5" s="10"/>
-      <c r="BO5" s="10"/>
-      <c r="BP5" s="10"/>
+      <c r="BM5" s="26"/>
+      <c r="BN5" s="26"/>
+      <c r="BO5" s="26"/>
+      <c r="BP5" s="26"/>
       <c r="BQ5" s="24"/>
     </row>
     <row r="6" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="27"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="29"/>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="30"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+      <c r="AP6" s="34"/>
+      <c r="AQ6" s="35"/>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7"/>
       <c r="AT6" s="7"/>
@@ -48860,56 +48901,56 @@
       <c r="BJ6" s="7"/>
       <c r="BK6" s="7"/>
       <c r="BL6" s="8"/>
-      <c r="BM6" s="7"/>
-      <c r="BN6" s="7"/>
-      <c r="BO6" s="7"/>
-      <c r="BP6" s="7"/>
+      <c r="BM6" s="27"/>
+      <c r="BN6" s="27"/>
+      <c r="BO6" s="27"/>
+      <c r="BP6" s="27"/>
       <c r="BQ6" s="23"/>
     </row>
     <row r="7" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="56"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="58"/>
-      <c r="AN7" s="59"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="60"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="62"/>
+      <c r="AM7" s="63"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="64"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="65"/>
       <c r="AR7" s="10"/>
       <c r="AS7" s="10"/>
       <c r="AT7" s="10"/>
@@ -48931,56 +48972,56 @@
       <c r="BJ7" s="10"/>
       <c r="BK7" s="10"/>
       <c r="BL7" s="11"/>
-      <c r="BM7" s="10"/>
-      <c r="BN7" s="10"/>
-      <c r="BO7" s="10"/>
-      <c r="BP7" s="10"/>
+      <c r="BM7" s="26"/>
+      <c r="BN7" s="26"/>
+      <c r="BO7" s="26"/>
+      <c r="BP7" s="26"/>
       <c r="BQ7" s="24"/>
     </row>
     <row r="8" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="30"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+      <c r="AP8" s="34"/>
+      <c r="AQ8" s="35"/>
       <c r="AR8" s="7"/>
       <c r="AS8" s="7"/>
       <c r="AT8" s="7"/>
@@ -49002,56 +49043,56 @@
       <c r="BJ8" s="7"/>
       <c r="BK8" s="7"/>
       <c r="BL8" s="8"/>
-      <c r="BM8" s="7"/>
-      <c r="BN8" s="7"/>
-      <c r="BO8" s="7"/>
-      <c r="BP8" s="7"/>
+      <c r="BM8" s="27"/>
+      <c r="BN8" s="27"/>
+      <c r="BO8" s="27"/>
+      <c r="BP8" s="27"/>
       <c r="BQ8" s="23"/>
     </row>
     <row r="9" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="85"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="56"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="58"/>
-      <c r="AN9" s="59"/>
-      <c r="AO9" s="59"/>
-      <c r="AP9" s="59"/>
-      <c r="AQ9" s="60"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="61"/>
+      <c r="AL9" s="62"/>
+      <c r="AM9" s="63"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="65"/>
       <c r="AR9" s="10"/>
       <c r="AS9" s="10"/>
       <c r="AT9" s="10"/>
@@ -49073,56 +49114,56 @@
       <c r="BJ9" s="10"/>
       <c r="BK9" s="10"/>
       <c r="BL9" s="11"/>
-      <c r="BM9" s="10"/>
-      <c r="BN9" s="10"/>
-      <c r="BO9" s="10"/>
-      <c r="BP9" s="10"/>
+      <c r="BM9" s="26"/>
+      <c r="BN9" s="26"/>
+      <c r="BO9" s="26"/>
+      <c r="BP9" s="26"/>
       <c r="BQ9" s="24"/>
     </row>
     <row r="10" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="26"/>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="30"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="35"/>
       <c r="AR10" s="7"/>
       <c r="AS10" s="7"/>
       <c r="AT10" s="7"/>
@@ -49144,56 +49185,56 @@
       <c r="BJ10" s="7"/>
       <c r="BK10" s="7"/>
       <c r="BL10" s="8"/>
-      <c r="BM10" s="7"/>
-      <c r="BN10" s="7"/>
-      <c r="BO10" s="7"/>
-      <c r="BP10" s="7"/>
+      <c r="BM10" s="27"/>
+      <c r="BN10" s="27"/>
+      <c r="BO10" s="27"/>
+      <c r="BP10" s="27"/>
       <c r="BQ10" s="23"/>
     </row>
     <row r="11" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="54"/>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="56"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="59"/>
-      <c r="AO11" s="59"/>
-      <c r="AP11" s="59"/>
-      <c r="AQ11" s="60"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="61"/>
+      <c r="AL11" s="62"/>
+      <c r="AM11" s="63"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="65"/>
       <c r="AR11" s="16"/>
       <c r="AS11" s="16"/>
       <c r="AT11" s="16"/>
@@ -49215,56 +49256,56 @@
       <c r="BJ11" s="16"/>
       <c r="BK11" s="16"/>
       <c r="BL11" s="17"/>
-      <c r="BM11" s="16"/>
-      <c r="BN11" s="16"/>
-      <c r="BO11" s="16"/>
-      <c r="BP11" s="16"/>
+      <c r="BM11" s="26"/>
+      <c r="BN11" s="26"/>
+      <c r="BO11" s="26"/>
+      <c r="BP11" s="26"/>
       <c r="BQ11" s="24"/>
     </row>
     <row r="12" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="82"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="26"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="30"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="35"/>
       <c r="AR12" s="13"/>
       <c r="AS12" s="13"/>
       <c r="AT12" s="13"/>
@@ -49286,56 +49327,56 @@
       <c r="BJ12" s="13"/>
       <c r="BK12" s="13"/>
       <c r="BL12" s="14"/>
-      <c r="BM12" s="13"/>
-      <c r="BN12" s="13"/>
-      <c r="BO12" s="13"/>
-      <c r="BP12" s="13"/>
+      <c r="BM12" s="27"/>
+      <c r="BN12" s="27"/>
+      <c r="BO12" s="27"/>
+      <c r="BP12" s="27"/>
       <c r="BQ12" s="23"/>
     </row>
     <row r="13" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="85"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="56"/>
-      <c r="AL13" s="57"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="60"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="62"/>
+      <c r="AM13" s="63"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="65"/>
       <c r="AR13" s="16"/>
       <c r="AS13" s="16"/>
       <c r="AT13" s="16"/>
@@ -49357,56 +49398,56 @@
       <c r="BJ13" s="16"/>
       <c r="BK13" s="16"/>
       <c r="BL13" s="17"/>
-      <c r="BM13" s="16"/>
-      <c r="BN13" s="16"/>
-      <c r="BO13" s="16"/>
-      <c r="BP13" s="16"/>
+      <c r="BM13" s="26"/>
+      <c r="BN13" s="26"/>
+      <c r="BO13" s="26"/>
+      <c r="BP13" s="26"/>
       <c r="BQ13" s="24"/>
     </row>
     <row r="14" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="82"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="26"/>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="29"/>
-      <c r="AO14" s="29"/>
-      <c r="AP14" s="29"/>
-      <c r="AQ14" s="30"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
+      <c r="AP14" s="34"/>
+      <c r="AQ14" s="35"/>
       <c r="AR14" s="13"/>
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
@@ -49428,56 +49469,56 @@
       <c r="BJ14" s="13"/>
       <c r="BK14" s="13"/>
       <c r="BL14" s="14"/>
-      <c r="BM14" s="13"/>
-      <c r="BN14" s="13"/>
-      <c r="BO14" s="13"/>
-      <c r="BP14" s="13"/>
+      <c r="BM14" s="27"/>
+      <c r="BN14" s="27"/>
+      <c r="BO14" s="27"/>
+      <c r="BP14" s="27"/>
       <c r="BQ14" s="23"/>
     </row>
     <row r="15" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="85"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="54"/>
-      <c r="AJ15" s="55"/>
-      <c r="AK15" s="56"/>
-      <c r="AL15" s="57"/>
-      <c r="AM15" s="58"/>
-      <c r="AN15" s="59"/>
-      <c r="AO15" s="59"/>
-      <c r="AP15" s="59"/>
-      <c r="AQ15" s="60"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="61"/>
+      <c r="AL15" s="62"/>
+      <c r="AM15" s="63"/>
+      <c r="AN15" s="64"/>
+      <c r="AO15" s="64"/>
+      <c r="AP15" s="64"/>
+      <c r="AQ15" s="65"/>
       <c r="AR15" s="16"/>
       <c r="AS15" s="16"/>
       <c r="AT15" s="16"/>
@@ -49499,56 +49540,56 @@
       <c r="BJ15" s="16"/>
       <c r="BK15" s="16"/>
       <c r="BL15" s="17"/>
-      <c r="BM15" s="16"/>
-      <c r="BN15" s="16"/>
-      <c r="BO15" s="16"/>
-      <c r="BP15" s="16"/>
+      <c r="BM15" s="26"/>
+      <c r="BN15" s="26"/>
+      <c r="BO15" s="26"/>
+      <c r="BP15" s="26"/>
       <c r="BQ15" s="24"/>
     </row>
     <row r="16" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="29"/>
-      <c r="AO16" s="29"/>
-      <c r="AP16" s="29"/>
-      <c r="AQ16" s="30"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="34"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="35"/>
       <c r="AR16" s="13"/>
       <c r="AS16" s="13"/>
       <c r="AT16" s="13"/>
@@ -49570,56 +49611,56 @@
       <c r="BJ16" s="13"/>
       <c r="BK16" s="13"/>
       <c r="BL16" s="14"/>
-      <c r="BM16" s="13"/>
-      <c r="BN16" s="13"/>
-      <c r="BO16" s="13"/>
-      <c r="BP16" s="13"/>
+      <c r="BM16" s="27"/>
+      <c r="BN16" s="27"/>
+      <c r="BO16" s="27"/>
+      <c r="BP16" s="27"/>
       <c r="BQ16" s="23"/>
     </row>
     <row r="17" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="85"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="53"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="56"/>
-      <c r="AL17" s="57"/>
-      <c r="AM17" s="58"/>
-      <c r="AN17" s="59"/>
-      <c r="AO17" s="59"/>
-      <c r="AP17" s="59"/>
-      <c r="AQ17" s="60"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="62"/>
+      <c r="AM17" s="63"/>
+      <c r="AN17" s="64"/>
+      <c r="AO17" s="64"/>
+      <c r="AP17" s="64"/>
+      <c r="AQ17" s="65"/>
       <c r="AR17" s="16"/>
       <c r="AS17" s="16"/>
       <c r="AT17" s="16"/>
@@ -49641,56 +49682,56 @@
       <c r="BJ17" s="16"/>
       <c r="BK17" s="16"/>
       <c r="BL17" s="17"/>
-      <c r="BM17" s="16"/>
-      <c r="BN17" s="16"/>
-      <c r="BO17" s="16"/>
-      <c r="BP17" s="16"/>
+      <c r="BM17" s="26"/>
+      <c r="BN17" s="26"/>
+      <c r="BO17" s="26"/>
+      <c r="BP17" s="26"/>
       <c r="BQ17" s="24"/>
     </row>
     <row r="18" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="42"/>
-      <c r="AJ18" s="25"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="27"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="29"/>
-      <c r="AO18" s="29"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="30"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="35"/>
       <c r="AR18" s="13"/>
       <c r="AS18" s="13"/>
       <c r="AT18" s="13"/>
@@ -49712,56 +49753,56 @@
       <c r="BJ18" s="13"/>
       <c r="BK18" s="13"/>
       <c r="BL18" s="14"/>
-      <c r="BM18" s="13"/>
-      <c r="BN18" s="13"/>
-      <c r="BO18" s="13"/>
-      <c r="BP18" s="13"/>
+      <c r="BM18" s="27"/>
+      <c r="BN18" s="27"/>
+      <c r="BO18" s="27"/>
+      <c r="BP18" s="27"/>
       <c r="BQ18" s="23"/>
     </row>
     <row r="19" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="85"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="53"/>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="54"/>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="57"/>
-      <c r="AM19" s="58"/>
-      <c r="AN19" s="59"/>
-      <c r="AO19" s="59"/>
-      <c r="AP19" s="59"/>
-      <c r="AQ19" s="60"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="63"/>
+      <c r="AN19" s="64"/>
+      <c r="AO19" s="64"/>
+      <c r="AP19" s="64"/>
+      <c r="AQ19" s="65"/>
       <c r="AR19" s="16"/>
       <c r="AS19" s="16"/>
       <c r="AT19" s="16"/>
@@ -49783,56 +49824,56 @@
       <c r="BJ19" s="16"/>
       <c r="BK19" s="16"/>
       <c r="BL19" s="17"/>
-      <c r="BM19" s="16"/>
-      <c r="BN19" s="16"/>
-      <c r="BO19" s="16"/>
-      <c r="BP19" s="16"/>
+      <c r="BM19" s="26"/>
+      <c r="BN19" s="26"/>
+      <c r="BO19" s="26"/>
+      <c r="BP19" s="26"/>
       <c r="BQ19" s="24"/>
     </row>
     <row r="20" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="30"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="34"/>
+      <c r="AO20" s="34"/>
+      <c r="AP20" s="34"/>
+      <c r="AQ20" s="35"/>
       <c r="AR20" s="13"/>
       <c r="AS20" s="13"/>
       <c r="AT20" s="13"/>
@@ -49854,56 +49895,56 @@
       <c r="BJ20" s="13"/>
       <c r="BK20" s="13"/>
       <c r="BL20" s="14"/>
-      <c r="BM20" s="13"/>
-      <c r="BN20" s="13"/>
-      <c r="BO20" s="13"/>
-      <c r="BP20" s="13"/>
+      <c r="BM20" s="27"/>
+      <c r="BN20" s="27"/>
+      <c r="BO20" s="27"/>
+      <c r="BP20" s="27"/>
       <c r="BQ20" s="23"/>
     </row>
     <row r="21" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="85"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="53"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="56"/>
-      <c r="AL21" s="57"/>
-      <c r="AM21" s="58"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="60"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="60"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="62"/>
+      <c r="AM21" s="63"/>
+      <c r="AN21" s="64"/>
+      <c r="AO21" s="64"/>
+      <c r="AP21" s="64"/>
+      <c r="AQ21" s="65"/>
       <c r="AR21" s="16"/>
       <c r="AS21" s="16"/>
       <c r="AT21" s="16"/>
@@ -49925,56 +49966,56 @@
       <c r="BJ21" s="16"/>
       <c r="BK21" s="16"/>
       <c r="BL21" s="17"/>
-      <c r="BM21" s="16"/>
-      <c r="BN21" s="16"/>
-      <c r="BO21" s="16"/>
-      <c r="BP21" s="16"/>
+      <c r="BM21" s="26"/>
+      <c r="BN21" s="26"/>
+      <c r="BO21" s="26"/>
+      <c r="BP21" s="26"/>
       <c r="BQ21" s="24"/>
     </row>
     <row r="22" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="82"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="27"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="29"/>
-      <c r="AO22" s="29"/>
-      <c r="AP22" s="29"/>
-      <c r="AQ22" s="30"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="47"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="33"/>
+      <c r="AN22" s="34"/>
+      <c r="AO22" s="34"/>
+      <c r="AP22" s="34"/>
+      <c r="AQ22" s="35"/>
       <c r="AR22" s="13"/>
       <c r="AS22" s="13"/>
       <c r="AT22" s="13"/>
@@ -49996,56 +50037,56 @@
       <c r="BJ22" s="13"/>
       <c r="BK22" s="13"/>
       <c r="BL22" s="14"/>
-      <c r="BM22" s="13"/>
-      <c r="BN22" s="13"/>
-      <c r="BO22" s="13"/>
-      <c r="BP22" s="13"/>
+      <c r="BM22" s="27"/>
+      <c r="BN22" s="27"/>
+      <c r="BO22" s="27"/>
+      <c r="BP22" s="27"/>
       <c r="BQ22" s="23"/>
     </row>
     <row r="23" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="85"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="57"/>
-      <c r="AM23" s="58"/>
-      <c r="AN23" s="59"/>
-      <c r="AO23" s="59"/>
-      <c r="AP23" s="59"/>
-      <c r="AQ23" s="60"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="58"/>
+      <c r="AI23" s="59"/>
+      <c r="AJ23" s="60"/>
+      <c r="AK23" s="61"/>
+      <c r="AL23" s="62"/>
+      <c r="AM23" s="63"/>
+      <c r="AN23" s="64"/>
+      <c r="AO23" s="64"/>
+      <c r="AP23" s="64"/>
+      <c r="AQ23" s="65"/>
       <c r="AR23" s="16"/>
       <c r="AS23" s="16"/>
       <c r="AT23" s="16"/>
@@ -50067,56 +50108,56 @@
       <c r="BJ23" s="16"/>
       <c r="BK23" s="16"/>
       <c r="BL23" s="17"/>
-      <c r="BM23" s="16"/>
-      <c r="BN23" s="16"/>
-      <c r="BO23" s="16"/>
-      <c r="BP23" s="16"/>
+      <c r="BM23" s="26"/>
+      <c r="BN23" s="26"/>
+      <c r="BO23" s="26"/>
+      <c r="BP23" s="26"/>
       <c r="BQ23" s="24"/>
     </row>
     <row r="24" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="82"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="27"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="29"/>
-      <c r="AO24" s="29"/>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="30"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="46"/>
+      <c r="AG24" s="46"/>
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="32"/>
+      <c r="AM24" s="33"/>
+      <c r="AN24" s="34"/>
+      <c r="AO24" s="34"/>
+      <c r="AP24" s="34"/>
+      <c r="AQ24" s="35"/>
       <c r="AR24" s="13"/>
       <c r="AS24" s="13"/>
       <c r="AT24" s="13"/>
@@ -50138,56 +50179,56 @@
       <c r="BJ24" s="13"/>
       <c r="BK24" s="13"/>
       <c r="BL24" s="14"/>
-      <c r="BM24" s="13"/>
-      <c r="BN24" s="13"/>
-      <c r="BO24" s="13"/>
-      <c r="BP24" s="13"/>
+      <c r="BM24" s="27"/>
+      <c r="BN24" s="27"/>
+      <c r="BO24" s="27"/>
+      <c r="BP24" s="27"/>
       <c r="BQ24" s="23"/>
     </row>
     <row r="25" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="85"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="53"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="54"/>
-      <c r="AJ25" s="55"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="58"/>
-      <c r="AN25" s="59"/>
-      <c r="AO25" s="59"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="60"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="58"/>
+      <c r="AG25" s="58"/>
+      <c r="AH25" s="58"/>
+      <c r="AI25" s="59"/>
+      <c r="AJ25" s="60"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="62"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="64"/>
+      <c r="AO25" s="64"/>
+      <c r="AP25" s="64"/>
+      <c r="AQ25" s="65"/>
       <c r="AR25" s="16"/>
       <c r="AS25" s="16"/>
       <c r="AT25" s="16"/>
@@ -50209,56 +50250,56 @@
       <c r="BJ25" s="16"/>
       <c r="BK25" s="16"/>
       <c r="BL25" s="17"/>
-      <c r="BM25" s="16"/>
-      <c r="BN25" s="16"/>
-      <c r="BO25" s="16"/>
-      <c r="BP25" s="16"/>
+      <c r="BM25" s="26"/>
+      <c r="BN25" s="26"/>
+      <c r="BO25" s="26"/>
+      <c r="BP25" s="26"/>
       <c r="BQ25" s="24"/>
     </row>
     <row r="26" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="82"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="39"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="41"/>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="42"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="27"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="29"/>
-      <c r="AO26" s="29"/>
-      <c r="AP26" s="29"/>
-      <c r="AQ26" s="30"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="43"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="31"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="33"/>
+      <c r="AN26" s="34"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="34"/>
+      <c r="AQ26" s="35"/>
       <c r="AR26" s="13"/>
       <c r="AS26" s="13"/>
       <c r="AT26" s="13"/>
@@ -50280,56 +50321,56 @@
       <c r="BJ26" s="13"/>
       <c r="BK26" s="13"/>
       <c r="BL26" s="14"/>
-      <c r="BM26" s="13"/>
-      <c r="BN26" s="13"/>
-      <c r="BO26" s="13"/>
-      <c r="BP26" s="13"/>
+      <c r="BM26" s="27"/>
+      <c r="BN26" s="27"/>
+      <c r="BO26" s="27"/>
+      <c r="BP26" s="27"/>
       <c r="BQ26" s="23"/>
     </row>
     <row r="27" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="85"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="53"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="54"/>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="56"/>
-      <c r="AL27" s="57"/>
-      <c r="AM27" s="58"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="60"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="58"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="58"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="60"/>
+      <c r="AK27" s="61"/>
+      <c r="AL27" s="62"/>
+      <c r="AM27" s="63"/>
+      <c r="AN27" s="64"/>
+      <c r="AO27" s="64"/>
+      <c r="AP27" s="64"/>
+      <c r="AQ27" s="65"/>
       <c r="AR27" s="16"/>
       <c r="AS27" s="16"/>
       <c r="AT27" s="16"/>
@@ -50351,56 +50392,56 @@
       <c r="BJ27" s="16"/>
       <c r="BK27" s="16"/>
       <c r="BL27" s="17"/>
-      <c r="BM27" s="16"/>
-      <c r="BN27" s="16"/>
-      <c r="BO27" s="16"/>
-      <c r="BP27" s="16"/>
+      <c r="BM27" s="26"/>
+      <c r="BN27" s="26"/>
+      <c r="BO27" s="26"/>
+      <c r="BP27" s="26"/>
       <c r="BQ27" s="24"/>
     </row>
     <row r="28" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="82"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="41"/>
-      <c r="AH28" s="41"/>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="26"/>
-      <c r="AL28" s="27"/>
-      <c r="AM28" s="28"/>
-      <c r="AN28" s="29"/>
-      <c r="AO28" s="29"/>
-      <c r="AP28" s="29"/>
-      <c r="AQ28" s="30"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="33"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="34"/>
+      <c r="AQ28" s="35"/>
       <c r="AR28" s="13"/>
       <c r="AS28" s="13"/>
       <c r="AT28" s="13"/>
@@ -50422,56 +50463,56 @@
       <c r="BJ28" s="13"/>
       <c r="BK28" s="13"/>
       <c r="BL28" s="14"/>
-      <c r="BM28" s="13"/>
-      <c r="BN28" s="13"/>
-      <c r="BO28" s="13"/>
-      <c r="BP28" s="13"/>
+      <c r="BM28" s="27"/>
+      <c r="BN28" s="27"/>
+      <c r="BO28" s="27"/>
+      <c r="BP28" s="27"/>
       <c r="BQ28" s="23"/>
     </row>
     <row r="29" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="85"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="53"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="55"/>
-      <c r="AK29" s="56"/>
-      <c r="AL29" s="57"/>
-      <c r="AM29" s="58"/>
-      <c r="AN29" s="59"/>
-      <c r="AO29" s="59"/>
-      <c r="AP29" s="59"/>
-      <c r="AQ29" s="60"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="58"/>
+      <c r="AG29" s="58"/>
+      <c r="AH29" s="58"/>
+      <c r="AI29" s="59"/>
+      <c r="AJ29" s="60"/>
+      <c r="AK29" s="61"/>
+      <c r="AL29" s="62"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="64"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="65"/>
       <c r="AR29" s="16"/>
       <c r="AS29" s="16"/>
       <c r="AT29" s="16"/>
@@ -50493,56 +50534,56 @@
       <c r="BJ29" s="16"/>
       <c r="BK29" s="16"/>
       <c r="BL29" s="17"/>
-      <c r="BM29" s="16"/>
-      <c r="BN29" s="16"/>
-      <c r="BO29" s="16"/>
-      <c r="BP29" s="16"/>
+      <c r="BM29" s="26"/>
+      <c r="BN29" s="26"/>
+      <c r="BO29" s="26"/>
+      <c r="BP29" s="26"/>
       <c r="BQ29" s="24"/>
     </row>
     <row r="30" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="40"/>
-      <c r="AF30" s="41"/>
-      <c r="AG30" s="41"/>
-      <c r="AH30" s="41"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="25"/>
-      <c r="AK30" s="26"/>
-      <c r="AL30" s="27"/>
-      <c r="AM30" s="28"/>
-      <c r="AN30" s="29"/>
-      <c r="AO30" s="29"/>
-      <c r="AP30" s="29"/>
-      <c r="AQ30" s="30"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="46"/>
+      <c r="AG30" s="46"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="47"/>
+      <c r="AJ30" s="30"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="33"/>
+      <c r="AN30" s="34"/>
+      <c r="AO30" s="34"/>
+      <c r="AP30" s="34"/>
+      <c r="AQ30" s="35"/>
       <c r="AR30" s="13"/>
       <c r="AS30" s="13"/>
       <c r="AT30" s="13"/>
@@ -50564,56 +50605,56 @@
       <c r="BJ30" s="13"/>
       <c r="BK30" s="13"/>
       <c r="BL30" s="14"/>
-      <c r="BM30" s="13"/>
-      <c r="BN30" s="13"/>
-      <c r="BO30" s="13"/>
-      <c r="BP30" s="13"/>
+      <c r="BM30" s="27"/>
+      <c r="BN30" s="27"/>
+      <c r="BO30" s="27"/>
+      <c r="BP30" s="27"/>
       <c r="BQ30" s="23"/>
     </row>
     <row r="31" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="85"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="54"/>
-      <c r="AJ31" s="55"/>
-      <c r="AK31" s="56"/>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="58"/>
-      <c r="AN31" s="59"/>
-      <c r="AO31" s="59"/>
-      <c r="AP31" s="59"/>
-      <c r="AQ31" s="60"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="58"/>
+      <c r="AG31" s="58"/>
+      <c r="AH31" s="58"/>
+      <c r="AI31" s="59"/>
+      <c r="AJ31" s="60"/>
+      <c r="AK31" s="61"/>
+      <c r="AL31" s="62"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="64"/>
+      <c r="AO31" s="64"/>
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="65"/>
       <c r="AR31" s="16"/>
       <c r="AS31" s="16"/>
       <c r="AT31" s="16"/>
@@ -50635,56 +50676,56 @@
       <c r="BJ31" s="16"/>
       <c r="BK31" s="16"/>
       <c r="BL31" s="17"/>
-      <c r="BM31" s="16"/>
-      <c r="BN31" s="16"/>
-      <c r="BO31" s="16"/>
-      <c r="BP31" s="16"/>
+      <c r="BM31" s="26"/>
+      <c r="BN31" s="26"/>
+      <c r="BO31" s="26"/>
+      <c r="BP31" s="26"/>
       <c r="BQ31" s="24"/>
     </row>
     <row r="32" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="82"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="41"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="42"/>
-      <c r="AJ32" s="25"/>
-      <c r="AK32" s="26"/>
-      <c r="AL32" s="27"/>
-      <c r="AM32" s="28"/>
-      <c r="AN32" s="29"/>
-      <c r="AO32" s="29"/>
-      <c r="AP32" s="29"/>
-      <c r="AQ32" s="30"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="46"/>
+      <c r="AI32" s="47"/>
+      <c r="AJ32" s="30"/>
+      <c r="AK32" s="31"/>
+      <c r="AL32" s="32"/>
+      <c r="AM32" s="33"/>
+      <c r="AN32" s="34"/>
+      <c r="AO32" s="34"/>
+      <c r="AP32" s="34"/>
+      <c r="AQ32" s="35"/>
       <c r="AR32" s="13"/>
       <c r="AS32" s="13"/>
       <c r="AT32" s="13"/>
@@ -50706,56 +50747,56 @@
       <c r="BJ32" s="13"/>
       <c r="BK32" s="13"/>
       <c r="BL32" s="14"/>
-      <c r="BM32" s="13"/>
-      <c r="BN32" s="13"/>
-      <c r="BO32" s="13"/>
-      <c r="BP32" s="13"/>
+      <c r="BM32" s="27"/>
+      <c r="BN32" s="27"/>
+      <c r="BO32" s="27"/>
+      <c r="BP32" s="27"/>
       <c r="BQ32" s="23"/>
     </row>
     <row r="33" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="85"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="54"/>
-      <c r="AJ33" s="55"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="58"/>
-      <c r="AN33" s="59"/>
-      <c r="AO33" s="59"/>
-      <c r="AP33" s="59"/>
-      <c r="AQ33" s="60"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="58"/>
+      <c r="AG33" s="58"/>
+      <c r="AH33" s="58"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="60"/>
+      <c r="AK33" s="61"/>
+      <c r="AL33" s="62"/>
+      <c r="AM33" s="63"/>
+      <c r="AN33" s="64"/>
+      <c r="AO33" s="64"/>
+      <c r="AP33" s="64"/>
+      <c r="AQ33" s="65"/>
       <c r="AR33" s="16"/>
       <c r="AS33" s="16"/>
       <c r="AT33" s="16"/>
@@ -50777,56 +50818,56 @@
       <c r="BJ33" s="16"/>
       <c r="BK33" s="16"/>
       <c r="BL33" s="17"/>
-      <c r="BM33" s="16"/>
-      <c r="BN33" s="16"/>
-      <c r="BO33" s="16"/>
-      <c r="BP33" s="16"/>
+      <c r="BM33" s="26"/>
+      <c r="BN33" s="26"/>
+      <c r="BO33" s="26"/>
+      <c r="BP33" s="26"/>
       <c r="BQ33" s="24"/>
     </row>
     <row r="34" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="82"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="40"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="41"/>
-      <c r="AI34" s="42"/>
-      <c r="AJ34" s="25"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="27"/>
-      <c r="AM34" s="28"/>
-      <c r="AN34" s="29"/>
-      <c r="AO34" s="29"/>
-      <c r="AP34" s="29"/>
-      <c r="AQ34" s="30"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="46"/>
+      <c r="AG34" s="46"/>
+      <c r="AH34" s="46"/>
+      <c r="AI34" s="47"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="32"/>
+      <c r="AM34" s="33"/>
+      <c r="AN34" s="34"/>
+      <c r="AO34" s="34"/>
+      <c r="AP34" s="34"/>
+      <c r="AQ34" s="35"/>
       <c r="AR34" s="13"/>
       <c r="AS34" s="13"/>
       <c r="AT34" s="13"/>
@@ -50848,10 +50889,10 @@
       <c r="BJ34" s="13"/>
       <c r="BK34" s="13"/>
       <c r="BL34" s="14"/>
-      <c r="BM34" s="13"/>
-      <c r="BN34" s="13"/>
-      <c r="BO34" s="13"/>
-      <c r="BP34" s="13"/>
+      <c r="BM34" s="27"/>
+      <c r="BN34" s="27"/>
+      <c r="BO34" s="27"/>
+      <c r="BP34" s="27"/>
       <c r="BQ34" s="23"/>
     </row>
   </sheetData>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KDP003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KDP003.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0FB1BB57-0134-4C56-97D6-B5481ABB77AC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D9E124F2-B6CA-433A-9451-0A5566A42C74}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9585" tabRatio="628" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,220 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
-  <si>
-    <t>職場名</t>
-    <rPh sb="0" eb="2">
-      <t>ショクバ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>出退勤区分</t>
-    <rPh sb="0" eb="1">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>タイキン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>就業時間帯</t>
-    <rPh sb="0" eb="2">
-      <t>シュウギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジカンタイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>設置場所</t>
-    <rPh sb="0" eb="2">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>位置情報</t>
-    <rPh sb="0" eb="2">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>残業時間</t>
-    <rPh sb="0" eb="2">
-      <t>ザンギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>深夜時間</t>
-    <rPh sb="0" eb="2">
-      <t>シンヤ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>応援カード</t>
-    <rPh sb="0" eb="2">
-      <t>オウエン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>【対象期間】2018/04/01　～　2018/04/30</t>
-    <rPh sb="1" eb="3">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キカン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>職場コード</t>
-    <rPh sb="0" eb="2">
-      <t>ショクバ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>職場名</t>
-    <rPh sb="0" eb="2">
-      <t>ショクバ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>社員コード</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>社員名</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>カードNO</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>年月日</t>
-    <rPh sb="0" eb="3">
-      <t>ネンガッピ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>時刻</t>
-    <rPh sb="0" eb="2">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>出退勤区分</t>
-    <rPh sb="0" eb="1">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>タイキン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>就業時間帯</t>
-    <rPh sb="0" eb="2">
-      <t>シュウギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジカンタイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>設置場所</t>
-    <rPh sb="0" eb="2">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>位置情報</t>
-    <rPh sb="0" eb="2">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>残業時間</t>
-    <rPh sb="0" eb="2">
-      <t>ザンギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>深夜時間</t>
-    <rPh sb="0" eb="2">
-      <t>シンヤ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>応援カード</t>
-    <rPh sb="0" eb="2">
-      <t>オウエン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1634,114 +1421,6 @@
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="30" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1805,13 +1484,118 @@
     <xf numFmtId="49" fontId="30" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,10 +1607,13 @@
     <xf numFmtId="49" fontId="30" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -45818,118 +45605,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696D73DC-8710-4936-A161-D0B2548C0096}">
   <dimension ref="A1:CB34"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BQ34" sqref="BM1:BQ34"/>
-    </sheetView>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="2" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="1" spans="1:80" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="68"/>
-      <c r="BA2" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB2" s="67"/>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="68"/>
-      <c r="BE2" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="68"/>
-      <c r="BI2" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ2" s="67"/>
-      <c r="BK2" s="67"/>
-      <c r="BL2" s="68"/>
-      <c r="BM2" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="67"/>
-      <c r="BP2" s="67"/>
-      <c r="BQ2" s="67"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="32"/>
+      <c r="BI2" s="30"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="32"/>
+      <c r="BM2" s="30"/>
+      <c r="BN2" s="31"/>
+      <c r="BO2" s="31"/>
+      <c r="BP2" s="31"/>
+      <c r="BQ2" s="31"/>
       <c r="BU2" s="3"/>
       <c r="BV2" s="3"/>
       <c r="BW2" s="3"/>
@@ -45940,49 +45693,49 @@
       <c r="CB2" s="3"/>
     </row>
     <row r="3" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="83"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="85"/>
-      <c r="AP3" s="85"/>
-      <c r="AQ3" s="86"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="50"/>
       <c r="AR3" s="19"/>
       <c r="AS3" s="19"/>
       <c r="AT3" s="19"/>
@@ -46011,49 +45764,49 @@
       <c r="BQ3" s="19"/>
     </row>
     <row r="4" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="35"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="56"/>
       <c r="AR4" s="13"/>
       <c r="AS4" s="13"/>
       <c r="AT4" s="13"/>
@@ -46082,49 +45835,49 @@
       <c r="BQ4" s="13"/>
     </row>
     <row r="5" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="61"/>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="63"/>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="64"/>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="65"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="71"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="73"/>
+      <c r="AO5" s="73"/>
+      <c r="AP5" s="73"/>
+      <c r="AQ5" s="74"/>
       <c r="AR5" s="16"/>
       <c r="AS5" s="16"/>
       <c r="AT5" s="16"/>
@@ -46153,49 +45906,49 @@
       <c r="BQ5" s="16"/>
     </row>
     <row r="6" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
-      <c r="AP6" s="34"/>
-      <c r="AQ6" s="35"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="85"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="52"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="56"/>
       <c r="AR6" s="13"/>
       <c r="AS6" s="13"/>
       <c r="AT6" s="13"/>
@@ -46224,49 +45977,49 @@
       <c r="BQ6" s="13"/>
     </row>
     <row r="7" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="58"/>
-      <c r="AG7" s="58"/>
-      <c r="AH7" s="58"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="61"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="63"/>
-      <c r="AN7" s="64"/>
-      <c r="AO7" s="64"/>
-      <c r="AP7" s="64"/>
-      <c r="AQ7" s="65"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="67"/>
+      <c r="AH7" s="67"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="73"/>
+      <c r="AO7" s="73"/>
+      <c r="AP7" s="73"/>
+      <c r="AQ7" s="74"/>
       <c r="AR7" s="16"/>
       <c r="AS7" s="16"/>
       <c r="AT7" s="16"/>
@@ -46295,49 +46048,49 @@
       <c r="BQ7" s="16"/>
     </row>
     <row r="8" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
-      <c r="AP8" s="34"/>
-      <c r="AQ8" s="35"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="56"/>
       <c r="AR8" s="13"/>
       <c r="AS8" s="13"/>
       <c r="AT8" s="13"/>
@@ -46366,49 +46119,49 @@
       <c r="BQ8" s="13"/>
     </row>
     <row r="9" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="60"/>
-      <c r="AK9" s="61"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="63"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="64"/>
-      <c r="AP9" s="64"/>
-      <c r="AQ9" s="65"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="70"/>
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="72"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="73"/>
+      <c r="AQ9" s="74"/>
       <c r="AR9" s="16"/>
       <c r="AS9" s="16"/>
       <c r="AT9" s="16"/>
@@ -46437,49 +46190,49 @@
       <c r="BQ9" s="16"/>
     </row>
     <row r="10" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="35"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="85"/>
+      <c r="AG10" s="85"/>
+      <c r="AH10" s="85"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="54"/>
+      <c r="AN10" s="55"/>
+      <c r="AO10" s="55"/>
+      <c r="AP10" s="55"/>
+      <c r="AQ10" s="56"/>
       <c r="AR10" s="13"/>
       <c r="AS10" s="13"/>
       <c r="AT10" s="13"/>
@@ -46508,49 +46261,49 @@
       <c r="BQ10" s="13"/>
     </row>
     <row r="11" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="61"/>
-      <c r="AL11" s="62"/>
-      <c r="AM11" s="63"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="65"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="70"/>
+      <c r="AL11" s="71"/>
+      <c r="AM11" s="72"/>
+      <c r="AN11" s="73"/>
+      <c r="AO11" s="73"/>
+      <c r="AP11" s="73"/>
+      <c r="AQ11" s="74"/>
       <c r="AR11" s="16"/>
       <c r="AS11" s="16"/>
       <c r="AT11" s="16"/>
@@ -46579,49 +46332,49 @@
       <c r="BQ11" s="16"/>
     </row>
     <row r="12" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="47"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="34"/>
-      <c r="AQ12" s="35"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="85"/>
+      <c r="AG12" s="85"/>
+      <c r="AH12" s="85"/>
+      <c r="AI12" s="86"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="52"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="54"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="55"/>
+      <c r="AP12" s="55"/>
+      <c r="AQ12" s="56"/>
       <c r="AR12" s="13"/>
       <c r="AS12" s="13"/>
       <c r="AT12" s="13"/>
@@ -46650,49 +46403,49 @@
       <c r="BQ12" s="13"/>
     </row>
     <row r="13" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="60"/>
-      <c r="AK13" s="61"/>
-      <c r="AL13" s="62"/>
-      <c r="AM13" s="63"/>
-      <c r="AN13" s="64"/>
-      <c r="AO13" s="64"/>
-      <c r="AP13" s="64"/>
-      <c r="AQ13" s="65"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="67"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="71"/>
+      <c r="AM13" s="72"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="73"/>
+      <c r="AP13" s="73"/>
+      <c r="AQ13" s="74"/>
       <c r="AR13" s="16"/>
       <c r="AS13" s="16"/>
       <c r="AT13" s="16"/>
@@ -46721,49 +46474,49 @@
       <c r="BQ13" s="16"/>
     </row>
     <row r="14" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="34"/>
-      <c r="AP14" s="34"/>
-      <c r="AQ14" s="35"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="85"/>
+      <c r="AH14" s="85"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="52"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="55"/>
+      <c r="AO14" s="55"/>
+      <c r="AP14" s="55"/>
+      <c r="AQ14" s="56"/>
       <c r="AR14" s="13"/>
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
@@ -46792,49 +46545,49 @@
       <c r="BQ14" s="13"/>
     </row>
     <row r="15" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="61"/>
-      <c r="AL15" s="62"/>
-      <c r="AM15" s="63"/>
-      <c r="AN15" s="64"/>
-      <c r="AO15" s="64"/>
-      <c r="AP15" s="64"/>
-      <c r="AQ15" s="65"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="67"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="70"/>
+      <c r="AL15" s="71"/>
+      <c r="AM15" s="72"/>
+      <c r="AN15" s="73"/>
+      <c r="AO15" s="73"/>
+      <c r="AP15" s="73"/>
+      <c r="AQ15" s="74"/>
       <c r="AR15" s="16"/>
       <c r="AS15" s="16"/>
       <c r="AT15" s="16"/>
@@ -46863,49 +46616,49 @@
       <c r="BQ15" s="16"/>
     </row>
     <row r="16" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="47"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="35"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="83"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="85"/>
+      <c r="AH16" s="85"/>
+      <c r="AI16" s="86"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="55"/>
+      <c r="AO16" s="55"/>
+      <c r="AP16" s="55"/>
+      <c r="AQ16" s="56"/>
       <c r="AR16" s="13"/>
       <c r="AS16" s="13"/>
       <c r="AT16" s="13"/>
@@ -46934,49 +46687,49 @@
       <c r="BQ16" s="13"/>
     </row>
     <row r="17" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="59"/>
-      <c r="AJ17" s="60"/>
-      <c r="AK17" s="61"/>
-      <c r="AL17" s="62"/>
-      <c r="AM17" s="63"/>
-      <c r="AN17" s="64"/>
-      <c r="AO17" s="64"/>
-      <c r="AP17" s="64"/>
-      <c r="AQ17" s="65"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="67"/>
+      <c r="AG17" s="67"/>
+      <c r="AH17" s="67"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="72"/>
+      <c r="AN17" s="73"/>
+      <c r="AO17" s="73"/>
+      <c r="AP17" s="73"/>
+      <c r="AQ17" s="74"/>
       <c r="AR17" s="16"/>
       <c r="AS17" s="16"/>
       <c r="AT17" s="16"/>
@@ -47005,49 +46758,49 @@
       <c r="BQ17" s="16"/>
     </row>
     <row r="18" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="34"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="34"/>
-      <c r="AQ18" s="35"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="85"/>
+      <c r="AH18" s="85"/>
+      <c r="AI18" s="86"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="53"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="55"/>
+      <c r="AO18" s="55"/>
+      <c r="AP18" s="55"/>
+      <c r="AQ18" s="56"/>
       <c r="AR18" s="13"/>
       <c r="AS18" s="13"/>
       <c r="AT18" s="13"/>
@@ -47076,49 +46829,49 @@
       <c r="BQ18" s="13"/>
     </row>
     <row r="19" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="58"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="63"/>
-      <c r="AN19" s="64"/>
-      <c r="AO19" s="64"/>
-      <c r="AP19" s="64"/>
-      <c r="AQ19" s="65"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="67"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="69"/>
+      <c r="AK19" s="70"/>
+      <c r="AL19" s="71"/>
+      <c r="AM19" s="72"/>
+      <c r="AN19" s="73"/>
+      <c r="AO19" s="73"/>
+      <c r="AP19" s="73"/>
+      <c r="AQ19" s="74"/>
       <c r="AR19" s="16"/>
       <c r="AS19" s="16"/>
       <c r="AT19" s="16"/>
@@ -47147,49 +46900,49 @@
       <c r="BQ19" s="16"/>
     </row>
     <row r="20" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="46"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="33"/>
-      <c r="AN20" s="34"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="34"/>
-      <c r="AQ20" s="35"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="85"/>
+      <c r="AH20" s="85"/>
+      <c r="AI20" s="86"/>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="54"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="55"/>
+      <c r="AP20" s="55"/>
+      <c r="AQ20" s="56"/>
       <c r="AR20" s="13"/>
       <c r="AS20" s="13"/>
       <c r="AT20" s="13"/>
@@ -47218,49 +46971,49 @@
       <c r="BQ20" s="13"/>
     </row>
     <row r="21" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="55"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="60"/>
-      <c r="AK21" s="61"/>
-      <c r="AL21" s="62"/>
-      <c r="AM21" s="63"/>
-      <c r="AN21" s="64"/>
-      <c r="AO21" s="64"/>
-      <c r="AP21" s="64"/>
-      <c r="AQ21" s="65"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="67"/>
+      <c r="AG21" s="67"/>
+      <c r="AH21" s="67"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="71"/>
+      <c r="AM21" s="72"/>
+      <c r="AN21" s="73"/>
+      <c r="AO21" s="73"/>
+      <c r="AP21" s="73"/>
+      <c r="AQ21" s="74"/>
       <c r="AR21" s="16"/>
       <c r="AS21" s="16"/>
       <c r="AT21" s="16"/>
@@ -47289,49 +47042,49 @@
       <c r="BQ21" s="16"/>
     </row>
     <row r="22" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="46"/>
-      <c r="AH22" s="46"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="34"/>
-      <c r="AO22" s="34"/>
-      <c r="AP22" s="34"/>
-      <c r="AQ22" s="35"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="83"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="85"/>
+      <c r="AH22" s="85"/>
+      <c r="AI22" s="86"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="52"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="54"/>
+      <c r="AN22" s="55"/>
+      <c r="AO22" s="55"/>
+      <c r="AP22" s="55"/>
+      <c r="AQ22" s="56"/>
       <c r="AR22" s="13"/>
       <c r="AS22" s="13"/>
       <c r="AT22" s="13"/>
@@ -47360,49 +47113,49 @@
       <c r="BQ22" s="13"/>
     </row>
     <row r="23" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="55"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="58"/>
-      <c r="AI23" s="59"/>
-      <c r="AJ23" s="60"/>
-      <c r="AK23" s="61"/>
-      <c r="AL23" s="62"/>
-      <c r="AM23" s="63"/>
-      <c r="AN23" s="64"/>
-      <c r="AO23" s="64"/>
-      <c r="AP23" s="64"/>
-      <c r="AQ23" s="65"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="67"/>
+      <c r="AI23" s="68"/>
+      <c r="AJ23" s="69"/>
+      <c r="AK23" s="70"/>
+      <c r="AL23" s="71"/>
+      <c r="AM23" s="72"/>
+      <c r="AN23" s="73"/>
+      <c r="AO23" s="73"/>
+      <c r="AP23" s="73"/>
+      <c r="AQ23" s="74"/>
       <c r="AR23" s="16"/>
       <c r="AS23" s="16"/>
       <c r="AT23" s="16"/>
@@ -47431,49 +47184,49 @@
       <c r="BQ23" s="16"/>
     </row>
     <row r="24" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="47"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="33"/>
-      <c r="AN24" s="34"/>
-      <c r="AO24" s="34"/>
-      <c r="AP24" s="34"/>
-      <c r="AQ24" s="35"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="83"/>
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="85"/>
+      <c r="AG24" s="85"/>
+      <c r="AH24" s="85"/>
+      <c r="AI24" s="86"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="52"/>
+      <c r="AL24" s="53"/>
+      <c r="AM24" s="54"/>
+      <c r="AN24" s="55"/>
+      <c r="AO24" s="55"/>
+      <c r="AP24" s="55"/>
+      <c r="AQ24" s="56"/>
       <c r="AR24" s="13"/>
       <c r="AS24" s="13"/>
       <c r="AT24" s="13"/>
@@ -47502,49 +47255,49 @@
       <c r="BQ24" s="13"/>
     </row>
     <row r="25" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="58"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="60"/>
-      <c r="AK25" s="61"/>
-      <c r="AL25" s="62"/>
-      <c r="AM25" s="63"/>
-      <c r="AN25" s="64"/>
-      <c r="AO25" s="64"/>
-      <c r="AP25" s="64"/>
-      <c r="AQ25" s="65"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="66"/>
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="67"/>
+      <c r="AH25" s="67"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="69"/>
+      <c r="AK25" s="70"/>
+      <c r="AL25" s="71"/>
+      <c r="AM25" s="72"/>
+      <c r="AN25" s="73"/>
+      <c r="AO25" s="73"/>
+      <c r="AP25" s="73"/>
+      <c r="AQ25" s="74"/>
       <c r="AR25" s="16"/>
       <c r="AS25" s="16"/>
       <c r="AT25" s="16"/>
@@ -47573,49 +47326,49 @@
       <c r="BQ25" s="16"/>
     </row>
     <row r="26" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="43"/>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="30"/>
-      <c r="AK26" s="31"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="33"/>
-      <c r="AN26" s="34"/>
-      <c r="AO26" s="34"/>
-      <c r="AP26" s="34"/>
-      <c r="AQ26" s="35"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="83"/>
+      <c r="AE26" s="84"/>
+      <c r="AF26" s="85"/>
+      <c r="AG26" s="85"/>
+      <c r="AH26" s="85"/>
+      <c r="AI26" s="86"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="53"/>
+      <c r="AM26" s="54"/>
+      <c r="AN26" s="55"/>
+      <c r="AO26" s="55"/>
+      <c r="AP26" s="55"/>
+      <c r="AQ26" s="56"/>
       <c r="AR26" s="13"/>
       <c r="AS26" s="13"/>
       <c r="AT26" s="13"/>
@@ -47644,49 +47397,49 @@
       <c r="BQ26" s="13"/>
     </row>
     <row r="27" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="55"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="58"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="58"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="60"/>
-      <c r="AK27" s="61"/>
-      <c r="AL27" s="62"/>
-      <c r="AM27" s="63"/>
-      <c r="AN27" s="64"/>
-      <c r="AO27" s="64"/>
-      <c r="AP27" s="64"/>
-      <c r="AQ27" s="65"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="66"/>
+      <c r="AF27" s="67"/>
+      <c r="AG27" s="67"/>
+      <c r="AH27" s="67"/>
+      <c r="AI27" s="68"/>
+      <c r="AJ27" s="69"/>
+      <c r="AK27" s="70"/>
+      <c r="AL27" s="71"/>
+      <c r="AM27" s="72"/>
+      <c r="AN27" s="73"/>
+      <c r="AO27" s="73"/>
+      <c r="AP27" s="73"/>
+      <c r="AQ27" s="74"/>
       <c r="AR27" s="16"/>
       <c r="AS27" s="16"/>
       <c r="AT27" s="16"/>
@@ -47715,49 +47468,49 @@
       <c r="BQ27" s="16"/>
     </row>
     <row r="28" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="43"/>
-      <c r="AC28" s="43"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="47"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="31"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="34"/>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="34"/>
-      <c r="AQ28" s="35"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="82"/>
+      <c r="AB28" s="82"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="83"/>
+      <c r="AE28" s="84"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="85"/>
+      <c r="AH28" s="85"/>
+      <c r="AI28" s="86"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="54"/>
+      <c r="AN28" s="55"/>
+      <c r="AO28" s="55"/>
+      <c r="AP28" s="55"/>
+      <c r="AQ28" s="56"/>
       <c r="AR28" s="13"/>
       <c r="AS28" s="13"/>
       <c r="AT28" s="13"/>
@@ -47786,49 +47539,49 @@
       <c r="BQ28" s="13"/>
     </row>
     <row r="29" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="55"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="58"/>
-      <c r="AH29" s="58"/>
-      <c r="AI29" s="59"/>
-      <c r="AJ29" s="60"/>
-      <c r="AK29" s="61"/>
-      <c r="AL29" s="62"/>
-      <c r="AM29" s="63"/>
-      <c r="AN29" s="64"/>
-      <c r="AO29" s="64"/>
-      <c r="AP29" s="64"/>
-      <c r="AQ29" s="65"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="66"/>
+      <c r="AF29" s="67"/>
+      <c r="AG29" s="67"/>
+      <c r="AH29" s="67"/>
+      <c r="AI29" s="68"/>
+      <c r="AJ29" s="69"/>
+      <c r="AK29" s="70"/>
+      <c r="AL29" s="71"/>
+      <c r="AM29" s="72"/>
+      <c r="AN29" s="73"/>
+      <c r="AO29" s="73"/>
+      <c r="AP29" s="73"/>
+      <c r="AQ29" s="74"/>
       <c r="AR29" s="16"/>
       <c r="AS29" s="16"/>
       <c r="AT29" s="16"/>
@@ -47857,49 +47610,49 @@
       <c r="BQ29" s="16"/>
     </row>
     <row r="30" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="44"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="47"/>
-      <c r="AJ30" s="30"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="32"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="34"/>
-      <c r="AO30" s="34"/>
-      <c r="AP30" s="34"/>
-      <c r="AQ30" s="35"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="75"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="82"/>
+      <c r="AC30" s="82"/>
+      <c r="AD30" s="83"/>
+      <c r="AE30" s="84"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="85"/>
+      <c r="AH30" s="85"/>
+      <c r="AI30" s="86"/>
+      <c r="AJ30" s="51"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="54"/>
+      <c r="AN30" s="55"/>
+      <c r="AO30" s="55"/>
+      <c r="AP30" s="55"/>
+      <c r="AQ30" s="56"/>
       <c r="AR30" s="13"/>
       <c r="AS30" s="13"/>
       <c r="AT30" s="13"/>
@@ -47928,49 +47681,49 @@
       <c r="BQ30" s="13"/>
     </row>
     <row r="31" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="55"/>
-      <c r="AB31" s="55"/>
-      <c r="AC31" s="55"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="58"/>
-      <c r="AG31" s="58"/>
-      <c r="AH31" s="58"/>
-      <c r="AI31" s="59"/>
-      <c r="AJ31" s="60"/>
-      <c r="AK31" s="61"/>
-      <c r="AL31" s="62"/>
-      <c r="AM31" s="63"/>
-      <c r="AN31" s="64"/>
-      <c r="AO31" s="64"/>
-      <c r="AP31" s="64"/>
-      <c r="AQ31" s="65"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="64"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="67"/>
+      <c r="AG31" s="67"/>
+      <c r="AH31" s="67"/>
+      <c r="AI31" s="68"/>
+      <c r="AJ31" s="69"/>
+      <c r="AK31" s="70"/>
+      <c r="AL31" s="71"/>
+      <c r="AM31" s="72"/>
+      <c r="AN31" s="73"/>
+      <c r="AO31" s="73"/>
+      <c r="AP31" s="73"/>
+      <c r="AQ31" s="74"/>
       <c r="AR31" s="16"/>
       <c r="AS31" s="16"/>
       <c r="AT31" s="16"/>
@@ -47999,49 +47752,49 @@
       <c r="BQ31" s="16"/>
     </row>
     <row r="32" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="43"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="43"/>
-      <c r="AC32" s="43"/>
-      <c r="AD32" s="44"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="47"/>
-      <c r="AJ32" s="30"/>
-      <c r="AK32" s="31"/>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="34"/>
-      <c r="AO32" s="34"/>
-      <c r="AP32" s="34"/>
-      <c r="AQ32" s="35"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="76"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="82"/>
+      <c r="AB32" s="82"/>
+      <c r="AC32" s="82"/>
+      <c r="AD32" s="83"/>
+      <c r="AE32" s="84"/>
+      <c r="AF32" s="85"/>
+      <c r="AG32" s="85"/>
+      <c r="AH32" s="85"/>
+      <c r="AI32" s="86"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="53"/>
+      <c r="AM32" s="54"/>
+      <c r="AN32" s="55"/>
+      <c r="AO32" s="55"/>
+      <c r="AP32" s="55"/>
+      <c r="AQ32" s="56"/>
       <c r="AR32" s="13"/>
       <c r="AS32" s="13"/>
       <c r="AT32" s="13"/>
@@ -48070,49 +47823,49 @@
       <c r="BQ32" s="13"/>
     </row>
     <row r="33" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="55"/>
-      <c r="AA33" s="55"/>
-      <c r="AB33" s="55"/>
-      <c r="AC33" s="55"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="58"/>
-      <c r="AG33" s="58"/>
-      <c r="AH33" s="58"/>
-      <c r="AI33" s="59"/>
-      <c r="AJ33" s="60"/>
-      <c r="AK33" s="61"/>
-      <c r="AL33" s="62"/>
-      <c r="AM33" s="63"/>
-      <c r="AN33" s="64"/>
-      <c r="AO33" s="64"/>
-      <c r="AP33" s="64"/>
-      <c r="AQ33" s="65"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="67"/>
+      <c r="AG33" s="67"/>
+      <c r="AH33" s="67"/>
+      <c r="AI33" s="68"/>
+      <c r="AJ33" s="69"/>
+      <c r="AK33" s="70"/>
+      <c r="AL33" s="71"/>
+      <c r="AM33" s="72"/>
+      <c r="AN33" s="73"/>
+      <c r="AO33" s="73"/>
+      <c r="AP33" s="73"/>
+      <c r="AQ33" s="74"/>
       <c r="AR33" s="16"/>
       <c r="AS33" s="16"/>
       <c r="AT33" s="16"/>
@@ -48141,49 +47894,49 @@
       <c r="BQ33" s="16"/>
     </row>
     <row r="34" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
-      <c r="AA34" s="43"/>
-      <c r="AB34" s="43"/>
-      <c r="AC34" s="43"/>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="46"/>
-      <c r="AG34" s="46"/>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="47"/>
-      <c r="AJ34" s="30"/>
-      <c r="AK34" s="31"/>
-      <c r="AL34" s="32"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="34"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="34"/>
-      <c r="AQ34" s="35"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="80"/>
+      <c r="S34" s="75"/>
+      <c r="T34" s="75"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="76"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="82"/>
+      <c r="AB34" s="82"/>
+      <c r="AC34" s="82"/>
+      <c r="AD34" s="83"/>
+      <c r="AE34" s="84"/>
+      <c r="AF34" s="85"/>
+      <c r="AG34" s="85"/>
+      <c r="AH34" s="85"/>
+      <c r="AI34" s="86"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="52"/>
+      <c r="AL34" s="53"/>
+      <c r="AM34" s="54"/>
+      <c r="AN34" s="55"/>
+      <c r="AO34" s="55"/>
+      <c r="AP34" s="55"/>
+      <c r="AQ34" s="56"/>
       <c r="AR34" s="13"/>
       <c r="AS34" s="13"/>
       <c r="AT34" s="13"/>
@@ -48213,252 +47966,6 @@
     </row>
   </sheetData>
   <mergeCells count="270">
-    <mergeCell ref="BI2:BL2"/>
-    <mergeCell ref="BM2:BQ2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:W3"/>
-    <mergeCell ref="X3:AD3"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="BA2:BD2"/>
-    <mergeCell ref="BE2:BH2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="X2:AD2"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AM4:AQ4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="AE5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="X4:AD4"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="AJ7:AL7"/>
-    <mergeCell ref="AM7:AQ7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="AE8:AI8"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="X11:AD11"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AM11:AQ11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="X10:AD10"/>
-    <mergeCell ref="AE10:AI10"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AM12:AQ12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="X13:AD13"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AM13:AQ13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="X12:AD12"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AM15:AQ15"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AM16:AQ16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AM17:AQ17"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="AM18:AQ18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="R19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="AM19:AQ19"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="AM20:AQ20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="AJ21:AL21"/>
-    <mergeCell ref="AM21:AQ21"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="AJ22:AL22"/>
-    <mergeCell ref="AM22:AQ22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="AJ23:AL23"/>
-    <mergeCell ref="AM23:AQ23"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="AJ24:AL24"/>
-    <mergeCell ref="AM24:AQ24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="AJ25:AL25"/>
-    <mergeCell ref="AM25:AQ25"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="AJ26:AL26"/>
-    <mergeCell ref="AM26:AQ26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="X27:AD27"/>
-    <mergeCell ref="AE27:AI27"/>
-    <mergeCell ref="AJ27:AL27"/>
-    <mergeCell ref="AM27:AQ27"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="X26:AD26"/>
-    <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="AJ28:AL28"/>
-    <mergeCell ref="AM28:AQ28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="X29:AD29"/>
-    <mergeCell ref="AE29:AI29"/>
-    <mergeCell ref="AJ29:AL29"/>
-    <mergeCell ref="AM29:AQ29"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="X28:AD28"/>
-    <mergeCell ref="AE28:AI28"/>
-    <mergeCell ref="AJ30:AL30"/>
-    <mergeCell ref="AM30:AQ30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="X31:AD31"/>
-    <mergeCell ref="AE31:AI31"/>
-    <mergeCell ref="AJ31:AL31"/>
-    <mergeCell ref="AM31:AQ31"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="X30:AD30"/>
-    <mergeCell ref="AE30:AI30"/>
     <mergeCell ref="AJ34:AL34"/>
     <mergeCell ref="AM34:AQ34"/>
     <mergeCell ref="A34:E34"/>
@@ -48483,13 +47990,255 @@
     <mergeCell ref="R32:W32"/>
     <mergeCell ref="X32:AD32"/>
     <mergeCell ref="AE32:AI32"/>
+    <mergeCell ref="AJ30:AL30"/>
+    <mergeCell ref="AM30:AQ30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="X31:AD31"/>
+    <mergeCell ref="AE31:AI31"/>
+    <mergeCell ref="AJ31:AL31"/>
+    <mergeCell ref="AM31:AQ31"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="X30:AD30"/>
+    <mergeCell ref="AE30:AI30"/>
+    <mergeCell ref="AJ28:AL28"/>
+    <mergeCell ref="AM28:AQ28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="X29:AD29"/>
+    <mergeCell ref="AE29:AI29"/>
+    <mergeCell ref="AJ29:AL29"/>
+    <mergeCell ref="AM29:AQ29"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="X28:AD28"/>
+    <mergeCell ref="AE28:AI28"/>
+    <mergeCell ref="AJ26:AL26"/>
+    <mergeCell ref="AM26:AQ26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="X27:AD27"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="AJ27:AL27"/>
+    <mergeCell ref="AM27:AQ27"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="X26:AD26"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="AJ24:AL24"/>
+    <mergeCell ref="AM24:AQ24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="AE25:AI25"/>
+    <mergeCell ref="AJ25:AL25"/>
+    <mergeCell ref="AM25:AQ25"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="AM22:AQ22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="AM23:AQ23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="AM20:AQ20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="AM21:AQ21"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="AM18:AQ18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="R19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="AJ19:AL19"/>
+    <mergeCell ref="AM19:AQ19"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AM16:AQ16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AM17:AQ17"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="AM14:AQ14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AM15:AQ15"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="AM12:AQ12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="X13:AD13"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="AM13:AQ13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="X12:AD12"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="X11:AD11"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AM11:AQ11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="X10:AD10"/>
+    <mergeCell ref="AE10:AI10"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AM8:AQ8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="AE8:AI8"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="AM7:AQ7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AM4:AQ4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="X5:AD5"/>
+    <mergeCell ref="AE5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="X4:AD4"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="BI2:BL2"/>
+    <mergeCell ref="BM2:BQ2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="X3:AD3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="BA2:BD2"/>
+    <mergeCell ref="BE2:BH2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="X2:AD2"/>
+    <mergeCell ref="AE2:AI2"/>
   </mergeCells>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;9日通システム株式会社&amp;C&amp;"ＭＳ ゴシック,標準"&amp;16打刻一覧&amp;R&amp;"ＭＳ ゴシック,標準"&amp;9&amp;D　&amp;T　
-&amp;Pページ</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -48497,8 +48246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B3A099-E082-43B0-8388-4BFA1FDC2C34}">
   <dimension ref="A1:CB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BI30" sqref="BI30"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="15" customHeight="1"/>
@@ -48507,9 +48256,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:80" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="BM1" s="28"/>
       <c r="BN1" s="28"/>
       <c r="BO1" s="28"/>
@@ -48517,103 +48263,75 @@
       <c r="BQ1" s="29"/>
     </row>
     <row r="2" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="68"/>
-      <c r="BA2" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB2" s="67"/>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="68"/>
-      <c r="BE2" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="68"/>
-      <c r="BI2" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="BJ2" s="67"/>
-      <c r="BK2" s="67"/>
-      <c r="BL2" s="68"/>
-      <c r="BM2" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="67"/>
-      <c r="BP2" s="67"/>
-      <c r="BQ2" s="93"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="32"/>
+      <c r="BI2" s="30"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="32"/>
+      <c r="BM2" s="30"/>
+      <c r="BN2" s="31"/>
+      <c r="BO2" s="31"/>
+      <c r="BP2" s="31"/>
+      <c r="BQ2" s="87"/>
       <c r="BU2" s="3"/>
       <c r="BV2" s="3"/>
       <c r="BW2" s="3"/>
@@ -48624,49 +48342,49 @@
       <c r="CB2" s="3"/>
     </row>
     <row r="3" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="94"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="83"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="85"/>
-      <c r="AP3" s="85"/>
-      <c r="AQ3" s="86"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="50"/>
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
       <c r="AT3" s="4"/>
@@ -48695,49 +48413,49 @@
       <c r="BQ3" s="22"/>
     </row>
     <row r="4" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="35"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="56"/>
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
@@ -48766,49 +48484,49 @@
       <c r="BQ4" s="23"/>
     </row>
     <row r="5" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="90"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="61"/>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="63"/>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="64"/>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="65"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="71"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="73"/>
+      <c r="AO5" s="73"/>
+      <c r="AP5" s="73"/>
+      <c r="AQ5" s="74"/>
       <c r="AR5" s="10"/>
       <c r="AS5" s="10"/>
       <c r="AT5" s="10"/>
@@ -48837,49 +48555,49 @@
       <c r="BQ5" s="24"/>
     </row>
     <row r="6" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
-      <c r="AP6" s="34"/>
-      <c r="AQ6" s="35"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="85"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="52"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="56"/>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7"/>
       <c r="AT6" s="7"/>
@@ -48908,49 +48626,49 @@
       <c r="BQ6" s="23"/>
     </row>
     <row r="7" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="90"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="58"/>
-      <c r="AG7" s="58"/>
-      <c r="AH7" s="58"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="61"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="63"/>
-      <c r="AN7" s="64"/>
-      <c r="AO7" s="64"/>
-      <c r="AP7" s="64"/>
-      <c r="AQ7" s="65"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="67"/>
+      <c r="AH7" s="67"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="73"/>
+      <c r="AO7" s="73"/>
+      <c r="AP7" s="73"/>
+      <c r="AQ7" s="74"/>
       <c r="AR7" s="10"/>
       <c r="AS7" s="10"/>
       <c r="AT7" s="10"/>
@@ -48979,49 +48697,49 @@
       <c r="BQ7" s="24"/>
     </row>
     <row r="8" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
-      <c r="AP8" s="34"/>
-      <c r="AQ8" s="35"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="56"/>
       <c r="AR8" s="7"/>
       <c r="AS8" s="7"/>
       <c r="AT8" s="7"/>
@@ -49050,49 +48768,49 @@
       <c r="BQ8" s="23"/>
     </row>
     <row r="9" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="90"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="60"/>
-      <c r="AK9" s="61"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="63"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="64"/>
-      <c r="AP9" s="64"/>
-      <c r="AQ9" s="65"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="70"/>
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="72"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="73"/>
+      <c r="AQ9" s="74"/>
       <c r="AR9" s="10"/>
       <c r="AS9" s="10"/>
       <c r="AT9" s="10"/>
@@ -49121,49 +48839,49 @@
       <c r="BQ9" s="24"/>
     </row>
     <row r="10" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="87"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="35"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="85"/>
+      <c r="AG10" s="85"/>
+      <c r="AH10" s="85"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="54"/>
+      <c r="AN10" s="55"/>
+      <c r="AO10" s="55"/>
+      <c r="AP10" s="55"/>
+      <c r="AQ10" s="56"/>
       <c r="AR10" s="7"/>
       <c r="AS10" s="7"/>
       <c r="AT10" s="7"/>
@@ -49192,49 +48910,49 @@
       <c r="BQ10" s="23"/>
     </row>
     <row r="11" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="90"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="61"/>
-      <c r="AL11" s="62"/>
-      <c r="AM11" s="63"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="65"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="70"/>
+      <c r="AL11" s="71"/>
+      <c r="AM11" s="72"/>
+      <c r="AN11" s="73"/>
+      <c r="AO11" s="73"/>
+      <c r="AP11" s="73"/>
+      <c r="AQ11" s="74"/>
       <c r="AR11" s="16"/>
       <c r="AS11" s="16"/>
       <c r="AT11" s="16"/>
@@ -49263,49 +48981,49 @@
       <c r="BQ11" s="24"/>
     </row>
     <row r="12" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="87"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="47"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="34"/>
-      <c r="AQ12" s="35"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="85"/>
+      <c r="AG12" s="85"/>
+      <c r="AH12" s="85"/>
+      <c r="AI12" s="86"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="52"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="54"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="55"/>
+      <c r="AP12" s="55"/>
+      <c r="AQ12" s="56"/>
       <c r="AR12" s="13"/>
       <c r="AS12" s="13"/>
       <c r="AT12" s="13"/>
@@ -49334,49 +49052,49 @@
       <c r="BQ12" s="23"/>
     </row>
     <row r="13" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="60"/>
-      <c r="AK13" s="61"/>
-      <c r="AL13" s="62"/>
-      <c r="AM13" s="63"/>
-      <c r="AN13" s="64"/>
-      <c r="AO13" s="64"/>
-      <c r="AP13" s="64"/>
-      <c r="AQ13" s="65"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="67"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="71"/>
+      <c r="AM13" s="72"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="73"/>
+      <c r="AP13" s="73"/>
+      <c r="AQ13" s="74"/>
       <c r="AR13" s="16"/>
       <c r="AS13" s="16"/>
       <c r="AT13" s="16"/>
@@ -49405,49 +49123,49 @@
       <c r="BQ13" s="24"/>
     </row>
     <row r="14" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="87"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="34"/>
-      <c r="AP14" s="34"/>
-      <c r="AQ14" s="35"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="85"/>
+      <c r="AH14" s="85"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="52"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="55"/>
+      <c r="AO14" s="55"/>
+      <c r="AP14" s="55"/>
+      <c r="AQ14" s="56"/>
       <c r="AR14" s="13"/>
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
@@ -49476,49 +49194,49 @@
       <c r="BQ14" s="23"/>
     </row>
     <row r="15" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="90"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="61"/>
-      <c r="AL15" s="62"/>
-      <c r="AM15" s="63"/>
-      <c r="AN15" s="64"/>
-      <c r="AO15" s="64"/>
-      <c r="AP15" s="64"/>
-      <c r="AQ15" s="65"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="67"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="70"/>
+      <c r="AL15" s="71"/>
+      <c r="AM15" s="72"/>
+      <c r="AN15" s="73"/>
+      <c r="AO15" s="73"/>
+      <c r="AP15" s="73"/>
+      <c r="AQ15" s="74"/>
       <c r="AR15" s="16"/>
       <c r="AS15" s="16"/>
       <c r="AT15" s="16"/>
@@ -49547,49 +49265,49 @@
       <c r="BQ15" s="24"/>
     </row>
     <row r="16" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="87"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="47"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="35"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="83"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="85"/>
+      <c r="AH16" s="85"/>
+      <c r="AI16" s="86"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="55"/>
+      <c r="AO16" s="55"/>
+      <c r="AP16" s="55"/>
+      <c r="AQ16" s="56"/>
       <c r="AR16" s="13"/>
       <c r="AS16" s="13"/>
       <c r="AT16" s="13"/>
@@ -49618,49 +49336,49 @@
       <c r="BQ16" s="23"/>
     </row>
     <row r="17" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="90"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="59"/>
-      <c r="AJ17" s="60"/>
-      <c r="AK17" s="61"/>
-      <c r="AL17" s="62"/>
-      <c r="AM17" s="63"/>
-      <c r="AN17" s="64"/>
-      <c r="AO17" s="64"/>
-      <c r="AP17" s="64"/>
-      <c r="AQ17" s="65"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="67"/>
+      <c r="AG17" s="67"/>
+      <c r="AH17" s="67"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="72"/>
+      <c r="AN17" s="73"/>
+      <c r="AO17" s="73"/>
+      <c r="AP17" s="73"/>
+      <c r="AQ17" s="74"/>
       <c r="AR17" s="16"/>
       <c r="AS17" s="16"/>
       <c r="AT17" s="16"/>
@@ -49689,49 +49407,49 @@
       <c r="BQ17" s="24"/>
     </row>
     <row r="18" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="87"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="34"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="34"/>
-      <c r="AQ18" s="35"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="85"/>
+      <c r="AH18" s="85"/>
+      <c r="AI18" s="86"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="53"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="55"/>
+      <c r="AO18" s="55"/>
+      <c r="AP18" s="55"/>
+      <c r="AQ18" s="56"/>
       <c r="AR18" s="13"/>
       <c r="AS18" s="13"/>
       <c r="AT18" s="13"/>
@@ -49760,49 +49478,49 @@
       <c r="BQ18" s="23"/>
     </row>
     <row r="19" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="90"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="58"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="63"/>
-      <c r="AN19" s="64"/>
-      <c r="AO19" s="64"/>
-      <c r="AP19" s="64"/>
-      <c r="AQ19" s="65"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="67"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="69"/>
+      <c r="AK19" s="70"/>
+      <c r="AL19" s="71"/>
+      <c r="AM19" s="72"/>
+      <c r="AN19" s="73"/>
+      <c r="AO19" s="73"/>
+      <c r="AP19" s="73"/>
+      <c r="AQ19" s="74"/>
       <c r="AR19" s="16"/>
       <c r="AS19" s="16"/>
       <c r="AT19" s="16"/>
@@ -49831,49 +49549,49 @@
       <c r="BQ19" s="24"/>
     </row>
     <row r="20" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="87"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="46"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="33"/>
-      <c r="AN20" s="34"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="34"/>
-      <c r="AQ20" s="35"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="85"/>
+      <c r="AH20" s="85"/>
+      <c r="AI20" s="86"/>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="54"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="55"/>
+      <c r="AP20" s="55"/>
+      <c r="AQ20" s="56"/>
       <c r="AR20" s="13"/>
       <c r="AS20" s="13"/>
       <c r="AT20" s="13"/>
@@ -49902,49 +49620,49 @@
       <c r="BQ20" s="23"/>
     </row>
     <row r="21" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="90"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="55"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="60"/>
-      <c r="AK21" s="61"/>
-      <c r="AL21" s="62"/>
-      <c r="AM21" s="63"/>
-      <c r="AN21" s="64"/>
-      <c r="AO21" s="64"/>
-      <c r="AP21" s="64"/>
-      <c r="AQ21" s="65"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="67"/>
+      <c r="AG21" s="67"/>
+      <c r="AH21" s="67"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="71"/>
+      <c r="AM21" s="72"/>
+      <c r="AN21" s="73"/>
+      <c r="AO21" s="73"/>
+      <c r="AP21" s="73"/>
+      <c r="AQ21" s="74"/>
       <c r="AR21" s="16"/>
       <c r="AS21" s="16"/>
       <c r="AT21" s="16"/>
@@ -49973,49 +49691,49 @@
       <c r="BQ21" s="24"/>
     </row>
     <row r="22" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="87"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="46"/>
-      <c r="AH22" s="46"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="34"/>
-      <c r="AO22" s="34"/>
-      <c r="AP22" s="34"/>
-      <c r="AQ22" s="35"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="83"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="85"/>
+      <c r="AH22" s="85"/>
+      <c r="AI22" s="86"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="52"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="54"/>
+      <c r="AN22" s="55"/>
+      <c r="AO22" s="55"/>
+      <c r="AP22" s="55"/>
+      <c r="AQ22" s="56"/>
       <c r="AR22" s="13"/>
       <c r="AS22" s="13"/>
       <c r="AT22" s="13"/>
@@ -50044,49 +49762,49 @@
       <c r="BQ22" s="23"/>
     </row>
     <row r="23" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="90"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="55"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="58"/>
-      <c r="AI23" s="59"/>
-      <c r="AJ23" s="60"/>
-      <c r="AK23" s="61"/>
-      <c r="AL23" s="62"/>
-      <c r="AM23" s="63"/>
-      <c r="AN23" s="64"/>
-      <c r="AO23" s="64"/>
-      <c r="AP23" s="64"/>
-      <c r="AQ23" s="65"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="67"/>
+      <c r="AI23" s="68"/>
+      <c r="AJ23" s="69"/>
+      <c r="AK23" s="70"/>
+      <c r="AL23" s="71"/>
+      <c r="AM23" s="72"/>
+      <c r="AN23" s="73"/>
+      <c r="AO23" s="73"/>
+      <c r="AP23" s="73"/>
+      <c r="AQ23" s="74"/>
       <c r="AR23" s="16"/>
       <c r="AS23" s="16"/>
       <c r="AT23" s="16"/>
@@ -50115,49 +49833,49 @@
       <c r="BQ23" s="24"/>
     </row>
     <row r="24" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="87"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="47"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="33"/>
-      <c r="AN24" s="34"/>
-      <c r="AO24" s="34"/>
-      <c r="AP24" s="34"/>
-      <c r="AQ24" s="35"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="83"/>
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="85"/>
+      <c r="AG24" s="85"/>
+      <c r="AH24" s="85"/>
+      <c r="AI24" s="86"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="52"/>
+      <c r="AL24" s="53"/>
+      <c r="AM24" s="54"/>
+      <c r="AN24" s="55"/>
+      <c r="AO24" s="55"/>
+      <c r="AP24" s="55"/>
+      <c r="AQ24" s="56"/>
       <c r="AR24" s="13"/>
       <c r="AS24" s="13"/>
       <c r="AT24" s="13"/>
@@ -50186,49 +49904,49 @@
       <c r="BQ24" s="23"/>
     </row>
     <row r="25" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="58"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="60"/>
-      <c r="AK25" s="61"/>
-      <c r="AL25" s="62"/>
-      <c r="AM25" s="63"/>
-      <c r="AN25" s="64"/>
-      <c r="AO25" s="64"/>
-      <c r="AP25" s="64"/>
-      <c r="AQ25" s="65"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="66"/>
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="67"/>
+      <c r="AH25" s="67"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="69"/>
+      <c r="AK25" s="70"/>
+      <c r="AL25" s="71"/>
+      <c r="AM25" s="72"/>
+      <c r="AN25" s="73"/>
+      <c r="AO25" s="73"/>
+      <c r="AP25" s="73"/>
+      <c r="AQ25" s="74"/>
       <c r="AR25" s="16"/>
       <c r="AS25" s="16"/>
       <c r="AT25" s="16"/>
@@ -50257,49 +49975,49 @@
       <c r="BQ25" s="24"/>
     </row>
     <row r="26" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="87"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="43"/>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="30"/>
-      <c r="AK26" s="31"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="33"/>
-      <c r="AN26" s="34"/>
-      <c r="AO26" s="34"/>
-      <c r="AP26" s="34"/>
-      <c r="AQ26" s="35"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="83"/>
+      <c r="AE26" s="84"/>
+      <c r="AF26" s="85"/>
+      <c r="AG26" s="85"/>
+      <c r="AH26" s="85"/>
+      <c r="AI26" s="86"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="53"/>
+      <c r="AM26" s="54"/>
+      <c r="AN26" s="55"/>
+      <c r="AO26" s="55"/>
+      <c r="AP26" s="55"/>
+      <c r="AQ26" s="56"/>
       <c r="AR26" s="13"/>
       <c r="AS26" s="13"/>
       <c r="AT26" s="13"/>
@@ -50328,49 +50046,49 @@
       <c r="BQ26" s="23"/>
     </row>
     <row r="27" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="90"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="55"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="58"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="58"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="60"/>
-      <c r="AK27" s="61"/>
-      <c r="AL27" s="62"/>
-      <c r="AM27" s="63"/>
-      <c r="AN27" s="64"/>
-      <c r="AO27" s="64"/>
-      <c r="AP27" s="64"/>
-      <c r="AQ27" s="65"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="66"/>
+      <c r="AF27" s="67"/>
+      <c r="AG27" s="67"/>
+      <c r="AH27" s="67"/>
+      <c r="AI27" s="68"/>
+      <c r="AJ27" s="69"/>
+      <c r="AK27" s="70"/>
+      <c r="AL27" s="71"/>
+      <c r="AM27" s="72"/>
+      <c r="AN27" s="73"/>
+      <c r="AO27" s="73"/>
+      <c r="AP27" s="73"/>
+      <c r="AQ27" s="74"/>
       <c r="AR27" s="16"/>
       <c r="AS27" s="16"/>
       <c r="AT27" s="16"/>
@@ -50399,49 +50117,49 @@
       <c r="BQ27" s="24"/>
     </row>
     <row r="28" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="87"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="43"/>
-      <c r="AC28" s="43"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="47"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="31"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="34"/>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="34"/>
-      <c r="AQ28" s="35"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="82"/>
+      <c r="AB28" s="82"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="83"/>
+      <c r="AE28" s="84"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="85"/>
+      <c r="AH28" s="85"/>
+      <c r="AI28" s="86"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="54"/>
+      <c r="AN28" s="55"/>
+      <c r="AO28" s="55"/>
+      <c r="AP28" s="55"/>
+      <c r="AQ28" s="56"/>
       <c r="AR28" s="13"/>
       <c r="AS28" s="13"/>
       <c r="AT28" s="13"/>
@@ -50470,49 +50188,49 @@
       <c r="BQ28" s="23"/>
     </row>
     <row r="29" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="90"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="55"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="58"/>
-      <c r="AH29" s="58"/>
-      <c r="AI29" s="59"/>
-      <c r="AJ29" s="60"/>
-      <c r="AK29" s="61"/>
-      <c r="AL29" s="62"/>
-      <c r="AM29" s="63"/>
-      <c r="AN29" s="64"/>
-      <c r="AO29" s="64"/>
-      <c r="AP29" s="64"/>
-      <c r="AQ29" s="65"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="66"/>
+      <c r="AF29" s="67"/>
+      <c r="AG29" s="67"/>
+      <c r="AH29" s="67"/>
+      <c r="AI29" s="68"/>
+      <c r="AJ29" s="69"/>
+      <c r="AK29" s="70"/>
+      <c r="AL29" s="71"/>
+      <c r="AM29" s="72"/>
+      <c r="AN29" s="73"/>
+      <c r="AO29" s="73"/>
+      <c r="AP29" s="73"/>
+      <c r="AQ29" s="74"/>
       <c r="AR29" s="16"/>
       <c r="AS29" s="16"/>
       <c r="AT29" s="16"/>
@@ -50541,49 +50259,49 @@
       <c r="BQ29" s="24"/>
     </row>
     <row r="30" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="87"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="44"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="47"/>
-      <c r="AJ30" s="30"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="32"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="34"/>
-      <c r="AO30" s="34"/>
-      <c r="AP30" s="34"/>
-      <c r="AQ30" s="35"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="75"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="82"/>
+      <c r="AC30" s="82"/>
+      <c r="AD30" s="83"/>
+      <c r="AE30" s="84"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="85"/>
+      <c r="AH30" s="85"/>
+      <c r="AI30" s="86"/>
+      <c r="AJ30" s="51"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="54"/>
+      <c r="AN30" s="55"/>
+      <c r="AO30" s="55"/>
+      <c r="AP30" s="55"/>
+      <c r="AQ30" s="56"/>
       <c r="AR30" s="13"/>
       <c r="AS30" s="13"/>
       <c r="AT30" s="13"/>
@@ -50612,49 +50330,49 @@
       <c r="BQ30" s="23"/>
     </row>
     <row r="31" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="90"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="55"/>
-      <c r="AB31" s="55"/>
-      <c r="AC31" s="55"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="58"/>
-      <c r="AG31" s="58"/>
-      <c r="AH31" s="58"/>
-      <c r="AI31" s="59"/>
-      <c r="AJ31" s="60"/>
-      <c r="AK31" s="61"/>
-      <c r="AL31" s="62"/>
-      <c r="AM31" s="63"/>
-      <c r="AN31" s="64"/>
-      <c r="AO31" s="64"/>
-      <c r="AP31" s="64"/>
-      <c r="AQ31" s="65"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="64"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="67"/>
+      <c r="AG31" s="67"/>
+      <c r="AH31" s="67"/>
+      <c r="AI31" s="68"/>
+      <c r="AJ31" s="69"/>
+      <c r="AK31" s="70"/>
+      <c r="AL31" s="71"/>
+      <c r="AM31" s="72"/>
+      <c r="AN31" s="73"/>
+      <c r="AO31" s="73"/>
+      <c r="AP31" s="73"/>
+      <c r="AQ31" s="74"/>
       <c r="AR31" s="16"/>
       <c r="AS31" s="16"/>
       <c r="AT31" s="16"/>
@@ -50683,49 +50401,49 @@
       <c r="BQ31" s="24"/>
     </row>
     <row r="32" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="87"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="43"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="43"/>
-      <c r="AC32" s="43"/>
-      <c r="AD32" s="44"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="47"/>
-      <c r="AJ32" s="30"/>
-      <c r="AK32" s="31"/>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="34"/>
-      <c r="AO32" s="34"/>
-      <c r="AP32" s="34"/>
-      <c r="AQ32" s="35"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="76"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="82"/>
+      <c r="AB32" s="82"/>
+      <c r="AC32" s="82"/>
+      <c r="AD32" s="83"/>
+      <c r="AE32" s="84"/>
+      <c r="AF32" s="85"/>
+      <c r="AG32" s="85"/>
+      <c r="AH32" s="85"/>
+      <c r="AI32" s="86"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="53"/>
+      <c r="AM32" s="54"/>
+      <c r="AN32" s="55"/>
+      <c r="AO32" s="55"/>
+      <c r="AP32" s="55"/>
+      <c r="AQ32" s="56"/>
       <c r="AR32" s="13"/>
       <c r="AS32" s="13"/>
       <c r="AT32" s="13"/>
@@ -50754,49 +50472,49 @@
       <c r="BQ32" s="23"/>
     </row>
     <row r="33" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="90"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="55"/>
-      <c r="AA33" s="55"/>
-      <c r="AB33" s="55"/>
-      <c r="AC33" s="55"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="58"/>
-      <c r="AG33" s="58"/>
-      <c r="AH33" s="58"/>
-      <c r="AI33" s="59"/>
-      <c r="AJ33" s="60"/>
-      <c r="AK33" s="61"/>
-      <c r="AL33" s="62"/>
-      <c r="AM33" s="63"/>
-      <c r="AN33" s="64"/>
-      <c r="AO33" s="64"/>
-      <c r="AP33" s="64"/>
-      <c r="AQ33" s="65"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="67"/>
+      <c r="AG33" s="67"/>
+      <c r="AH33" s="67"/>
+      <c r="AI33" s="68"/>
+      <c r="AJ33" s="69"/>
+      <c r="AK33" s="70"/>
+      <c r="AL33" s="71"/>
+      <c r="AM33" s="72"/>
+      <c r="AN33" s="73"/>
+      <c r="AO33" s="73"/>
+      <c r="AP33" s="73"/>
+      <c r="AQ33" s="74"/>
       <c r="AR33" s="16"/>
       <c r="AS33" s="16"/>
       <c r="AT33" s="16"/>
@@ -50825,49 +50543,49 @@
       <c r="BQ33" s="24"/>
     </row>
     <row r="34" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
-      <c r="AA34" s="43"/>
-      <c r="AB34" s="43"/>
-      <c r="AC34" s="43"/>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="46"/>
-      <c r="AG34" s="46"/>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="47"/>
-      <c r="AJ34" s="30"/>
-      <c r="AK34" s="31"/>
-      <c r="AL34" s="32"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="34"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="34"/>
-      <c r="AQ34" s="35"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="80"/>
+      <c r="S34" s="75"/>
+      <c r="T34" s="75"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="76"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="82"/>
+      <c r="AB34" s="82"/>
+      <c r="AC34" s="82"/>
+      <c r="AD34" s="83"/>
+      <c r="AE34" s="84"/>
+      <c r="AF34" s="85"/>
+      <c r="AG34" s="85"/>
+      <c r="AH34" s="85"/>
+      <c r="AI34" s="86"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="52"/>
+      <c r="AL34" s="53"/>
+      <c r="AM34" s="54"/>
+      <c r="AN34" s="55"/>
+      <c r="AO34" s="55"/>
+      <c r="AP34" s="55"/>
+      <c r="AQ34" s="56"/>
       <c r="AR34" s="13"/>
       <c r="AS34" s="13"/>
       <c r="AT34" s="13"/>
@@ -50897,6 +50615,255 @@
     </row>
   </sheetData>
   <mergeCells count="270">
+    <mergeCell ref="AE33:AI33"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AM33:AQ33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="X34:AD34"/>
+    <mergeCell ref="AE34:AI34"/>
+    <mergeCell ref="AJ34:AL34"/>
+    <mergeCell ref="AM34:AQ34"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="M33:Q33"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="X33:AD33"/>
+    <mergeCell ref="AE31:AI31"/>
+    <mergeCell ref="AJ31:AL31"/>
+    <mergeCell ref="AM31:AQ31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="X32:AD32"/>
+    <mergeCell ref="AE32:AI32"/>
+    <mergeCell ref="AJ32:AL32"/>
+    <mergeCell ref="AM32:AQ32"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="X31:AD31"/>
+    <mergeCell ref="AE29:AI29"/>
+    <mergeCell ref="AJ29:AL29"/>
+    <mergeCell ref="AM29:AQ29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="X30:AD30"/>
+    <mergeCell ref="AE30:AI30"/>
+    <mergeCell ref="AJ30:AL30"/>
+    <mergeCell ref="AM30:AQ30"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="X29:AD29"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="AJ27:AL27"/>
+    <mergeCell ref="AM27:AQ27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="X28:AD28"/>
+    <mergeCell ref="AE28:AI28"/>
+    <mergeCell ref="AJ28:AL28"/>
+    <mergeCell ref="AM28:AQ28"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="X27:AD27"/>
+    <mergeCell ref="AE25:AI25"/>
+    <mergeCell ref="AJ25:AL25"/>
+    <mergeCell ref="AM25:AQ25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="X26:AD26"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="AJ26:AL26"/>
+    <mergeCell ref="AM26:AQ26"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="AM23:AQ23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="AJ24:AL24"/>
+    <mergeCell ref="AM24:AQ24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="AM21:AQ21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="AM22:AQ22"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="AJ19:AL19"/>
+    <mergeCell ref="AM19:AQ19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="AM20:AQ20"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="R19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AM17:AQ17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="AM18:AQ18"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AM15:AQ15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AM16:AQ16"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="AM13:AQ13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="AM14:AQ14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="X13:AD13"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AM11:AQ11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="X12:AD12"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="AM12:AQ12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="X11:AD11"/>
+    <mergeCell ref="AM8:AQ8"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AM4:AQ4"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AM7:AQ7"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="X10:AD10"/>
+    <mergeCell ref="AE10:AI10"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="AE8:AI8"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="X5:AD5"/>
+    <mergeCell ref="AE5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="X4:AD4"/>
+    <mergeCell ref="AE4:AI4"/>
     <mergeCell ref="BI2:BL2"/>
     <mergeCell ref="BM2:BQ2"/>
     <mergeCell ref="A3:E3"/>
@@ -50918,262 +50885,9 @@
     <mergeCell ref="R2:W2"/>
     <mergeCell ref="X2:AD2"/>
     <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="AE5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="X4:AD4"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="AJ7:AL7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="X10:AD10"/>
-    <mergeCell ref="AE10:AI10"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="AE8:AI8"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AM4:AQ4"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AM7:AQ7"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AM11:AQ11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="X12:AD12"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AM12:AQ12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="X11:AD11"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AM13:AQ13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="X13:AD13"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AM15:AQ15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AM16:AQ16"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AM17:AQ17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="AM18:AQ18"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="AM19:AQ19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="AM20:AQ20"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="R19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="AJ21:AL21"/>
-    <mergeCell ref="AM21:AQ21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="AJ22:AL22"/>
-    <mergeCell ref="AM22:AQ22"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="AJ23:AL23"/>
-    <mergeCell ref="AM23:AQ23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="AJ24:AL24"/>
-    <mergeCell ref="AM24:AQ24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="AJ25:AL25"/>
-    <mergeCell ref="AM25:AQ25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="X26:AD26"/>
-    <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="AJ26:AL26"/>
-    <mergeCell ref="AM26:AQ26"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="AE27:AI27"/>
-    <mergeCell ref="AJ27:AL27"/>
-    <mergeCell ref="AM27:AQ27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="X28:AD28"/>
-    <mergeCell ref="AE28:AI28"/>
-    <mergeCell ref="AJ28:AL28"/>
-    <mergeCell ref="AM28:AQ28"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="X27:AD27"/>
-    <mergeCell ref="AE29:AI29"/>
-    <mergeCell ref="AJ29:AL29"/>
-    <mergeCell ref="AM29:AQ29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="X30:AD30"/>
-    <mergeCell ref="AE30:AI30"/>
-    <mergeCell ref="AJ30:AL30"/>
-    <mergeCell ref="AM30:AQ30"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="X29:AD29"/>
-    <mergeCell ref="AE31:AI31"/>
-    <mergeCell ref="AJ31:AL31"/>
-    <mergeCell ref="AM31:AQ31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="X32:AD32"/>
-    <mergeCell ref="AE32:AI32"/>
-    <mergeCell ref="AJ32:AL32"/>
-    <mergeCell ref="AM32:AQ32"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="X31:AD31"/>
-    <mergeCell ref="AE33:AI33"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AM33:AQ33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="X34:AD34"/>
-    <mergeCell ref="AE34:AI34"/>
-    <mergeCell ref="AJ34:AL34"/>
-    <mergeCell ref="AM34:AQ34"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="M33:Q33"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="X33:AD33"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;9日通システム株式会社&amp;C&amp;"ＭＳ ゴシック,標準"&amp;16打刻一覧&amp;R&amp;"ＭＳ ゴシック,標準"&amp;9&amp;D　&amp;T　
-&amp;Pページ</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KDP003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KDP003.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B0F1FDB9-91B6-4F07-9DF5-F7113385652E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD9992B6-3B51-4D02-8682-3F02BC16A7B8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9585" tabRatio="628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1334,7 +1334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1345,6 +1345,120 @@
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="30" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1353,12 +1467,6 @@
     </xf>
     <xf numFmtId="49" fontId="30" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1388,145 +1496,82 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="81">
@@ -45518,7 +45563,7 @@
   <dimension ref="A1:CB34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13:AI13"/>
+      <selection activeCell="AM10" sqref="AM10:AQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="15" customHeight="1"/>
@@ -45528,75 +45573,75 @@
   <sheetData>
     <row r="1" spans="1:80" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="8"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="7"/>
-      <c r="BO2" s="7"/>
-      <c r="BP2" s="7"/>
-      <c r="BQ2" s="7"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="45"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="45"/>
+      <c r="BC2" s="45"/>
+      <c r="BD2" s="46"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="45"/>
+      <c r="BK2" s="45"/>
+      <c r="BL2" s="46"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="45"/>
+      <c r="BO2" s="45"/>
+      <c r="BP2" s="45"/>
+      <c r="BQ2" s="45"/>
       <c r="BU2" s="3"/>
       <c r="BV2" s="3"/>
       <c r="BW2" s="3"/>
@@ -45607,2276 +45652,2276 @@
       <c r="CB2" s="3"/>
     </row>
     <row r="3" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="23"/>
-      <c r="AS3" s="23"/>
-      <c r="AT3" s="23"/>
-      <c r="AU3" s="23"/>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="23"/>
-      <c r="AX3" s="23"/>
-      <c r="AY3" s="23"/>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="23"/>
-      <c r="BB3" s="23"/>
-      <c r="BC3" s="23"/>
-      <c r="BD3" s="24"/>
-      <c r="BE3" s="23"/>
-      <c r="BF3" s="23"/>
-      <c r="BG3" s="23"/>
-      <c r="BH3" s="24"/>
-      <c r="BI3" s="25"/>
-      <c r="BJ3" s="23"/>
-      <c r="BK3" s="23"/>
-      <c r="BL3" s="24"/>
-      <c r="BM3" s="23"/>
-      <c r="BN3" s="23"/>
-      <c r="BO3" s="23"/>
-      <c r="BP3" s="23"/>
-      <c r="BQ3" s="23"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="21"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="21"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="7"/>
+      <c r="BM3" s="6"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="6"/>
+      <c r="BP3" s="6"/>
+      <c r="BQ3" s="6"/>
     </row>
     <row r="4" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="28"/>
-      <c r="AQ4" s="29"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="42"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="42"/>
-      <c r="AY4" s="42"/>
-      <c r="AZ4" s="43"/>
-      <c r="BA4" s="42"/>
-      <c r="BB4" s="42"/>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="42"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="42"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="44"/>
-      <c r="BJ4" s="42"/>
-      <c r="BK4" s="42"/>
-      <c r="BL4" s="43"/>
-      <c r="BM4" s="42"/>
-      <c r="BN4" s="42"/>
-      <c r="BO4" s="42"/>
-      <c r="BP4" s="42"/>
-      <c r="BQ4" s="42"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="79"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="78"/>
+      <c r="BG4" s="78"/>
+      <c r="BH4" s="79"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="10"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="11"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="10"/>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="10"/>
+      <c r="BQ4" s="10"/>
     </row>
     <row r="5" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="62"/>
-      <c r="AS5" s="62"/>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="62"/>
-      <c r="AV5" s="63"/>
-      <c r="AW5" s="62"/>
-      <c r="AX5" s="62"/>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="63"/>
-      <c r="BA5" s="62"/>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="63"/>
-      <c r="BE5" s="62"/>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="63"/>
-      <c r="BI5" s="64"/>
-      <c r="BJ5" s="62"/>
-      <c r="BK5" s="62"/>
-      <c r="BL5" s="63"/>
-      <c r="BM5" s="62"/>
-      <c r="BN5" s="62"/>
-      <c r="BO5" s="62"/>
-      <c r="BP5" s="62"/>
-      <c r="BQ5" s="62"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="70"/>
+      <c r="AH5" s="70"/>
+      <c r="AI5" s="71"/>
+      <c r="AJ5" s="75"/>
+      <c r="AK5" s="76"/>
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="80"/>
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="81"/>
+      <c r="BE5" s="80"/>
+      <c r="BF5" s="80"/>
+      <c r="BG5" s="80"/>
+      <c r="BH5" s="81"/>
+      <c r="BI5" s="17"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="15"/>
+      <c r="BL5" s="16"/>
+      <c r="BM5" s="15"/>
+      <c r="BN5" s="15"/>
+      <c r="BO5" s="15"/>
+      <c r="BP5" s="15"/>
+      <c r="BQ5" s="15"/>
     </row>
     <row r="6" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="42"/>
-      <c r="AS6" s="42"/>
-      <c r="AT6" s="42"/>
-      <c r="AU6" s="42"/>
-      <c r="AV6" s="43"/>
-      <c r="AW6" s="42"/>
-      <c r="AX6" s="42"/>
-      <c r="AY6" s="42"/>
-      <c r="AZ6" s="43"/>
-      <c r="BA6" s="42"/>
-      <c r="BB6" s="42"/>
-      <c r="BC6" s="42"/>
-      <c r="BD6" s="43"/>
-      <c r="BE6" s="42"/>
-      <c r="BF6" s="42"/>
-      <c r="BG6" s="42"/>
-      <c r="BH6" s="43"/>
-      <c r="BI6" s="44"/>
-      <c r="BJ6" s="42"/>
-      <c r="BK6" s="42"/>
-      <c r="BL6" s="43"/>
-      <c r="BM6" s="42"/>
-      <c r="BN6" s="42"/>
-      <c r="BO6" s="42"/>
-      <c r="BP6" s="42"/>
-      <c r="BQ6" s="42"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="67"/>
+      <c r="AH6" s="67"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="78"/>
+      <c r="BB6" s="78"/>
+      <c r="BC6" s="78"/>
+      <c r="BD6" s="79"/>
+      <c r="BE6" s="78"/>
+      <c r="BF6" s="78"/>
+      <c r="BG6" s="78"/>
+      <c r="BH6" s="79"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="10"/>
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="11"/>
+      <c r="BM6" s="10"/>
+      <c r="BN6" s="10"/>
+      <c r="BO6" s="10"/>
+      <c r="BP6" s="10"/>
+      <c r="BQ6" s="10"/>
     </row>
     <row r="7" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="54"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="49"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="62"/>
-      <c r="AT7" s="62"/>
-      <c r="AU7" s="62"/>
-      <c r="AV7" s="63"/>
-      <c r="AW7" s="62"/>
-      <c r="AX7" s="62"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="63"/>
-      <c r="BA7" s="62"/>
-      <c r="BB7" s="62"/>
-      <c r="BC7" s="62"/>
-      <c r="BD7" s="63"/>
-      <c r="BE7" s="62"/>
-      <c r="BF7" s="62"/>
-      <c r="BG7" s="62"/>
-      <c r="BH7" s="63"/>
-      <c r="BI7" s="64"/>
-      <c r="BJ7" s="62"/>
-      <c r="BK7" s="62"/>
-      <c r="BL7" s="63"/>
-      <c r="BM7" s="62"/>
-      <c r="BN7" s="62"/>
-      <c r="BO7" s="62"/>
-      <c r="BP7" s="62"/>
-      <c r="BQ7" s="62"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="77"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="80"/>
+      <c r="BB7" s="80"/>
+      <c r="BC7" s="80"/>
+      <c r="BD7" s="81"/>
+      <c r="BE7" s="80"/>
+      <c r="BF7" s="80"/>
+      <c r="BG7" s="80"/>
+      <c r="BH7" s="81"/>
+      <c r="BI7" s="17"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="16"/>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="15"/>
+      <c r="BO7" s="15"/>
+      <c r="BP7" s="15"/>
+      <c r="BQ7" s="15"/>
     </row>
     <row r="8" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="29"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
-      <c r="AV8" s="43"/>
-      <c r="AW8" s="42"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="42"/>
-      <c r="AZ8" s="43"/>
-      <c r="BA8" s="42"/>
-      <c r="BB8" s="42"/>
-      <c r="BC8" s="42"/>
-      <c r="BD8" s="43"/>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="42"/>
-      <c r="BG8" s="42"/>
-      <c r="BH8" s="43"/>
-      <c r="BI8" s="44"/>
-      <c r="BJ8" s="42"/>
-      <c r="BK8" s="42"/>
-      <c r="BL8" s="43"/>
-      <c r="BM8" s="42"/>
-      <c r="BN8" s="42"/>
-      <c r="BO8" s="42"/>
-      <c r="BP8" s="42"/>
-      <c r="BQ8" s="42"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="73"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="26"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="78"/>
+      <c r="BB8" s="78"/>
+      <c r="BC8" s="78"/>
+      <c r="BD8" s="79"/>
+      <c r="BE8" s="78"/>
+      <c r="BF8" s="78"/>
+      <c r="BG8" s="78"/>
+      <c r="BH8" s="79"/>
+      <c r="BI8" s="12"/>
+      <c r="BJ8" s="10"/>
+      <c r="BK8" s="10"/>
+      <c r="BL8" s="11"/>
+      <c r="BM8" s="10"/>
+      <c r="BN8" s="10"/>
+      <c r="BO8" s="10"/>
+      <c r="BP8" s="10"/>
+      <c r="BQ8" s="10"/>
     </row>
     <row r="9" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="48"/>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="49"/>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="62"/>
-      <c r="AV9" s="63"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="62"/>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="63"/>
-      <c r="BA9" s="62"/>
-      <c r="BB9" s="62"/>
-      <c r="BC9" s="62"/>
-      <c r="BD9" s="63"/>
-      <c r="BE9" s="62"/>
-      <c r="BF9" s="62"/>
-      <c r="BG9" s="62"/>
-      <c r="BH9" s="63"/>
-      <c r="BI9" s="64"/>
-      <c r="BJ9" s="62"/>
-      <c r="BK9" s="62"/>
-      <c r="BL9" s="63"/>
-      <c r="BM9" s="62"/>
-      <c r="BN9" s="62"/>
-      <c r="BO9" s="62"/>
-      <c r="BP9" s="62"/>
-      <c r="BQ9" s="62"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="80"/>
+      <c r="BB9" s="80"/>
+      <c r="BC9" s="80"/>
+      <c r="BD9" s="81"/>
+      <c r="BE9" s="80"/>
+      <c r="BF9" s="80"/>
+      <c r="BG9" s="80"/>
+      <c r="BH9" s="81"/>
+      <c r="BI9" s="17"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="15"/>
+      <c r="BO9" s="15"/>
+      <c r="BP9" s="15"/>
+      <c r="BQ9" s="15"/>
     </row>
     <row r="10" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
-      <c r="AP10" s="28"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
-      <c r="AV10" s="43"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="43"/>
-      <c r="BA10" s="42"/>
-      <c r="BB10" s="42"/>
-      <c r="BC10" s="42"/>
-      <c r="BD10" s="43"/>
-      <c r="BE10" s="42"/>
-      <c r="BF10" s="42"/>
-      <c r="BG10" s="42"/>
-      <c r="BH10" s="43"/>
-      <c r="BI10" s="44"/>
-      <c r="BJ10" s="42"/>
-      <c r="BK10" s="42"/>
-      <c r="BL10" s="43"/>
-      <c r="BM10" s="42"/>
-      <c r="BN10" s="42"/>
-      <c r="BO10" s="42"/>
-      <c r="BP10" s="42"/>
-      <c r="BQ10" s="42"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="67"/>
+      <c r="AH10" s="67"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="73"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="78"/>
+      <c r="BB10" s="78"/>
+      <c r="BC10" s="78"/>
+      <c r="BD10" s="79"/>
+      <c r="BE10" s="78"/>
+      <c r="BF10" s="78"/>
+      <c r="BG10" s="78"/>
+      <c r="BH10" s="79"/>
+      <c r="BI10" s="12"/>
+      <c r="BJ10" s="10"/>
+      <c r="BK10" s="10"/>
+      <c r="BL10" s="11"/>
+      <c r="BM10" s="10"/>
+      <c r="BN10" s="10"/>
+      <c r="BO10" s="10"/>
+      <c r="BP10" s="10"/>
+      <c r="BQ10" s="10"/>
     </row>
     <row r="11" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="55"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="49"/>
-      <c r="AR11" s="62"/>
-      <c r="AS11" s="62"/>
-      <c r="AT11" s="62"/>
-      <c r="AU11" s="62"/>
-      <c r="AV11" s="63"/>
-      <c r="AW11" s="62"/>
-      <c r="AX11" s="62"/>
-      <c r="AY11" s="62"/>
-      <c r="AZ11" s="63"/>
-      <c r="BA11" s="62"/>
-      <c r="BB11" s="62"/>
-      <c r="BC11" s="62"/>
-      <c r="BD11" s="63"/>
-      <c r="BE11" s="62"/>
-      <c r="BF11" s="62"/>
-      <c r="BG11" s="62"/>
-      <c r="BH11" s="63"/>
-      <c r="BI11" s="64"/>
-      <c r="BJ11" s="62"/>
-      <c r="BK11" s="62"/>
-      <c r="BL11" s="63"/>
-      <c r="BM11" s="62"/>
-      <c r="BN11" s="62"/>
-      <c r="BO11" s="62"/>
-      <c r="BP11" s="62"/>
-      <c r="BQ11" s="62"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="76"/>
+      <c r="AL11" s="77"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="80"/>
+      <c r="BB11" s="80"/>
+      <c r="BC11" s="80"/>
+      <c r="BD11" s="81"/>
+      <c r="BE11" s="80"/>
+      <c r="BF11" s="80"/>
+      <c r="BG11" s="80"/>
+      <c r="BH11" s="81"/>
+      <c r="BI11" s="17"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="15"/>
+      <c r="BL11" s="16"/>
+      <c r="BM11" s="15"/>
+      <c r="BN11" s="15"/>
+      <c r="BO11" s="15"/>
+      <c r="BP11" s="15"/>
+      <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="40"/>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="28"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="43"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="43"/>
-      <c r="BA12" s="42"/>
-      <c r="BB12" s="42"/>
-      <c r="BC12" s="42"/>
-      <c r="BD12" s="43"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="42"/>
-      <c r="BG12" s="42"/>
-      <c r="BH12" s="43"/>
-      <c r="BI12" s="44"/>
-      <c r="BJ12" s="42"/>
-      <c r="BK12" s="42"/>
-      <c r="BL12" s="43"/>
-      <c r="BM12" s="42"/>
-      <c r="BN12" s="42"/>
-      <c r="BO12" s="42"/>
-      <c r="BP12" s="42"/>
-      <c r="BQ12" s="42"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="67"/>
+      <c r="AH12" s="67"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="73"/>
+      <c r="AL12" s="74"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="78"/>
+      <c r="BB12" s="78"/>
+      <c r="BC12" s="78"/>
+      <c r="BD12" s="79"/>
+      <c r="BE12" s="78"/>
+      <c r="BF12" s="78"/>
+      <c r="BG12" s="78"/>
+      <c r="BH12" s="79"/>
+      <c r="BI12" s="12"/>
+      <c r="BJ12" s="10"/>
+      <c r="BK12" s="10"/>
+      <c r="BL12" s="11"/>
+      <c r="BM12" s="10"/>
+      <c r="BN12" s="10"/>
+      <c r="BO12" s="10"/>
+      <c r="BP12" s="10"/>
+      <c r="BQ12" s="10"/>
     </row>
     <row r="13" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="60"/>
-      <c r="AI13" s="61"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="53"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="62"/>
-      <c r="AS13" s="62"/>
-      <c r="AT13" s="62"/>
-      <c r="AU13" s="62"/>
-      <c r="AV13" s="63"/>
-      <c r="AW13" s="62"/>
-      <c r="AX13" s="62"/>
-      <c r="AY13" s="62"/>
-      <c r="AZ13" s="63"/>
-      <c r="BA13" s="62"/>
-      <c r="BB13" s="62"/>
-      <c r="BC13" s="62"/>
-      <c r="BD13" s="63"/>
-      <c r="BE13" s="62"/>
-      <c r="BF13" s="62"/>
-      <c r="BG13" s="62"/>
-      <c r="BH13" s="63"/>
-      <c r="BI13" s="64"/>
-      <c r="BJ13" s="62"/>
-      <c r="BK13" s="62"/>
-      <c r="BL13" s="63"/>
-      <c r="BM13" s="62"/>
-      <c r="BN13" s="62"/>
-      <c r="BO13" s="62"/>
-      <c r="BP13" s="62"/>
-      <c r="BQ13" s="62"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="77"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="15"/>
+      <c r="AZ13" s="16"/>
+      <c r="BA13" s="80"/>
+      <c r="BB13" s="80"/>
+      <c r="BC13" s="80"/>
+      <c r="BD13" s="81"/>
+      <c r="BE13" s="80"/>
+      <c r="BF13" s="80"/>
+      <c r="BG13" s="80"/>
+      <c r="BH13" s="81"/>
+      <c r="BI13" s="17"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="15"/>
+      <c r="BL13" s="16"/>
+      <c r="BM13" s="15"/>
+      <c r="BN13" s="15"/>
+      <c r="BO13" s="15"/>
+      <c r="BP13" s="15"/>
+      <c r="BQ13" s="15"/>
     </row>
     <row r="14" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="28"/>
-      <c r="AQ14" s="29"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="42"/>
-      <c r="AU14" s="42"/>
-      <c r="AV14" s="43"/>
-      <c r="AW14" s="42"/>
-      <c r="AX14" s="42"/>
-      <c r="AY14" s="42"/>
-      <c r="AZ14" s="43"/>
-      <c r="BA14" s="42"/>
-      <c r="BB14" s="42"/>
-      <c r="BC14" s="42"/>
-      <c r="BD14" s="43"/>
-      <c r="BE14" s="42"/>
-      <c r="BF14" s="42"/>
-      <c r="BG14" s="42"/>
-      <c r="BH14" s="43"/>
-      <c r="BI14" s="44"/>
-      <c r="BJ14" s="42"/>
-      <c r="BK14" s="42"/>
-      <c r="BL14" s="43"/>
-      <c r="BM14" s="42"/>
-      <c r="BN14" s="42"/>
-      <c r="BO14" s="42"/>
-      <c r="BP14" s="42"/>
-      <c r="BQ14" s="42"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="67"/>
+      <c r="AH14" s="67"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="73"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="11"/>
+      <c r="BA14" s="78"/>
+      <c r="BB14" s="78"/>
+      <c r="BC14" s="78"/>
+      <c r="BD14" s="79"/>
+      <c r="BE14" s="78"/>
+      <c r="BF14" s="78"/>
+      <c r="BG14" s="78"/>
+      <c r="BH14" s="79"/>
+      <c r="BI14" s="12"/>
+      <c r="BJ14" s="10"/>
+      <c r="BK14" s="10"/>
+      <c r="BL14" s="11"/>
+      <c r="BM14" s="10"/>
+      <c r="BN14" s="10"/>
+      <c r="BO14" s="10"/>
+      <c r="BP14" s="10"/>
+      <c r="BQ14" s="10"/>
     </row>
     <row r="15" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="61"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="54"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="53"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="48"/>
-      <c r="AQ15" s="49"/>
-      <c r="AR15" s="62"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="63"/>
-      <c r="AW15" s="62"/>
-      <c r="AX15" s="62"/>
-      <c r="AY15" s="62"/>
-      <c r="AZ15" s="63"/>
-      <c r="BA15" s="62"/>
-      <c r="BB15" s="62"/>
-      <c r="BC15" s="62"/>
-      <c r="BD15" s="63"/>
-      <c r="BE15" s="62"/>
-      <c r="BF15" s="62"/>
-      <c r="BG15" s="62"/>
-      <c r="BH15" s="63"/>
-      <c r="BI15" s="64"/>
-      <c r="BJ15" s="62"/>
-      <c r="BK15" s="62"/>
-      <c r="BL15" s="63"/>
-      <c r="BM15" s="62"/>
-      <c r="BN15" s="62"/>
-      <c r="BO15" s="62"/>
-      <c r="BP15" s="62"/>
-      <c r="BQ15" s="62"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="76"/>
+      <c r="AL15" s="77"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="42"/>
+      <c r="AO15" s="42"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="15"/>
+      <c r="AU15" s="15"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="15"/>
+      <c r="AX15" s="15"/>
+      <c r="AY15" s="15"/>
+      <c r="AZ15" s="16"/>
+      <c r="BA15" s="80"/>
+      <c r="BB15" s="80"/>
+      <c r="BC15" s="80"/>
+      <c r="BD15" s="81"/>
+      <c r="BE15" s="80"/>
+      <c r="BF15" s="80"/>
+      <c r="BG15" s="80"/>
+      <c r="BH15" s="81"/>
+      <c r="BI15" s="17"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="15"/>
+      <c r="BL15" s="16"/>
+      <c r="BM15" s="15"/>
+      <c r="BN15" s="15"/>
+      <c r="BO15" s="15"/>
+      <c r="BP15" s="15"/>
+      <c r="BQ15" s="15"/>
     </row>
     <row r="16" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
-      <c r="AP16" s="28"/>
-      <c r="AQ16" s="29"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="42"/>
-      <c r="AU16" s="42"/>
-      <c r="AV16" s="43"/>
-      <c r="AW16" s="42"/>
-      <c r="AX16" s="42"/>
-      <c r="AY16" s="42"/>
-      <c r="AZ16" s="43"/>
-      <c r="BA16" s="42"/>
-      <c r="BB16" s="42"/>
-      <c r="BC16" s="42"/>
-      <c r="BD16" s="43"/>
-      <c r="BE16" s="42"/>
-      <c r="BF16" s="42"/>
-      <c r="BG16" s="42"/>
-      <c r="BH16" s="43"/>
-      <c r="BI16" s="44"/>
-      <c r="BJ16" s="42"/>
-      <c r="BK16" s="42"/>
-      <c r="BL16" s="43"/>
-      <c r="BM16" s="42"/>
-      <c r="BN16" s="42"/>
-      <c r="BO16" s="42"/>
-      <c r="BP16" s="42"/>
-      <c r="BQ16" s="42"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="73"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="78"/>
+      <c r="BB16" s="78"/>
+      <c r="BC16" s="78"/>
+      <c r="BD16" s="79"/>
+      <c r="BE16" s="78"/>
+      <c r="BF16" s="78"/>
+      <c r="BG16" s="78"/>
+      <c r="BH16" s="79"/>
+      <c r="BI16" s="12"/>
+      <c r="BJ16" s="10"/>
+      <c r="BK16" s="10"/>
+      <c r="BL16" s="11"/>
+      <c r="BM16" s="10"/>
+      <c r="BN16" s="10"/>
+      <c r="BO16" s="10"/>
+      <c r="BP16" s="10"/>
+      <c r="BQ16" s="10"/>
     </row>
     <row r="17" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="60"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="53"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="48"/>
-      <c r="AQ17" s="49"/>
-      <c r="AR17" s="62"/>
-      <c r="AS17" s="62"/>
-      <c r="AT17" s="62"/>
-      <c r="AU17" s="62"/>
-      <c r="AV17" s="63"/>
-      <c r="AW17" s="62"/>
-      <c r="AX17" s="62"/>
-      <c r="AY17" s="62"/>
-      <c r="AZ17" s="63"/>
-      <c r="BA17" s="62"/>
-      <c r="BB17" s="62"/>
-      <c r="BC17" s="62"/>
-      <c r="BD17" s="63"/>
-      <c r="BE17" s="62"/>
-      <c r="BF17" s="62"/>
-      <c r="BG17" s="62"/>
-      <c r="BH17" s="63"/>
-      <c r="BI17" s="64"/>
-      <c r="BJ17" s="62"/>
-      <c r="BK17" s="62"/>
-      <c r="BL17" s="63"/>
-      <c r="BM17" s="62"/>
-      <c r="BN17" s="62"/>
-      <c r="BO17" s="62"/>
-      <c r="BP17" s="62"/>
-      <c r="BQ17" s="62"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="77"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="42"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="43"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="15"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="15"/>
+      <c r="AZ17" s="16"/>
+      <c r="BA17" s="80"/>
+      <c r="BB17" s="80"/>
+      <c r="BC17" s="80"/>
+      <c r="BD17" s="81"/>
+      <c r="BE17" s="80"/>
+      <c r="BF17" s="80"/>
+      <c r="BG17" s="80"/>
+      <c r="BH17" s="81"/>
+      <c r="BI17" s="17"/>
+      <c r="BJ17" s="15"/>
+      <c r="BK17" s="15"/>
+      <c r="BL17" s="16"/>
+      <c r="BM17" s="15"/>
+      <c r="BN17" s="15"/>
+      <c r="BO17" s="15"/>
+      <c r="BP17" s="15"/>
+      <c r="BQ17" s="15"/>
     </row>
     <row r="18" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="40"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AT18" s="42"/>
-      <c r="AU18" s="42"/>
-      <c r="AV18" s="43"/>
-      <c r="AW18" s="42"/>
-      <c r="AX18" s="42"/>
-      <c r="AY18" s="42"/>
-      <c r="AZ18" s="43"/>
-      <c r="BA18" s="42"/>
-      <c r="BB18" s="42"/>
-      <c r="BC18" s="42"/>
-      <c r="BD18" s="43"/>
-      <c r="BE18" s="42"/>
-      <c r="BF18" s="42"/>
-      <c r="BG18" s="42"/>
-      <c r="BH18" s="43"/>
-      <c r="BI18" s="44"/>
-      <c r="BJ18" s="42"/>
-      <c r="BK18" s="42"/>
-      <c r="BL18" s="43"/>
-      <c r="BM18" s="42"/>
-      <c r="BN18" s="42"/>
-      <c r="BO18" s="42"/>
-      <c r="BP18" s="42"/>
-      <c r="BQ18" s="42"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="66"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="67"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="73"/>
+      <c r="AL18" s="74"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="11"/>
+      <c r="BA18" s="78"/>
+      <c r="BB18" s="78"/>
+      <c r="BC18" s="78"/>
+      <c r="BD18" s="79"/>
+      <c r="BE18" s="78"/>
+      <c r="BF18" s="78"/>
+      <c r="BG18" s="78"/>
+      <c r="BH18" s="79"/>
+      <c r="BI18" s="12"/>
+      <c r="BJ18" s="10"/>
+      <c r="BK18" s="10"/>
+      <c r="BL18" s="11"/>
+      <c r="BM18" s="10"/>
+      <c r="BN18" s="10"/>
+      <c r="BO18" s="10"/>
+      <c r="BP18" s="10"/>
+      <c r="BQ18" s="10"/>
     </row>
     <row r="19" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="53"/>
-      <c r="AK19" s="54"/>
-      <c r="AL19" s="55"/>
-      <c r="AM19" s="53"/>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="48"/>
-      <c r="AP19" s="48"/>
-      <c r="AQ19" s="49"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="63"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="62"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="63"/>
-      <c r="BA19" s="62"/>
-      <c r="BB19" s="62"/>
-      <c r="BC19" s="62"/>
-      <c r="BD19" s="63"/>
-      <c r="BE19" s="62"/>
-      <c r="BF19" s="62"/>
-      <c r="BG19" s="62"/>
-      <c r="BH19" s="63"/>
-      <c r="BI19" s="64"/>
-      <c r="BJ19" s="62"/>
-      <c r="BK19" s="62"/>
-      <c r="BL19" s="63"/>
-      <c r="BM19" s="62"/>
-      <c r="BN19" s="62"/>
-      <c r="BO19" s="62"/>
-      <c r="BP19" s="62"/>
-      <c r="BQ19" s="62"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="69"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="75"/>
+      <c r="AK19" s="76"/>
+      <c r="AL19" s="77"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="42"/>
+      <c r="AO19" s="42"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="16"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="16"/>
+      <c r="BA19" s="80"/>
+      <c r="BB19" s="80"/>
+      <c r="BC19" s="80"/>
+      <c r="BD19" s="81"/>
+      <c r="BE19" s="80"/>
+      <c r="BF19" s="80"/>
+      <c r="BG19" s="80"/>
+      <c r="BH19" s="81"/>
+      <c r="BI19" s="17"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="15"/>
+      <c r="BL19" s="16"/>
+      <c r="BM19" s="15"/>
+      <c r="BN19" s="15"/>
+      <c r="BO19" s="15"/>
+      <c r="BP19" s="15"/>
+      <c r="BQ19" s="15"/>
     </row>
     <row r="20" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="33"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
-      <c r="AP20" s="28"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="42"/>
-      <c r="AU20" s="42"/>
-      <c r="AV20" s="43"/>
-      <c r="AW20" s="42"/>
-      <c r="AX20" s="42"/>
-      <c r="AY20" s="42"/>
-      <c r="AZ20" s="43"/>
-      <c r="BA20" s="42"/>
-      <c r="BB20" s="42"/>
-      <c r="BC20" s="42"/>
-      <c r="BD20" s="43"/>
-      <c r="BE20" s="42"/>
-      <c r="BF20" s="42"/>
-      <c r="BG20" s="42"/>
-      <c r="BH20" s="43"/>
-      <c r="BI20" s="44"/>
-      <c r="BJ20" s="42"/>
-      <c r="BK20" s="42"/>
-      <c r="BL20" s="43"/>
-      <c r="BM20" s="42"/>
-      <c r="BN20" s="42"/>
-      <c r="BO20" s="42"/>
-      <c r="BP20" s="42"/>
-      <c r="BQ20" s="42"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="67"/>
+      <c r="AG20" s="67"/>
+      <c r="AH20" s="67"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="73"/>
+      <c r="AL20" s="74"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="10"/>
+      <c r="AX20" s="10"/>
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="78"/>
+      <c r="BB20" s="78"/>
+      <c r="BC20" s="78"/>
+      <c r="BD20" s="79"/>
+      <c r="BE20" s="78"/>
+      <c r="BF20" s="78"/>
+      <c r="BG20" s="78"/>
+      <c r="BH20" s="79"/>
+      <c r="BI20" s="12"/>
+      <c r="BJ20" s="10"/>
+      <c r="BK20" s="10"/>
+      <c r="BL20" s="11"/>
+      <c r="BM20" s="10"/>
+      <c r="BN20" s="10"/>
+      <c r="BO20" s="10"/>
+      <c r="BP20" s="10"/>
+      <c r="BQ20" s="10"/>
     </row>
     <row r="21" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="61"/>
-      <c r="AJ21" s="53"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="53"/>
-      <c r="AN21" s="48"/>
-      <c r="AO21" s="48"/>
-      <c r="AP21" s="48"/>
-      <c r="AQ21" s="49"/>
-      <c r="AR21" s="62"/>
-      <c r="AS21" s="62"/>
-      <c r="AT21" s="62"/>
-      <c r="AU21" s="62"/>
-      <c r="AV21" s="63"/>
-      <c r="AW21" s="62"/>
-      <c r="AX21" s="62"/>
-      <c r="AY21" s="62"/>
-      <c r="AZ21" s="63"/>
-      <c r="BA21" s="62"/>
-      <c r="BB21" s="62"/>
-      <c r="BC21" s="62"/>
-      <c r="BD21" s="63"/>
-      <c r="BE21" s="62"/>
-      <c r="BF21" s="62"/>
-      <c r="BG21" s="62"/>
-      <c r="BH21" s="63"/>
-      <c r="BI21" s="64"/>
-      <c r="BJ21" s="62"/>
-      <c r="BK21" s="62"/>
-      <c r="BL21" s="63"/>
-      <c r="BM21" s="62"/>
-      <c r="BN21" s="62"/>
-      <c r="BO21" s="62"/>
-      <c r="BP21" s="62"/>
-      <c r="BQ21" s="62"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="75"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="77"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="42"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="43"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="16"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="16"/>
+      <c r="BA21" s="80"/>
+      <c r="BB21" s="80"/>
+      <c r="BC21" s="80"/>
+      <c r="BD21" s="81"/>
+      <c r="BE21" s="80"/>
+      <c r="BF21" s="80"/>
+      <c r="BG21" s="80"/>
+      <c r="BH21" s="81"/>
+      <c r="BI21" s="17"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="15"/>
+      <c r="BL21" s="16"/>
+      <c r="BM21" s="15"/>
+      <c r="BN21" s="15"/>
+      <c r="BO21" s="15"/>
+      <c r="BP21" s="15"/>
+      <c r="BQ21" s="15"/>
     </row>
     <row r="22" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="40"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="34"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
-      <c r="AP22" s="28"/>
-      <c r="AQ22" s="29"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="42"/>
-      <c r="AU22" s="42"/>
-      <c r="AV22" s="43"/>
-      <c r="AW22" s="42"/>
-      <c r="AX22" s="42"/>
-      <c r="AY22" s="42"/>
-      <c r="AZ22" s="43"/>
-      <c r="BA22" s="42"/>
-      <c r="BB22" s="42"/>
-      <c r="BC22" s="42"/>
-      <c r="BD22" s="43"/>
-      <c r="BE22" s="42"/>
-      <c r="BF22" s="42"/>
-      <c r="BG22" s="42"/>
-      <c r="BH22" s="43"/>
-      <c r="BI22" s="44"/>
-      <c r="BJ22" s="42"/>
-      <c r="BK22" s="42"/>
-      <c r="BL22" s="43"/>
-      <c r="BM22" s="42"/>
-      <c r="BN22" s="42"/>
-      <c r="BO22" s="42"/>
-      <c r="BP22" s="42"/>
-      <c r="BQ22" s="42"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="67"/>
+      <c r="AI22" s="68"/>
+      <c r="AJ22" s="72"/>
+      <c r="AK22" s="73"/>
+      <c r="AL22" s="74"/>
+      <c r="AM22" s="22"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="11"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="11"/>
+      <c r="BA22" s="78"/>
+      <c r="BB22" s="78"/>
+      <c r="BC22" s="78"/>
+      <c r="BD22" s="79"/>
+      <c r="BE22" s="78"/>
+      <c r="BF22" s="78"/>
+      <c r="BG22" s="78"/>
+      <c r="BH22" s="79"/>
+      <c r="BI22" s="12"/>
+      <c r="BJ22" s="10"/>
+      <c r="BK22" s="10"/>
+      <c r="BL22" s="11"/>
+      <c r="BM22" s="10"/>
+      <c r="BN22" s="10"/>
+      <c r="BO22" s="10"/>
+      <c r="BP22" s="10"/>
+      <c r="BQ22" s="10"/>
     </row>
     <row r="23" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="57"/>
-      <c r="AC23" s="57"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="60"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="61"/>
-      <c r="AJ23" s="53"/>
-      <c r="AK23" s="54"/>
-      <c r="AL23" s="55"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="48"/>
-      <c r="AO23" s="48"/>
-      <c r="AP23" s="48"/>
-      <c r="AQ23" s="49"/>
-      <c r="AR23" s="62"/>
-      <c r="AS23" s="62"/>
-      <c r="AT23" s="62"/>
-      <c r="AU23" s="62"/>
-      <c r="AV23" s="63"/>
-      <c r="AW23" s="62"/>
-      <c r="AX23" s="62"/>
-      <c r="AY23" s="62"/>
-      <c r="AZ23" s="63"/>
-      <c r="BA23" s="62"/>
-      <c r="BB23" s="62"/>
-      <c r="BC23" s="62"/>
-      <c r="BD23" s="63"/>
-      <c r="BE23" s="62"/>
-      <c r="BF23" s="62"/>
-      <c r="BG23" s="62"/>
-      <c r="BH23" s="63"/>
-      <c r="BI23" s="64"/>
-      <c r="BJ23" s="62"/>
-      <c r="BK23" s="62"/>
-      <c r="BL23" s="63"/>
-      <c r="BM23" s="62"/>
-      <c r="BN23" s="62"/>
-      <c r="BO23" s="62"/>
-      <c r="BP23" s="62"/>
-      <c r="BQ23" s="62"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="69"/>
+      <c r="AF23" s="70"/>
+      <c r="AG23" s="70"/>
+      <c r="AH23" s="70"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="75"/>
+      <c r="AK23" s="76"/>
+      <c r="AL23" s="77"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="42"/>
+      <c r="AO23" s="42"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="16"/>
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+      <c r="AZ23" s="16"/>
+      <c r="BA23" s="80"/>
+      <c r="BB23" s="80"/>
+      <c r="BC23" s="80"/>
+      <c r="BD23" s="81"/>
+      <c r="BE23" s="80"/>
+      <c r="BF23" s="80"/>
+      <c r="BG23" s="80"/>
+      <c r="BH23" s="81"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="15"/>
+      <c r="BK23" s="15"/>
+      <c r="BL23" s="16"/>
+      <c r="BM23" s="15"/>
+      <c r="BN23" s="15"/>
+      <c r="BO23" s="15"/>
+      <c r="BP23" s="15"/>
+      <c r="BQ23" s="15"/>
     </row>
     <row r="24" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="40"/>
-      <c r="AG24" s="40"/>
-      <c r="AH24" s="40"/>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="34"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="33"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="29"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="42"/>
-      <c r="AU24" s="42"/>
-      <c r="AV24" s="43"/>
-      <c r="AW24" s="42"/>
-      <c r="AX24" s="42"/>
-      <c r="AY24" s="42"/>
-      <c r="AZ24" s="43"/>
-      <c r="BA24" s="42"/>
-      <c r="BB24" s="42"/>
-      <c r="BC24" s="42"/>
-      <c r="BD24" s="43"/>
-      <c r="BE24" s="42"/>
-      <c r="BF24" s="42"/>
-      <c r="BG24" s="42"/>
-      <c r="BH24" s="43"/>
-      <c r="BI24" s="44"/>
-      <c r="BJ24" s="42"/>
-      <c r="BK24" s="42"/>
-      <c r="BL24" s="43"/>
-      <c r="BM24" s="42"/>
-      <c r="BN24" s="42"/>
-      <c r="BO24" s="42"/>
-      <c r="BP24" s="42"/>
-      <c r="BQ24" s="42"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="67"/>
+      <c r="AI24" s="68"/>
+      <c r="AJ24" s="72"/>
+      <c r="AK24" s="73"/>
+      <c r="AL24" s="74"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="11"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="11"/>
+      <c r="BA24" s="78"/>
+      <c r="BB24" s="78"/>
+      <c r="BC24" s="78"/>
+      <c r="BD24" s="79"/>
+      <c r="BE24" s="78"/>
+      <c r="BF24" s="78"/>
+      <c r="BG24" s="78"/>
+      <c r="BH24" s="79"/>
+      <c r="BI24" s="12"/>
+      <c r="BJ24" s="10"/>
+      <c r="BK24" s="10"/>
+      <c r="BL24" s="11"/>
+      <c r="BM24" s="10"/>
+      <c r="BN24" s="10"/>
+      <c r="BO24" s="10"/>
+      <c r="BP24" s="10"/>
+      <c r="BQ24" s="10"/>
     </row>
     <row r="25" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="57"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="60"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="60"/>
-      <c r="AI25" s="61"/>
-      <c r="AJ25" s="53"/>
-      <c r="AK25" s="54"/>
-      <c r="AL25" s="55"/>
-      <c r="AM25" s="53"/>
-      <c r="AN25" s="48"/>
-      <c r="AO25" s="48"/>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="62"/>
-      <c r="AS25" s="62"/>
-      <c r="AT25" s="62"/>
-      <c r="AU25" s="62"/>
-      <c r="AV25" s="63"/>
-      <c r="AW25" s="62"/>
-      <c r="AX25" s="62"/>
-      <c r="AY25" s="62"/>
-      <c r="AZ25" s="63"/>
-      <c r="BA25" s="62"/>
-      <c r="BB25" s="62"/>
-      <c r="BC25" s="62"/>
-      <c r="BD25" s="63"/>
-      <c r="BE25" s="62"/>
-      <c r="BF25" s="62"/>
-      <c r="BG25" s="62"/>
-      <c r="BH25" s="63"/>
-      <c r="BI25" s="64"/>
-      <c r="BJ25" s="62"/>
-      <c r="BK25" s="62"/>
-      <c r="BL25" s="63"/>
-      <c r="BM25" s="62"/>
-      <c r="BN25" s="62"/>
-      <c r="BO25" s="62"/>
-      <c r="BP25" s="62"/>
-      <c r="BQ25" s="62"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="69"/>
+      <c r="AF25" s="70"/>
+      <c r="AG25" s="70"/>
+      <c r="AH25" s="70"/>
+      <c r="AI25" s="71"/>
+      <c r="AJ25" s="75"/>
+      <c r="AK25" s="76"/>
+      <c r="AL25" s="77"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="42"/>
+      <c r="AO25" s="42"/>
+      <c r="AP25" s="42"/>
+      <c r="AQ25" s="43"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="15"/>
+      <c r="AU25" s="15"/>
+      <c r="AV25" s="16"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="15"/>
+      <c r="AZ25" s="16"/>
+      <c r="BA25" s="80"/>
+      <c r="BB25" s="80"/>
+      <c r="BC25" s="80"/>
+      <c r="BD25" s="81"/>
+      <c r="BE25" s="80"/>
+      <c r="BF25" s="80"/>
+      <c r="BG25" s="80"/>
+      <c r="BH25" s="81"/>
+      <c r="BI25" s="17"/>
+      <c r="BJ25" s="15"/>
+      <c r="BK25" s="15"/>
+      <c r="BL25" s="16"/>
+      <c r="BM25" s="15"/>
+      <c r="BN25" s="15"/>
+      <c r="BO25" s="15"/>
+      <c r="BP25" s="15"/>
+      <c r="BQ25" s="15"/>
     </row>
     <row r="26" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="39"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="41"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="33"/>
-      <c r="AN26" s="28"/>
-      <c r="AO26" s="28"/>
-      <c r="AP26" s="28"/>
-      <c r="AQ26" s="29"/>
-      <c r="AR26" s="42"/>
-      <c r="AS26" s="42"/>
-      <c r="AT26" s="42"/>
-      <c r="AU26" s="42"/>
-      <c r="AV26" s="43"/>
-      <c r="AW26" s="42"/>
-      <c r="AX26" s="42"/>
-      <c r="AY26" s="42"/>
-      <c r="AZ26" s="43"/>
-      <c r="BA26" s="42"/>
-      <c r="BB26" s="42"/>
-      <c r="BC26" s="42"/>
-      <c r="BD26" s="43"/>
-      <c r="BE26" s="42"/>
-      <c r="BF26" s="42"/>
-      <c r="BG26" s="42"/>
-      <c r="BH26" s="43"/>
-      <c r="BI26" s="44"/>
-      <c r="BJ26" s="42"/>
-      <c r="BK26" s="42"/>
-      <c r="BL26" s="43"/>
-      <c r="BM26" s="42"/>
-      <c r="BN26" s="42"/>
-      <c r="BO26" s="42"/>
-      <c r="BP26" s="42"/>
-      <c r="BQ26" s="42"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="66"/>
+      <c r="AF26" s="67"/>
+      <c r="AG26" s="67"/>
+      <c r="AH26" s="67"/>
+      <c r="AI26" s="68"/>
+      <c r="AJ26" s="72"/>
+      <c r="AK26" s="73"/>
+      <c r="AL26" s="74"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="11"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="11"/>
+      <c r="BA26" s="78"/>
+      <c r="BB26" s="78"/>
+      <c r="BC26" s="78"/>
+      <c r="BD26" s="79"/>
+      <c r="BE26" s="78"/>
+      <c r="BF26" s="78"/>
+      <c r="BG26" s="78"/>
+      <c r="BH26" s="79"/>
+      <c r="BI26" s="12"/>
+      <c r="BJ26" s="10"/>
+      <c r="BK26" s="10"/>
+      <c r="BL26" s="11"/>
+      <c r="BM26" s="10"/>
+      <c r="BN26" s="10"/>
+      <c r="BO26" s="10"/>
+      <c r="BP26" s="10"/>
+      <c r="BQ26" s="10"/>
     </row>
     <row r="27" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="60"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="61"/>
-      <c r="AJ27" s="53"/>
-      <c r="AK27" s="54"/>
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="53"/>
-      <c r="AN27" s="48"/>
-      <c r="AO27" s="48"/>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="49"/>
-      <c r="AR27" s="62"/>
-      <c r="AS27" s="62"/>
-      <c r="AT27" s="62"/>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="63"/>
-      <c r="AW27" s="62"/>
-      <c r="AX27" s="62"/>
-      <c r="AY27" s="62"/>
-      <c r="AZ27" s="63"/>
-      <c r="BA27" s="62"/>
-      <c r="BB27" s="62"/>
-      <c r="BC27" s="62"/>
-      <c r="BD27" s="63"/>
-      <c r="BE27" s="62"/>
-      <c r="BF27" s="62"/>
-      <c r="BG27" s="62"/>
-      <c r="BH27" s="63"/>
-      <c r="BI27" s="64"/>
-      <c r="BJ27" s="62"/>
-      <c r="BK27" s="62"/>
-      <c r="BL27" s="63"/>
-      <c r="BM27" s="62"/>
-      <c r="BN27" s="62"/>
-      <c r="BO27" s="62"/>
-      <c r="BP27" s="62"/>
-      <c r="BQ27" s="62"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="69"/>
+      <c r="AF27" s="70"/>
+      <c r="AG27" s="70"/>
+      <c r="AH27" s="70"/>
+      <c r="AI27" s="71"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="76"/>
+      <c r="AL27" s="77"/>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="42"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="43"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="16"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="15"/>
+      <c r="AZ27" s="16"/>
+      <c r="BA27" s="80"/>
+      <c r="BB27" s="80"/>
+      <c r="BC27" s="80"/>
+      <c r="BD27" s="81"/>
+      <c r="BE27" s="80"/>
+      <c r="BF27" s="80"/>
+      <c r="BG27" s="80"/>
+      <c r="BH27" s="81"/>
+      <c r="BI27" s="17"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="15"/>
+      <c r="BL27" s="16"/>
+      <c r="BM27" s="15"/>
+      <c r="BN27" s="15"/>
+      <c r="BO27" s="15"/>
+      <c r="BP27" s="15"/>
+      <c r="BQ27" s="15"/>
     </row>
     <row r="28" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="40"/>
-      <c r="AG28" s="40"/>
-      <c r="AH28" s="40"/>
-      <c r="AI28" s="41"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="35"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="28"/>
-      <c r="AO28" s="28"/>
-      <c r="AP28" s="28"/>
-      <c r="AQ28" s="29"/>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="42"/>
-      <c r="AT28" s="42"/>
-      <c r="AU28" s="42"/>
-      <c r="AV28" s="43"/>
-      <c r="AW28" s="42"/>
-      <c r="AX28" s="42"/>
-      <c r="AY28" s="42"/>
-      <c r="AZ28" s="43"/>
-      <c r="BA28" s="42"/>
-      <c r="BB28" s="42"/>
-      <c r="BC28" s="42"/>
-      <c r="BD28" s="43"/>
-      <c r="BE28" s="42"/>
-      <c r="BF28" s="42"/>
-      <c r="BG28" s="42"/>
-      <c r="BH28" s="43"/>
-      <c r="BI28" s="44"/>
-      <c r="BJ28" s="42"/>
-      <c r="BK28" s="42"/>
-      <c r="BL28" s="43"/>
-      <c r="BM28" s="42"/>
-      <c r="BN28" s="42"/>
-      <c r="BO28" s="42"/>
-      <c r="BP28" s="42"/>
-      <c r="BQ28" s="42"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="67"/>
+      <c r="AI28" s="68"/>
+      <c r="AJ28" s="72"/>
+      <c r="AK28" s="73"/>
+      <c r="AL28" s="74"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="25"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="10"/>
+      <c r="AY28" s="10"/>
+      <c r="AZ28" s="11"/>
+      <c r="BA28" s="78"/>
+      <c r="BB28" s="78"/>
+      <c r="BC28" s="78"/>
+      <c r="BD28" s="79"/>
+      <c r="BE28" s="78"/>
+      <c r="BF28" s="78"/>
+      <c r="BG28" s="78"/>
+      <c r="BH28" s="79"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="10"/>
+      <c r="BK28" s="10"/>
+      <c r="BL28" s="11"/>
+      <c r="BM28" s="10"/>
+      <c r="BN28" s="10"/>
+      <c r="BO28" s="10"/>
+      <c r="BP28" s="10"/>
+      <c r="BQ28" s="10"/>
     </row>
     <row r="29" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="57"/>
-      <c r="AC29" s="57"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="61"/>
-      <c r="AJ29" s="53"/>
-      <c r="AK29" s="54"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="53"/>
-      <c r="AN29" s="48"/>
-      <c r="AO29" s="48"/>
-      <c r="AP29" s="48"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="62"/>
-      <c r="AS29" s="62"/>
-      <c r="AT29" s="62"/>
-      <c r="AU29" s="62"/>
-      <c r="AV29" s="63"/>
-      <c r="AW29" s="62"/>
-      <c r="AX29" s="62"/>
-      <c r="AY29" s="62"/>
-      <c r="AZ29" s="63"/>
-      <c r="BA29" s="62"/>
-      <c r="BB29" s="62"/>
-      <c r="BC29" s="62"/>
-      <c r="BD29" s="63"/>
-      <c r="BE29" s="62"/>
-      <c r="BF29" s="62"/>
-      <c r="BG29" s="62"/>
-      <c r="BH29" s="63"/>
-      <c r="BI29" s="64"/>
-      <c r="BJ29" s="62"/>
-      <c r="BK29" s="62"/>
-      <c r="BL29" s="63"/>
-      <c r="BM29" s="62"/>
-      <c r="BN29" s="62"/>
-      <c r="BO29" s="62"/>
-      <c r="BP29" s="62"/>
-      <c r="BQ29" s="62"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="41"/>
+      <c r="AE29" s="69"/>
+      <c r="AF29" s="70"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="75"/>
+      <c r="AK29" s="76"/>
+      <c r="AL29" s="77"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="42"/>
+      <c r="AO29" s="42"/>
+      <c r="AP29" s="42"/>
+      <c r="AQ29" s="43"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="16"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="15"/>
+      <c r="AZ29" s="16"/>
+      <c r="BA29" s="80"/>
+      <c r="BB29" s="80"/>
+      <c r="BC29" s="80"/>
+      <c r="BD29" s="81"/>
+      <c r="BE29" s="80"/>
+      <c r="BF29" s="80"/>
+      <c r="BG29" s="80"/>
+      <c r="BH29" s="81"/>
+      <c r="BI29" s="17"/>
+      <c r="BJ29" s="15"/>
+      <c r="BK29" s="15"/>
+      <c r="BL29" s="16"/>
+      <c r="BM29" s="15"/>
+      <c r="BN29" s="15"/>
+      <c r="BO29" s="15"/>
+      <c r="BP29" s="15"/>
+      <c r="BQ29" s="15"/>
     </row>
     <row r="30" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="40"/>
-      <c r="AG30" s="40"/>
-      <c r="AH30" s="40"/>
-      <c r="AI30" s="41"/>
-      <c r="AJ30" s="33"/>
-      <c r="AK30" s="34"/>
-      <c r="AL30" s="35"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="28"/>
-      <c r="AO30" s="28"/>
-      <c r="AP30" s="28"/>
-      <c r="AQ30" s="29"/>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
-      <c r="AT30" s="42"/>
-      <c r="AU30" s="42"/>
-      <c r="AV30" s="43"/>
-      <c r="AW30" s="42"/>
-      <c r="AX30" s="42"/>
-      <c r="AY30" s="42"/>
-      <c r="AZ30" s="43"/>
-      <c r="BA30" s="42"/>
-      <c r="BB30" s="42"/>
-      <c r="BC30" s="42"/>
-      <c r="BD30" s="43"/>
-      <c r="BE30" s="42"/>
-      <c r="BF30" s="42"/>
-      <c r="BG30" s="42"/>
-      <c r="BH30" s="43"/>
-      <c r="BI30" s="44"/>
-      <c r="BJ30" s="42"/>
-      <c r="BK30" s="42"/>
-      <c r="BL30" s="43"/>
-      <c r="BM30" s="42"/>
-      <c r="BN30" s="42"/>
-      <c r="BO30" s="42"/>
-      <c r="BP30" s="42"/>
-      <c r="BQ30" s="42"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="66"/>
+      <c r="AF30" s="67"/>
+      <c r="AG30" s="67"/>
+      <c r="AH30" s="67"/>
+      <c r="AI30" s="68"/>
+      <c r="AJ30" s="72"/>
+      <c r="AK30" s="73"/>
+      <c r="AL30" s="74"/>
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="25"/>
+      <c r="AP30" s="25"/>
+      <c r="AQ30" s="26"/>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="10"/>
+      <c r="AY30" s="10"/>
+      <c r="AZ30" s="11"/>
+      <c r="BA30" s="78"/>
+      <c r="BB30" s="78"/>
+      <c r="BC30" s="78"/>
+      <c r="BD30" s="79"/>
+      <c r="BE30" s="78"/>
+      <c r="BF30" s="78"/>
+      <c r="BG30" s="78"/>
+      <c r="BH30" s="79"/>
+      <c r="BI30" s="12"/>
+      <c r="BJ30" s="10"/>
+      <c r="BK30" s="10"/>
+      <c r="BL30" s="11"/>
+      <c r="BM30" s="10"/>
+      <c r="BN30" s="10"/>
+      <c r="BO30" s="10"/>
+      <c r="BP30" s="10"/>
+      <c r="BQ30" s="10"/>
     </row>
     <row r="31" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="57"/>
-      <c r="AC31" s="57"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="60"/>
-      <c r="AG31" s="60"/>
-      <c r="AH31" s="60"/>
-      <c r="AI31" s="61"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="54"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="53"/>
-      <c r="AN31" s="48"/>
-      <c r="AO31" s="48"/>
-      <c r="AP31" s="48"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="62"/>
-      <c r="AS31" s="62"/>
-      <c r="AT31" s="62"/>
-      <c r="AU31" s="62"/>
-      <c r="AV31" s="63"/>
-      <c r="AW31" s="62"/>
-      <c r="AX31" s="62"/>
-      <c r="AY31" s="62"/>
-      <c r="AZ31" s="63"/>
-      <c r="BA31" s="62"/>
-      <c r="BB31" s="62"/>
-      <c r="BC31" s="62"/>
-      <c r="BD31" s="63"/>
-      <c r="BE31" s="62"/>
-      <c r="BF31" s="62"/>
-      <c r="BG31" s="62"/>
-      <c r="BH31" s="63"/>
-      <c r="BI31" s="64"/>
-      <c r="BJ31" s="62"/>
-      <c r="BK31" s="62"/>
-      <c r="BL31" s="63"/>
-      <c r="BM31" s="62"/>
-      <c r="BN31" s="62"/>
-      <c r="BO31" s="62"/>
-      <c r="BP31" s="62"/>
-      <c r="BQ31" s="62"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="69"/>
+      <c r="AF31" s="70"/>
+      <c r="AG31" s="70"/>
+      <c r="AH31" s="70"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="75"/>
+      <c r="AK31" s="76"/>
+      <c r="AL31" s="77"/>
+      <c r="AM31" s="38"/>
+      <c r="AN31" s="42"/>
+      <c r="AO31" s="42"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="43"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="15"/>
+      <c r="AT31" s="15"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="16"/>
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="15"/>
+      <c r="AY31" s="15"/>
+      <c r="AZ31" s="16"/>
+      <c r="BA31" s="80"/>
+      <c r="BB31" s="80"/>
+      <c r="BC31" s="80"/>
+      <c r="BD31" s="81"/>
+      <c r="BE31" s="80"/>
+      <c r="BF31" s="80"/>
+      <c r="BG31" s="80"/>
+      <c r="BH31" s="81"/>
+      <c r="BI31" s="17"/>
+      <c r="BJ31" s="15"/>
+      <c r="BK31" s="15"/>
+      <c r="BL31" s="16"/>
+      <c r="BM31" s="15"/>
+      <c r="BN31" s="15"/>
+      <c r="BO31" s="15"/>
+      <c r="BP31" s="15"/>
+      <c r="BQ31" s="15"/>
     </row>
     <row r="32" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="40"/>
-      <c r="AG32" s="40"/>
-      <c r="AH32" s="40"/>
-      <c r="AI32" s="41"/>
-      <c r="AJ32" s="33"/>
-      <c r="AK32" s="34"/>
-      <c r="AL32" s="35"/>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="28"/>
-      <c r="AO32" s="28"/>
-      <c r="AP32" s="28"/>
-      <c r="AQ32" s="29"/>
-      <c r="AR32" s="42"/>
-      <c r="AS32" s="42"/>
-      <c r="AT32" s="42"/>
-      <c r="AU32" s="42"/>
-      <c r="AV32" s="43"/>
-      <c r="AW32" s="42"/>
-      <c r="AX32" s="42"/>
-      <c r="AY32" s="42"/>
-      <c r="AZ32" s="43"/>
-      <c r="BA32" s="42"/>
-      <c r="BB32" s="42"/>
-      <c r="BC32" s="42"/>
-      <c r="BD32" s="43"/>
-      <c r="BE32" s="42"/>
-      <c r="BF32" s="42"/>
-      <c r="BG32" s="42"/>
-      <c r="BH32" s="43"/>
-      <c r="BI32" s="44"/>
-      <c r="BJ32" s="42"/>
-      <c r="BK32" s="42"/>
-      <c r="BL32" s="43"/>
-      <c r="BM32" s="42"/>
-      <c r="BN32" s="42"/>
-      <c r="BO32" s="42"/>
-      <c r="BP32" s="42"/>
-      <c r="BQ32" s="42"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="67"/>
+      <c r="AG32" s="67"/>
+      <c r="AH32" s="67"/>
+      <c r="AI32" s="68"/>
+      <c r="AJ32" s="72"/>
+      <c r="AK32" s="73"/>
+      <c r="AL32" s="74"/>
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="25"/>
+      <c r="AP32" s="25"/>
+      <c r="AQ32" s="26"/>
+      <c r="AR32" s="10"/>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="10"/>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="10"/>
+      <c r="AX32" s="10"/>
+      <c r="AY32" s="10"/>
+      <c r="AZ32" s="11"/>
+      <c r="BA32" s="78"/>
+      <c r="BB32" s="78"/>
+      <c r="BC32" s="78"/>
+      <c r="BD32" s="79"/>
+      <c r="BE32" s="78"/>
+      <c r="BF32" s="78"/>
+      <c r="BG32" s="78"/>
+      <c r="BH32" s="79"/>
+      <c r="BI32" s="12"/>
+      <c r="BJ32" s="10"/>
+      <c r="BK32" s="10"/>
+      <c r="BL32" s="11"/>
+      <c r="BM32" s="10"/>
+      <c r="BN32" s="10"/>
+      <c r="BO32" s="10"/>
+      <c r="BP32" s="10"/>
+      <c r="BQ32" s="10"/>
     </row>
     <row r="33" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="57"/>
-      <c r="AC33" s="57"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="60"/>
-      <c r="AG33" s="60"/>
-      <c r="AH33" s="60"/>
-      <c r="AI33" s="61"/>
-      <c r="AJ33" s="53"/>
-      <c r="AK33" s="54"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="53"/>
-      <c r="AN33" s="48"/>
-      <c r="AO33" s="48"/>
-      <c r="AP33" s="48"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="62"/>
-      <c r="AS33" s="62"/>
-      <c r="AT33" s="62"/>
-      <c r="AU33" s="62"/>
-      <c r="AV33" s="63"/>
-      <c r="AW33" s="62"/>
-      <c r="AX33" s="62"/>
-      <c r="AY33" s="62"/>
-      <c r="AZ33" s="63"/>
-      <c r="BA33" s="62"/>
-      <c r="BB33" s="62"/>
-      <c r="BC33" s="62"/>
-      <c r="BD33" s="63"/>
-      <c r="BE33" s="62"/>
-      <c r="BF33" s="62"/>
-      <c r="BG33" s="62"/>
-      <c r="BH33" s="63"/>
-      <c r="BI33" s="64"/>
-      <c r="BJ33" s="62"/>
-      <c r="BK33" s="62"/>
-      <c r="BL33" s="63"/>
-      <c r="BM33" s="62"/>
-      <c r="BN33" s="62"/>
-      <c r="BO33" s="62"/>
-      <c r="BP33" s="62"/>
-      <c r="BQ33" s="62"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="69"/>
+      <c r="AF33" s="70"/>
+      <c r="AG33" s="70"/>
+      <c r="AH33" s="70"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="75"/>
+      <c r="AK33" s="76"/>
+      <c r="AL33" s="77"/>
+      <c r="AM33" s="38"/>
+      <c r="AN33" s="42"/>
+      <c r="AO33" s="42"/>
+      <c r="AP33" s="42"/>
+      <c r="AQ33" s="43"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="16"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="16"/>
+      <c r="BA33" s="80"/>
+      <c r="BB33" s="80"/>
+      <c r="BC33" s="80"/>
+      <c r="BD33" s="81"/>
+      <c r="BE33" s="80"/>
+      <c r="BF33" s="80"/>
+      <c r="BG33" s="80"/>
+      <c r="BH33" s="81"/>
+      <c r="BI33" s="17"/>
+      <c r="BJ33" s="15"/>
+      <c r="BK33" s="15"/>
+      <c r="BL33" s="16"/>
+      <c r="BM33" s="15"/>
+      <c r="BN33" s="15"/>
+      <c r="BO33" s="15"/>
+      <c r="BP33" s="15"/>
+      <c r="BQ33" s="15"/>
     </row>
     <row r="34" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="38"/>
-      <c r="AE34" s="39"/>
-      <c r="AF34" s="40"/>
-      <c r="AG34" s="40"/>
-      <c r="AH34" s="40"/>
-      <c r="AI34" s="41"/>
-      <c r="AJ34" s="33"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="35"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="28"/>
-      <c r="AO34" s="28"/>
-      <c r="AP34" s="28"/>
-      <c r="AQ34" s="29"/>
-      <c r="AR34" s="42"/>
-      <c r="AS34" s="42"/>
-      <c r="AT34" s="42"/>
-      <c r="AU34" s="42"/>
-      <c r="AV34" s="43"/>
-      <c r="AW34" s="42"/>
-      <c r="AX34" s="42"/>
-      <c r="AY34" s="42"/>
-      <c r="AZ34" s="43"/>
-      <c r="BA34" s="42"/>
-      <c r="BB34" s="42"/>
-      <c r="BC34" s="42"/>
-      <c r="BD34" s="43"/>
-      <c r="BE34" s="42"/>
-      <c r="BF34" s="42"/>
-      <c r="BG34" s="42"/>
-      <c r="BH34" s="43"/>
-      <c r="BI34" s="44"/>
-      <c r="BJ34" s="42"/>
-      <c r="BK34" s="42"/>
-      <c r="BL34" s="43"/>
-      <c r="BM34" s="42"/>
-      <c r="BN34" s="42"/>
-      <c r="BO34" s="42"/>
-      <c r="BP34" s="42"/>
-      <c r="BQ34" s="42"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="32"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="67"/>
+      <c r="AG34" s="67"/>
+      <c r="AH34" s="67"/>
+      <c r="AI34" s="68"/>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="73"/>
+      <c r="AL34" s="74"/>
+      <c r="AM34" s="22"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="25"/>
+      <c r="AP34" s="25"/>
+      <c r="AQ34" s="26"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="10"/>
+      <c r="AX34" s="10"/>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="11"/>
+      <c r="BA34" s="78"/>
+      <c r="BB34" s="78"/>
+      <c r="BC34" s="78"/>
+      <c r="BD34" s="79"/>
+      <c r="BE34" s="78"/>
+      <c r="BF34" s="78"/>
+      <c r="BG34" s="78"/>
+      <c r="BH34" s="79"/>
+      <c r="BI34" s="12"/>
+      <c r="BJ34" s="10"/>
+      <c r="BK34" s="10"/>
+      <c r="BL34" s="11"/>
+      <c r="BM34" s="10"/>
+      <c r="BN34" s="10"/>
+      <c r="BO34" s="10"/>
+      <c r="BP34" s="10"/>
+      <c r="BQ34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="270">
@@ -48160,8 +48205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B3A099-E082-43B0-8388-4BFA1FDC2C34}">
   <dimension ref="A1:CB34"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:BQ34"/>
+    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BE4" sqref="BE4:BH34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="15" customHeight="1"/>
@@ -48177,75 +48222,75 @@
       <c r="BQ1" s="5"/>
     </row>
     <row r="2" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="8"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="7"/>
-      <c r="BO2" s="7"/>
-      <c r="BP2" s="7"/>
-      <c r="BQ2" s="9"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="45"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="45"/>
+      <c r="BC2" s="45"/>
+      <c r="BD2" s="46"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="45"/>
+      <c r="BK2" s="45"/>
+      <c r="BL2" s="46"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="45"/>
+      <c r="BO2" s="45"/>
+      <c r="BP2" s="45"/>
+      <c r="BQ2" s="64"/>
       <c r="BU2" s="3"/>
       <c r="BV2" s="3"/>
       <c r="BW2" s="3"/>
@@ -48256,2276 +48301,2276 @@
       <c r="CB2" s="3"/>
     </row>
     <row r="3" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="23"/>
-      <c r="AS3" s="23"/>
-      <c r="AT3" s="23"/>
-      <c r="AU3" s="23"/>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="23"/>
-      <c r="AX3" s="23"/>
-      <c r="AY3" s="23"/>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="23"/>
-      <c r="BB3" s="23"/>
-      <c r="BC3" s="23"/>
-      <c r="BD3" s="24"/>
-      <c r="BE3" s="23"/>
-      <c r="BF3" s="23"/>
-      <c r="BG3" s="23"/>
-      <c r="BH3" s="24"/>
-      <c r="BI3" s="25"/>
-      <c r="BJ3" s="23"/>
-      <c r="BK3" s="23"/>
-      <c r="BL3" s="24"/>
-      <c r="BM3" s="23"/>
-      <c r="BN3" s="23"/>
-      <c r="BO3" s="23"/>
-      <c r="BP3" s="23"/>
-      <c r="BQ3" s="26"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="21"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="21"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="7"/>
+      <c r="BM3" s="6"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="6"/>
+      <c r="BP3" s="6"/>
+      <c r="BQ3" s="9"/>
     </row>
     <row r="4" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="28"/>
-      <c r="AQ4" s="29"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="42"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="42"/>
-      <c r="AY4" s="42"/>
-      <c r="AZ4" s="43"/>
-      <c r="BA4" s="42"/>
-      <c r="BB4" s="42"/>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="42"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="42"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="44"/>
-      <c r="BJ4" s="42"/>
-      <c r="BK4" s="42"/>
-      <c r="BL4" s="43"/>
-      <c r="BM4" s="45"/>
-      <c r="BN4" s="45"/>
-      <c r="BO4" s="45"/>
-      <c r="BP4" s="45"/>
-      <c r="BQ4" s="46"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="79"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="78"/>
+      <c r="BG4" s="78"/>
+      <c r="BH4" s="79"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="10"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="11"/>
+      <c r="BM4" s="13"/>
+      <c r="BN4" s="13"/>
+      <c r="BO4" s="13"/>
+      <c r="BP4" s="13"/>
+      <c r="BQ4" s="14"/>
     </row>
     <row r="5" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="62"/>
-      <c r="AS5" s="62"/>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="62"/>
-      <c r="AV5" s="63"/>
-      <c r="AW5" s="62"/>
-      <c r="AX5" s="62"/>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="63"/>
-      <c r="BA5" s="62"/>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="63"/>
-      <c r="BE5" s="62"/>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="63"/>
-      <c r="BI5" s="64"/>
-      <c r="BJ5" s="62"/>
-      <c r="BK5" s="62"/>
-      <c r="BL5" s="63"/>
-      <c r="BM5" s="65"/>
-      <c r="BN5" s="65"/>
-      <c r="BO5" s="65"/>
-      <c r="BP5" s="65"/>
-      <c r="BQ5" s="66"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="70"/>
+      <c r="AH5" s="70"/>
+      <c r="AI5" s="71"/>
+      <c r="AJ5" s="75"/>
+      <c r="AK5" s="76"/>
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="80"/>
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="81"/>
+      <c r="BE5" s="80"/>
+      <c r="BF5" s="80"/>
+      <c r="BG5" s="80"/>
+      <c r="BH5" s="81"/>
+      <c r="BI5" s="17"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="15"/>
+      <c r="BL5" s="16"/>
+      <c r="BM5" s="18"/>
+      <c r="BN5" s="18"/>
+      <c r="BO5" s="18"/>
+      <c r="BP5" s="18"/>
+      <c r="BQ5" s="19"/>
     </row>
     <row r="6" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="42"/>
-      <c r="AS6" s="42"/>
-      <c r="AT6" s="42"/>
-      <c r="AU6" s="42"/>
-      <c r="AV6" s="43"/>
-      <c r="AW6" s="42"/>
-      <c r="AX6" s="42"/>
-      <c r="AY6" s="42"/>
-      <c r="AZ6" s="43"/>
-      <c r="BA6" s="42"/>
-      <c r="BB6" s="42"/>
-      <c r="BC6" s="42"/>
-      <c r="BD6" s="43"/>
-      <c r="BE6" s="42"/>
-      <c r="BF6" s="42"/>
-      <c r="BG6" s="42"/>
-      <c r="BH6" s="43"/>
-      <c r="BI6" s="44"/>
-      <c r="BJ6" s="42"/>
-      <c r="BK6" s="42"/>
-      <c r="BL6" s="43"/>
-      <c r="BM6" s="45"/>
-      <c r="BN6" s="45"/>
-      <c r="BO6" s="45"/>
-      <c r="BP6" s="45"/>
-      <c r="BQ6" s="46"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="67"/>
+      <c r="AH6" s="67"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="78"/>
+      <c r="BB6" s="78"/>
+      <c r="BC6" s="78"/>
+      <c r="BD6" s="79"/>
+      <c r="BE6" s="78"/>
+      <c r="BF6" s="78"/>
+      <c r="BG6" s="78"/>
+      <c r="BH6" s="79"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="10"/>
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="11"/>
+      <c r="BM6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BO6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BQ6" s="14"/>
     </row>
     <row r="7" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="54"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="49"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="62"/>
-      <c r="AT7" s="62"/>
-      <c r="AU7" s="62"/>
-      <c r="AV7" s="63"/>
-      <c r="AW7" s="62"/>
-      <c r="AX7" s="62"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="63"/>
-      <c r="BA7" s="62"/>
-      <c r="BB7" s="62"/>
-      <c r="BC7" s="62"/>
-      <c r="BD7" s="63"/>
-      <c r="BE7" s="62"/>
-      <c r="BF7" s="62"/>
-      <c r="BG7" s="62"/>
-      <c r="BH7" s="63"/>
-      <c r="BI7" s="64"/>
-      <c r="BJ7" s="62"/>
-      <c r="BK7" s="62"/>
-      <c r="BL7" s="63"/>
-      <c r="BM7" s="65"/>
-      <c r="BN7" s="65"/>
-      <c r="BO7" s="65"/>
-      <c r="BP7" s="65"/>
-      <c r="BQ7" s="66"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="77"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="80"/>
+      <c r="BB7" s="80"/>
+      <c r="BC7" s="80"/>
+      <c r="BD7" s="81"/>
+      <c r="BE7" s="80"/>
+      <c r="BF7" s="80"/>
+      <c r="BG7" s="80"/>
+      <c r="BH7" s="81"/>
+      <c r="BI7" s="17"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="16"/>
+      <c r="BM7" s="18"/>
+      <c r="BN7" s="18"/>
+      <c r="BO7" s="18"/>
+      <c r="BP7" s="18"/>
+      <c r="BQ7" s="19"/>
     </row>
     <row r="8" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="29"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
-      <c r="AV8" s="43"/>
-      <c r="AW8" s="42"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="42"/>
-      <c r="AZ8" s="43"/>
-      <c r="BA8" s="42"/>
-      <c r="BB8" s="42"/>
-      <c r="BC8" s="42"/>
-      <c r="BD8" s="43"/>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="42"/>
-      <c r="BG8" s="42"/>
-      <c r="BH8" s="43"/>
-      <c r="BI8" s="44"/>
-      <c r="BJ8" s="42"/>
-      <c r="BK8" s="42"/>
-      <c r="BL8" s="43"/>
-      <c r="BM8" s="45"/>
-      <c r="BN8" s="45"/>
-      <c r="BO8" s="45"/>
-      <c r="BP8" s="45"/>
-      <c r="BQ8" s="46"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="73"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="26"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="78"/>
+      <c r="BB8" s="78"/>
+      <c r="BC8" s="78"/>
+      <c r="BD8" s="79"/>
+      <c r="BE8" s="78"/>
+      <c r="BF8" s="78"/>
+      <c r="BG8" s="78"/>
+      <c r="BH8" s="79"/>
+      <c r="BI8" s="12"/>
+      <c r="BJ8" s="10"/>
+      <c r="BK8" s="10"/>
+      <c r="BL8" s="11"/>
+      <c r="BM8" s="13"/>
+      <c r="BN8" s="13"/>
+      <c r="BO8" s="13"/>
+      <c r="BP8" s="13"/>
+      <c r="BQ8" s="14"/>
     </row>
     <row r="9" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="48"/>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="49"/>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="62"/>
-      <c r="AV9" s="63"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="62"/>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="63"/>
-      <c r="BA9" s="62"/>
-      <c r="BB9" s="62"/>
-      <c r="BC9" s="62"/>
-      <c r="BD9" s="63"/>
-      <c r="BE9" s="62"/>
-      <c r="BF9" s="62"/>
-      <c r="BG9" s="62"/>
-      <c r="BH9" s="63"/>
-      <c r="BI9" s="64"/>
-      <c r="BJ9" s="62"/>
-      <c r="BK9" s="62"/>
-      <c r="BL9" s="63"/>
-      <c r="BM9" s="65"/>
-      <c r="BN9" s="65"/>
-      <c r="BO9" s="65"/>
-      <c r="BP9" s="65"/>
-      <c r="BQ9" s="66"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="80"/>
+      <c r="BB9" s="80"/>
+      <c r="BC9" s="80"/>
+      <c r="BD9" s="81"/>
+      <c r="BE9" s="80"/>
+      <c r="BF9" s="80"/>
+      <c r="BG9" s="80"/>
+      <c r="BH9" s="81"/>
+      <c r="BI9" s="17"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="18"/>
+      <c r="BN9" s="18"/>
+      <c r="BO9" s="18"/>
+      <c r="BP9" s="18"/>
+      <c r="BQ9" s="19"/>
     </row>
     <row r="10" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
-      <c r="AP10" s="28"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
-      <c r="AV10" s="43"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="43"/>
-      <c r="BA10" s="42"/>
-      <c r="BB10" s="42"/>
-      <c r="BC10" s="42"/>
-      <c r="BD10" s="43"/>
-      <c r="BE10" s="42"/>
-      <c r="BF10" s="42"/>
-      <c r="BG10" s="42"/>
-      <c r="BH10" s="43"/>
-      <c r="BI10" s="44"/>
-      <c r="BJ10" s="42"/>
-      <c r="BK10" s="42"/>
-      <c r="BL10" s="43"/>
-      <c r="BM10" s="45"/>
-      <c r="BN10" s="45"/>
-      <c r="BO10" s="45"/>
-      <c r="BP10" s="45"/>
-      <c r="BQ10" s="46"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="67"/>
+      <c r="AH10" s="67"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="73"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="78"/>
+      <c r="BB10" s="78"/>
+      <c r="BC10" s="78"/>
+      <c r="BD10" s="79"/>
+      <c r="BE10" s="78"/>
+      <c r="BF10" s="78"/>
+      <c r="BG10" s="78"/>
+      <c r="BH10" s="79"/>
+      <c r="BI10" s="12"/>
+      <c r="BJ10" s="10"/>
+      <c r="BK10" s="10"/>
+      <c r="BL10" s="11"/>
+      <c r="BM10" s="13"/>
+      <c r="BN10" s="13"/>
+      <c r="BO10" s="13"/>
+      <c r="BP10" s="13"/>
+      <c r="BQ10" s="14"/>
     </row>
     <row r="11" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="55"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="49"/>
-      <c r="AR11" s="62"/>
-      <c r="AS11" s="62"/>
-      <c r="AT11" s="62"/>
-      <c r="AU11" s="62"/>
-      <c r="AV11" s="63"/>
-      <c r="AW11" s="62"/>
-      <c r="AX11" s="62"/>
-      <c r="AY11" s="62"/>
-      <c r="AZ11" s="63"/>
-      <c r="BA11" s="62"/>
-      <c r="BB11" s="62"/>
-      <c r="BC11" s="62"/>
-      <c r="BD11" s="63"/>
-      <c r="BE11" s="62"/>
-      <c r="BF11" s="62"/>
-      <c r="BG11" s="62"/>
-      <c r="BH11" s="63"/>
-      <c r="BI11" s="64"/>
-      <c r="BJ11" s="62"/>
-      <c r="BK11" s="62"/>
-      <c r="BL11" s="63"/>
-      <c r="BM11" s="65"/>
-      <c r="BN11" s="65"/>
-      <c r="BO11" s="65"/>
-      <c r="BP11" s="65"/>
-      <c r="BQ11" s="66"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="76"/>
+      <c r="AL11" s="77"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="80"/>
+      <c r="BB11" s="80"/>
+      <c r="BC11" s="80"/>
+      <c r="BD11" s="81"/>
+      <c r="BE11" s="80"/>
+      <c r="BF11" s="80"/>
+      <c r="BG11" s="80"/>
+      <c r="BH11" s="81"/>
+      <c r="BI11" s="17"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="15"/>
+      <c r="BL11" s="16"/>
+      <c r="BM11" s="18"/>
+      <c r="BN11" s="18"/>
+      <c r="BO11" s="18"/>
+      <c r="BP11" s="18"/>
+      <c r="BQ11" s="19"/>
     </row>
     <row r="12" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="40"/>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="28"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="43"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="43"/>
-      <c r="BA12" s="42"/>
-      <c r="BB12" s="42"/>
-      <c r="BC12" s="42"/>
-      <c r="BD12" s="43"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="42"/>
-      <c r="BG12" s="42"/>
-      <c r="BH12" s="43"/>
-      <c r="BI12" s="44"/>
-      <c r="BJ12" s="42"/>
-      <c r="BK12" s="42"/>
-      <c r="BL12" s="43"/>
-      <c r="BM12" s="45"/>
-      <c r="BN12" s="45"/>
-      <c r="BO12" s="45"/>
-      <c r="BP12" s="45"/>
-      <c r="BQ12" s="46"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="67"/>
+      <c r="AH12" s="67"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="73"/>
+      <c r="AL12" s="74"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="78"/>
+      <c r="BB12" s="78"/>
+      <c r="BC12" s="78"/>
+      <c r="BD12" s="79"/>
+      <c r="BE12" s="78"/>
+      <c r="BF12" s="78"/>
+      <c r="BG12" s="78"/>
+      <c r="BH12" s="79"/>
+      <c r="BI12" s="12"/>
+      <c r="BJ12" s="10"/>
+      <c r="BK12" s="10"/>
+      <c r="BL12" s="11"/>
+      <c r="BM12" s="13"/>
+      <c r="BN12" s="13"/>
+      <c r="BO12" s="13"/>
+      <c r="BP12" s="13"/>
+      <c r="BQ12" s="14"/>
     </row>
     <row r="13" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="60"/>
-      <c r="AI13" s="61"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="53"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="62"/>
-      <c r="AS13" s="62"/>
-      <c r="AT13" s="62"/>
-      <c r="AU13" s="62"/>
-      <c r="AV13" s="63"/>
-      <c r="AW13" s="62"/>
-      <c r="AX13" s="62"/>
-      <c r="AY13" s="62"/>
-      <c r="AZ13" s="63"/>
-      <c r="BA13" s="62"/>
-      <c r="BB13" s="62"/>
-      <c r="BC13" s="62"/>
-      <c r="BD13" s="63"/>
-      <c r="BE13" s="62"/>
-      <c r="BF13" s="62"/>
-      <c r="BG13" s="62"/>
-      <c r="BH13" s="63"/>
-      <c r="BI13" s="64"/>
-      <c r="BJ13" s="62"/>
-      <c r="BK13" s="62"/>
-      <c r="BL13" s="63"/>
-      <c r="BM13" s="65"/>
-      <c r="BN13" s="65"/>
-      <c r="BO13" s="65"/>
-      <c r="BP13" s="65"/>
-      <c r="BQ13" s="66"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="77"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="15"/>
+      <c r="AZ13" s="16"/>
+      <c r="BA13" s="80"/>
+      <c r="BB13" s="80"/>
+      <c r="BC13" s="80"/>
+      <c r="BD13" s="81"/>
+      <c r="BE13" s="80"/>
+      <c r="BF13" s="80"/>
+      <c r="BG13" s="80"/>
+      <c r="BH13" s="81"/>
+      <c r="BI13" s="17"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="15"/>
+      <c r="BL13" s="16"/>
+      <c r="BM13" s="18"/>
+      <c r="BN13" s="18"/>
+      <c r="BO13" s="18"/>
+      <c r="BP13" s="18"/>
+      <c r="BQ13" s="19"/>
     </row>
     <row r="14" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="28"/>
-      <c r="AQ14" s="29"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="42"/>
-      <c r="AU14" s="42"/>
-      <c r="AV14" s="43"/>
-      <c r="AW14" s="42"/>
-      <c r="AX14" s="42"/>
-      <c r="AY14" s="42"/>
-      <c r="AZ14" s="43"/>
-      <c r="BA14" s="42"/>
-      <c r="BB14" s="42"/>
-      <c r="BC14" s="42"/>
-      <c r="BD14" s="43"/>
-      <c r="BE14" s="42"/>
-      <c r="BF14" s="42"/>
-      <c r="BG14" s="42"/>
-      <c r="BH14" s="43"/>
-      <c r="BI14" s="44"/>
-      <c r="BJ14" s="42"/>
-      <c r="BK14" s="42"/>
-      <c r="BL14" s="43"/>
-      <c r="BM14" s="45"/>
-      <c r="BN14" s="45"/>
-      <c r="BO14" s="45"/>
-      <c r="BP14" s="45"/>
-      <c r="BQ14" s="46"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="67"/>
+      <c r="AH14" s="67"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="73"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="11"/>
+      <c r="BA14" s="78"/>
+      <c r="BB14" s="78"/>
+      <c r="BC14" s="78"/>
+      <c r="BD14" s="79"/>
+      <c r="BE14" s="78"/>
+      <c r="BF14" s="78"/>
+      <c r="BG14" s="78"/>
+      <c r="BH14" s="79"/>
+      <c r="BI14" s="12"/>
+      <c r="BJ14" s="10"/>
+      <c r="BK14" s="10"/>
+      <c r="BL14" s="11"/>
+      <c r="BM14" s="13"/>
+      <c r="BN14" s="13"/>
+      <c r="BO14" s="13"/>
+      <c r="BP14" s="13"/>
+      <c r="BQ14" s="14"/>
     </row>
     <row r="15" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="61"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="54"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="53"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="48"/>
-      <c r="AQ15" s="49"/>
-      <c r="AR15" s="62"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="63"/>
-      <c r="AW15" s="62"/>
-      <c r="AX15" s="62"/>
-      <c r="AY15" s="62"/>
-      <c r="AZ15" s="63"/>
-      <c r="BA15" s="62"/>
-      <c r="BB15" s="62"/>
-      <c r="BC15" s="62"/>
-      <c r="BD15" s="63"/>
-      <c r="BE15" s="62"/>
-      <c r="BF15" s="62"/>
-      <c r="BG15" s="62"/>
-      <c r="BH15" s="63"/>
-      <c r="BI15" s="64"/>
-      <c r="BJ15" s="62"/>
-      <c r="BK15" s="62"/>
-      <c r="BL15" s="63"/>
-      <c r="BM15" s="65"/>
-      <c r="BN15" s="65"/>
-      <c r="BO15" s="65"/>
-      <c r="BP15" s="65"/>
-      <c r="BQ15" s="66"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="76"/>
+      <c r="AL15" s="77"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="42"/>
+      <c r="AO15" s="42"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="15"/>
+      <c r="AU15" s="15"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="15"/>
+      <c r="AX15" s="15"/>
+      <c r="AY15" s="15"/>
+      <c r="AZ15" s="16"/>
+      <c r="BA15" s="80"/>
+      <c r="BB15" s="80"/>
+      <c r="BC15" s="80"/>
+      <c r="BD15" s="81"/>
+      <c r="BE15" s="80"/>
+      <c r="BF15" s="80"/>
+      <c r="BG15" s="80"/>
+      <c r="BH15" s="81"/>
+      <c r="BI15" s="17"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="15"/>
+      <c r="BL15" s="16"/>
+      <c r="BM15" s="18"/>
+      <c r="BN15" s="18"/>
+      <c r="BO15" s="18"/>
+      <c r="BP15" s="18"/>
+      <c r="BQ15" s="19"/>
     </row>
     <row r="16" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
-      <c r="AP16" s="28"/>
-      <c r="AQ16" s="29"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="42"/>
-      <c r="AU16" s="42"/>
-      <c r="AV16" s="43"/>
-      <c r="AW16" s="42"/>
-      <c r="AX16" s="42"/>
-      <c r="AY16" s="42"/>
-      <c r="AZ16" s="43"/>
-      <c r="BA16" s="42"/>
-      <c r="BB16" s="42"/>
-      <c r="BC16" s="42"/>
-      <c r="BD16" s="43"/>
-      <c r="BE16" s="42"/>
-      <c r="BF16" s="42"/>
-      <c r="BG16" s="42"/>
-      <c r="BH16" s="43"/>
-      <c r="BI16" s="44"/>
-      <c r="BJ16" s="42"/>
-      <c r="BK16" s="42"/>
-      <c r="BL16" s="43"/>
-      <c r="BM16" s="45"/>
-      <c r="BN16" s="45"/>
-      <c r="BO16" s="45"/>
-      <c r="BP16" s="45"/>
-      <c r="BQ16" s="46"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="73"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="78"/>
+      <c r="BB16" s="78"/>
+      <c r="BC16" s="78"/>
+      <c r="BD16" s="79"/>
+      <c r="BE16" s="78"/>
+      <c r="BF16" s="78"/>
+      <c r="BG16" s="78"/>
+      <c r="BH16" s="79"/>
+      <c r="BI16" s="12"/>
+      <c r="BJ16" s="10"/>
+      <c r="BK16" s="10"/>
+      <c r="BL16" s="11"/>
+      <c r="BM16" s="13"/>
+      <c r="BN16" s="13"/>
+      <c r="BO16" s="13"/>
+      <c r="BP16" s="13"/>
+      <c r="BQ16" s="14"/>
     </row>
     <row r="17" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="60"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="53"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="48"/>
-      <c r="AQ17" s="49"/>
-      <c r="AR17" s="62"/>
-      <c r="AS17" s="62"/>
-      <c r="AT17" s="62"/>
-      <c r="AU17" s="62"/>
-      <c r="AV17" s="63"/>
-      <c r="AW17" s="62"/>
-      <c r="AX17" s="62"/>
-      <c r="AY17" s="62"/>
-      <c r="AZ17" s="63"/>
-      <c r="BA17" s="62"/>
-      <c r="BB17" s="62"/>
-      <c r="BC17" s="62"/>
-      <c r="BD17" s="63"/>
-      <c r="BE17" s="62"/>
-      <c r="BF17" s="62"/>
-      <c r="BG17" s="62"/>
-      <c r="BH17" s="63"/>
-      <c r="BI17" s="64"/>
-      <c r="BJ17" s="62"/>
-      <c r="BK17" s="62"/>
-      <c r="BL17" s="63"/>
-      <c r="BM17" s="65"/>
-      <c r="BN17" s="65"/>
-      <c r="BO17" s="65"/>
-      <c r="BP17" s="65"/>
-      <c r="BQ17" s="66"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="77"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="42"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="43"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="15"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="15"/>
+      <c r="AZ17" s="16"/>
+      <c r="BA17" s="80"/>
+      <c r="BB17" s="80"/>
+      <c r="BC17" s="80"/>
+      <c r="BD17" s="81"/>
+      <c r="BE17" s="80"/>
+      <c r="BF17" s="80"/>
+      <c r="BG17" s="80"/>
+      <c r="BH17" s="81"/>
+      <c r="BI17" s="17"/>
+      <c r="BJ17" s="15"/>
+      <c r="BK17" s="15"/>
+      <c r="BL17" s="16"/>
+      <c r="BM17" s="18"/>
+      <c r="BN17" s="18"/>
+      <c r="BO17" s="18"/>
+      <c r="BP17" s="18"/>
+      <c r="BQ17" s="19"/>
     </row>
     <row r="18" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="40"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AT18" s="42"/>
-      <c r="AU18" s="42"/>
-      <c r="AV18" s="43"/>
-      <c r="AW18" s="42"/>
-      <c r="AX18" s="42"/>
-      <c r="AY18" s="42"/>
-      <c r="AZ18" s="43"/>
-      <c r="BA18" s="42"/>
-      <c r="BB18" s="42"/>
-      <c r="BC18" s="42"/>
-      <c r="BD18" s="43"/>
-      <c r="BE18" s="42"/>
-      <c r="BF18" s="42"/>
-      <c r="BG18" s="42"/>
-      <c r="BH18" s="43"/>
-      <c r="BI18" s="44"/>
-      <c r="BJ18" s="42"/>
-      <c r="BK18" s="42"/>
-      <c r="BL18" s="43"/>
-      <c r="BM18" s="45"/>
-      <c r="BN18" s="45"/>
-      <c r="BO18" s="45"/>
-      <c r="BP18" s="45"/>
-      <c r="BQ18" s="46"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="66"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="67"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="73"/>
+      <c r="AL18" s="74"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="11"/>
+      <c r="BA18" s="78"/>
+      <c r="BB18" s="78"/>
+      <c r="BC18" s="78"/>
+      <c r="BD18" s="79"/>
+      <c r="BE18" s="78"/>
+      <c r="BF18" s="78"/>
+      <c r="BG18" s="78"/>
+      <c r="BH18" s="79"/>
+      <c r="BI18" s="12"/>
+      <c r="BJ18" s="10"/>
+      <c r="BK18" s="10"/>
+      <c r="BL18" s="11"/>
+      <c r="BM18" s="13"/>
+      <c r="BN18" s="13"/>
+      <c r="BO18" s="13"/>
+      <c r="BP18" s="13"/>
+      <c r="BQ18" s="14"/>
     </row>
     <row r="19" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="53"/>
-      <c r="AK19" s="54"/>
-      <c r="AL19" s="55"/>
-      <c r="AM19" s="53"/>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="48"/>
-      <c r="AP19" s="48"/>
-      <c r="AQ19" s="49"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="63"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="62"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="63"/>
-      <c r="BA19" s="62"/>
-      <c r="BB19" s="62"/>
-      <c r="BC19" s="62"/>
-      <c r="BD19" s="63"/>
-      <c r="BE19" s="62"/>
-      <c r="BF19" s="62"/>
-      <c r="BG19" s="62"/>
-      <c r="BH19" s="63"/>
-      <c r="BI19" s="64"/>
-      <c r="BJ19" s="62"/>
-      <c r="BK19" s="62"/>
-      <c r="BL19" s="63"/>
-      <c r="BM19" s="65"/>
-      <c r="BN19" s="65"/>
-      <c r="BO19" s="65"/>
-      <c r="BP19" s="65"/>
-      <c r="BQ19" s="66"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="69"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="75"/>
+      <c r="AK19" s="76"/>
+      <c r="AL19" s="77"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="42"/>
+      <c r="AO19" s="42"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="16"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="16"/>
+      <c r="BA19" s="80"/>
+      <c r="BB19" s="80"/>
+      <c r="BC19" s="80"/>
+      <c r="BD19" s="81"/>
+      <c r="BE19" s="80"/>
+      <c r="BF19" s="80"/>
+      <c r="BG19" s="80"/>
+      <c r="BH19" s="81"/>
+      <c r="BI19" s="17"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="15"/>
+      <c r="BL19" s="16"/>
+      <c r="BM19" s="18"/>
+      <c r="BN19" s="18"/>
+      <c r="BO19" s="18"/>
+      <c r="BP19" s="18"/>
+      <c r="BQ19" s="19"/>
     </row>
     <row r="20" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="33"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
-      <c r="AP20" s="28"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="42"/>
-      <c r="AU20" s="42"/>
-      <c r="AV20" s="43"/>
-      <c r="AW20" s="42"/>
-      <c r="AX20" s="42"/>
-      <c r="AY20" s="42"/>
-      <c r="AZ20" s="43"/>
-      <c r="BA20" s="42"/>
-      <c r="BB20" s="42"/>
-      <c r="BC20" s="42"/>
-      <c r="BD20" s="43"/>
-      <c r="BE20" s="42"/>
-      <c r="BF20" s="42"/>
-      <c r="BG20" s="42"/>
-      <c r="BH20" s="43"/>
-      <c r="BI20" s="44"/>
-      <c r="BJ20" s="42"/>
-      <c r="BK20" s="42"/>
-      <c r="BL20" s="43"/>
-      <c r="BM20" s="45"/>
-      <c r="BN20" s="45"/>
-      <c r="BO20" s="45"/>
-      <c r="BP20" s="45"/>
-      <c r="BQ20" s="46"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="67"/>
+      <c r="AG20" s="67"/>
+      <c r="AH20" s="67"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="73"/>
+      <c r="AL20" s="74"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="10"/>
+      <c r="AX20" s="10"/>
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="78"/>
+      <c r="BB20" s="78"/>
+      <c r="BC20" s="78"/>
+      <c r="BD20" s="79"/>
+      <c r="BE20" s="78"/>
+      <c r="BF20" s="78"/>
+      <c r="BG20" s="78"/>
+      <c r="BH20" s="79"/>
+      <c r="BI20" s="12"/>
+      <c r="BJ20" s="10"/>
+      <c r="BK20" s="10"/>
+      <c r="BL20" s="11"/>
+      <c r="BM20" s="13"/>
+      <c r="BN20" s="13"/>
+      <c r="BO20" s="13"/>
+      <c r="BP20" s="13"/>
+      <c r="BQ20" s="14"/>
     </row>
     <row r="21" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="61"/>
-      <c r="AJ21" s="53"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="53"/>
-      <c r="AN21" s="48"/>
-      <c r="AO21" s="48"/>
-      <c r="AP21" s="48"/>
-      <c r="AQ21" s="49"/>
-      <c r="AR21" s="62"/>
-      <c r="AS21" s="62"/>
-      <c r="AT21" s="62"/>
-      <c r="AU21" s="62"/>
-      <c r="AV21" s="63"/>
-      <c r="AW21" s="62"/>
-      <c r="AX21" s="62"/>
-      <c r="AY21" s="62"/>
-      <c r="AZ21" s="63"/>
-      <c r="BA21" s="62"/>
-      <c r="BB21" s="62"/>
-      <c r="BC21" s="62"/>
-      <c r="BD21" s="63"/>
-      <c r="BE21" s="62"/>
-      <c r="BF21" s="62"/>
-      <c r="BG21" s="62"/>
-      <c r="BH21" s="63"/>
-      <c r="BI21" s="64"/>
-      <c r="BJ21" s="62"/>
-      <c r="BK21" s="62"/>
-      <c r="BL21" s="63"/>
-      <c r="BM21" s="65"/>
-      <c r="BN21" s="65"/>
-      <c r="BO21" s="65"/>
-      <c r="BP21" s="65"/>
-      <c r="BQ21" s="66"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="75"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="77"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="42"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="43"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="16"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="16"/>
+      <c r="BA21" s="80"/>
+      <c r="BB21" s="80"/>
+      <c r="BC21" s="80"/>
+      <c r="BD21" s="81"/>
+      <c r="BE21" s="80"/>
+      <c r="BF21" s="80"/>
+      <c r="BG21" s="80"/>
+      <c r="BH21" s="81"/>
+      <c r="BI21" s="17"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="15"/>
+      <c r="BL21" s="16"/>
+      <c r="BM21" s="18"/>
+      <c r="BN21" s="18"/>
+      <c r="BO21" s="18"/>
+      <c r="BP21" s="18"/>
+      <c r="BQ21" s="19"/>
     </row>
     <row r="22" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="40"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="34"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
-      <c r="AP22" s="28"/>
-      <c r="AQ22" s="29"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="42"/>
-      <c r="AU22" s="42"/>
-      <c r="AV22" s="43"/>
-      <c r="AW22" s="42"/>
-      <c r="AX22" s="42"/>
-      <c r="AY22" s="42"/>
-      <c r="AZ22" s="43"/>
-      <c r="BA22" s="42"/>
-      <c r="BB22" s="42"/>
-      <c r="BC22" s="42"/>
-      <c r="BD22" s="43"/>
-      <c r="BE22" s="42"/>
-      <c r="BF22" s="42"/>
-      <c r="BG22" s="42"/>
-      <c r="BH22" s="43"/>
-      <c r="BI22" s="44"/>
-      <c r="BJ22" s="42"/>
-      <c r="BK22" s="42"/>
-      <c r="BL22" s="43"/>
-      <c r="BM22" s="45"/>
-      <c r="BN22" s="45"/>
-      <c r="BO22" s="45"/>
-      <c r="BP22" s="45"/>
-      <c r="BQ22" s="46"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="67"/>
+      <c r="AI22" s="68"/>
+      <c r="AJ22" s="72"/>
+      <c r="AK22" s="73"/>
+      <c r="AL22" s="74"/>
+      <c r="AM22" s="22"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="11"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="11"/>
+      <c r="BA22" s="78"/>
+      <c r="BB22" s="78"/>
+      <c r="BC22" s="78"/>
+      <c r="BD22" s="79"/>
+      <c r="BE22" s="78"/>
+      <c r="BF22" s="78"/>
+      <c r="BG22" s="78"/>
+      <c r="BH22" s="79"/>
+      <c r="BI22" s="12"/>
+      <c r="BJ22" s="10"/>
+      <c r="BK22" s="10"/>
+      <c r="BL22" s="11"/>
+      <c r="BM22" s="13"/>
+      <c r="BN22" s="13"/>
+      <c r="BO22" s="13"/>
+      <c r="BP22" s="13"/>
+      <c r="BQ22" s="14"/>
     </row>
     <row r="23" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="57"/>
-      <c r="AC23" s="57"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="60"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="61"/>
-      <c r="AJ23" s="53"/>
-      <c r="AK23" s="54"/>
-      <c r="AL23" s="55"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="48"/>
-      <c r="AO23" s="48"/>
-      <c r="AP23" s="48"/>
-      <c r="AQ23" s="49"/>
-      <c r="AR23" s="62"/>
-      <c r="AS23" s="62"/>
-      <c r="AT23" s="62"/>
-      <c r="AU23" s="62"/>
-      <c r="AV23" s="63"/>
-      <c r="AW23" s="62"/>
-      <c r="AX23" s="62"/>
-      <c r="AY23" s="62"/>
-      <c r="AZ23" s="63"/>
-      <c r="BA23" s="62"/>
-      <c r="BB23" s="62"/>
-      <c r="BC23" s="62"/>
-      <c r="BD23" s="63"/>
-      <c r="BE23" s="62"/>
-      <c r="BF23" s="62"/>
-      <c r="BG23" s="62"/>
-      <c r="BH23" s="63"/>
-      <c r="BI23" s="64"/>
-      <c r="BJ23" s="62"/>
-      <c r="BK23" s="62"/>
-      <c r="BL23" s="63"/>
-      <c r="BM23" s="65"/>
-      <c r="BN23" s="65"/>
-      <c r="BO23" s="65"/>
-      <c r="BP23" s="65"/>
-      <c r="BQ23" s="66"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="69"/>
+      <c r="AF23" s="70"/>
+      <c r="AG23" s="70"/>
+      <c r="AH23" s="70"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="75"/>
+      <c r="AK23" s="76"/>
+      <c r="AL23" s="77"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="42"/>
+      <c r="AO23" s="42"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="16"/>
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+      <c r="AZ23" s="16"/>
+      <c r="BA23" s="80"/>
+      <c r="BB23" s="80"/>
+      <c r="BC23" s="80"/>
+      <c r="BD23" s="81"/>
+      <c r="BE23" s="80"/>
+      <c r="BF23" s="80"/>
+      <c r="BG23" s="80"/>
+      <c r="BH23" s="81"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="15"/>
+      <c r="BK23" s="15"/>
+      <c r="BL23" s="16"/>
+      <c r="BM23" s="18"/>
+      <c r="BN23" s="18"/>
+      <c r="BO23" s="18"/>
+      <c r="BP23" s="18"/>
+      <c r="BQ23" s="19"/>
     </row>
     <row r="24" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="40"/>
-      <c r="AG24" s="40"/>
-      <c r="AH24" s="40"/>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="34"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="33"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="29"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="42"/>
-      <c r="AU24" s="42"/>
-      <c r="AV24" s="43"/>
-      <c r="AW24" s="42"/>
-      <c r="AX24" s="42"/>
-      <c r="AY24" s="42"/>
-      <c r="AZ24" s="43"/>
-      <c r="BA24" s="42"/>
-      <c r="BB24" s="42"/>
-      <c r="BC24" s="42"/>
-      <c r="BD24" s="43"/>
-      <c r="BE24" s="42"/>
-      <c r="BF24" s="42"/>
-      <c r="BG24" s="42"/>
-      <c r="BH24" s="43"/>
-      <c r="BI24" s="44"/>
-      <c r="BJ24" s="42"/>
-      <c r="BK24" s="42"/>
-      <c r="BL24" s="43"/>
-      <c r="BM24" s="45"/>
-      <c r="BN24" s="45"/>
-      <c r="BO24" s="45"/>
-      <c r="BP24" s="45"/>
-      <c r="BQ24" s="46"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="67"/>
+      <c r="AI24" s="68"/>
+      <c r="AJ24" s="72"/>
+      <c r="AK24" s="73"/>
+      <c r="AL24" s="74"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="11"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="11"/>
+      <c r="BA24" s="78"/>
+      <c r="BB24" s="78"/>
+      <c r="BC24" s="78"/>
+      <c r="BD24" s="79"/>
+      <c r="BE24" s="78"/>
+      <c r="BF24" s="78"/>
+      <c r="BG24" s="78"/>
+      <c r="BH24" s="79"/>
+      <c r="BI24" s="12"/>
+      <c r="BJ24" s="10"/>
+      <c r="BK24" s="10"/>
+      <c r="BL24" s="11"/>
+      <c r="BM24" s="13"/>
+      <c r="BN24" s="13"/>
+      <c r="BO24" s="13"/>
+      <c r="BP24" s="13"/>
+      <c r="BQ24" s="14"/>
     </row>
     <row r="25" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="57"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="60"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="60"/>
-      <c r="AI25" s="61"/>
-      <c r="AJ25" s="53"/>
-      <c r="AK25" s="54"/>
-      <c r="AL25" s="55"/>
-      <c r="AM25" s="53"/>
-      <c r="AN25" s="48"/>
-      <c r="AO25" s="48"/>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="62"/>
-      <c r="AS25" s="62"/>
-      <c r="AT25" s="62"/>
-      <c r="AU25" s="62"/>
-      <c r="AV25" s="63"/>
-      <c r="AW25" s="62"/>
-      <c r="AX25" s="62"/>
-      <c r="AY25" s="62"/>
-      <c r="AZ25" s="63"/>
-      <c r="BA25" s="62"/>
-      <c r="BB25" s="62"/>
-      <c r="BC25" s="62"/>
-      <c r="BD25" s="63"/>
-      <c r="BE25" s="62"/>
-      <c r="BF25" s="62"/>
-      <c r="BG25" s="62"/>
-      <c r="BH25" s="63"/>
-      <c r="BI25" s="64"/>
-      <c r="BJ25" s="62"/>
-      <c r="BK25" s="62"/>
-      <c r="BL25" s="63"/>
-      <c r="BM25" s="65"/>
-      <c r="BN25" s="65"/>
-      <c r="BO25" s="65"/>
-      <c r="BP25" s="65"/>
-      <c r="BQ25" s="66"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="69"/>
+      <c r="AF25" s="70"/>
+      <c r="AG25" s="70"/>
+      <c r="AH25" s="70"/>
+      <c r="AI25" s="71"/>
+      <c r="AJ25" s="75"/>
+      <c r="AK25" s="76"/>
+      <c r="AL25" s="77"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="42"/>
+      <c r="AO25" s="42"/>
+      <c r="AP25" s="42"/>
+      <c r="AQ25" s="43"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="15"/>
+      <c r="AU25" s="15"/>
+      <c r="AV25" s="16"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="15"/>
+      <c r="AZ25" s="16"/>
+      <c r="BA25" s="80"/>
+      <c r="BB25" s="80"/>
+      <c r="BC25" s="80"/>
+      <c r="BD25" s="81"/>
+      <c r="BE25" s="80"/>
+      <c r="BF25" s="80"/>
+      <c r="BG25" s="80"/>
+      <c r="BH25" s="81"/>
+      <c r="BI25" s="17"/>
+      <c r="BJ25" s="15"/>
+      <c r="BK25" s="15"/>
+      <c r="BL25" s="16"/>
+      <c r="BM25" s="18"/>
+      <c r="BN25" s="18"/>
+      <c r="BO25" s="18"/>
+      <c r="BP25" s="18"/>
+      <c r="BQ25" s="19"/>
     </row>
     <row r="26" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="39"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="41"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="33"/>
-      <c r="AN26" s="28"/>
-      <c r="AO26" s="28"/>
-      <c r="AP26" s="28"/>
-      <c r="AQ26" s="29"/>
-      <c r="AR26" s="42"/>
-      <c r="AS26" s="42"/>
-      <c r="AT26" s="42"/>
-      <c r="AU26" s="42"/>
-      <c r="AV26" s="43"/>
-      <c r="AW26" s="42"/>
-      <c r="AX26" s="42"/>
-      <c r="AY26" s="42"/>
-      <c r="AZ26" s="43"/>
-      <c r="BA26" s="42"/>
-      <c r="BB26" s="42"/>
-      <c r="BC26" s="42"/>
-      <c r="BD26" s="43"/>
-      <c r="BE26" s="42"/>
-      <c r="BF26" s="42"/>
-      <c r="BG26" s="42"/>
-      <c r="BH26" s="43"/>
-      <c r="BI26" s="44"/>
-      <c r="BJ26" s="42"/>
-      <c r="BK26" s="42"/>
-      <c r="BL26" s="43"/>
-      <c r="BM26" s="45"/>
-      <c r="BN26" s="45"/>
-      <c r="BO26" s="45"/>
-      <c r="BP26" s="45"/>
-      <c r="BQ26" s="46"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="66"/>
+      <c r="AF26" s="67"/>
+      <c r="AG26" s="67"/>
+      <c r="AH26" s="67"/>
+      <c r="AI26" s="68"/>
+      <c r="AJ26" s="72"/>
+      <c r="AK26" s="73"/>
+      <c r="AL26" s="74"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="11"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="11"/>
+      <c r="BA26" s="78"/>
+      <c r="BB26" s="78"/>
+      <c r="BC26" s="78"/>
+      <c r="BD26" s="79"/>
+      <c r="BE26" s="78"/>
+      <c r="BF26" s="78"/>
+      <c r="BG26" s="78"/>
+      <c r="BH26" s="79"/>
+      <c r="BI26" s="12"/>
+      <c r="BJ26" s="10"/>
+      <c r="BK26" s="10"/>
+      <c r="BL26" s="11"/>
+      <c r="BM26" s="13"/>
+      <c r="BN26" s="13"/>
+      <c r="BO26" s="13"/>
+      <c r="BP26" s="13"/>
+      <c r="BQ26" s="14"/>
     </row>
     <row r="27" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="60"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="61"/>
-      <c r="AJ27" s="53"/>
-      <c r="AK27" s="54"/>
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="53"/>
-      <c r="AN27" s="48"/>
-      <c r="AO27" s="48"/>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="49"/>
-      <c r="AR27" s="62"/>
-      <c r="AS27" s="62"/>
-      <c r="AT27" s="62"/>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="63"/>
-      <c r="AW27" s="62"/>
-      <c r="AX27" s="62"/>
-      <c r="AY27" s="62"/>
-      <c r="AZ27" s="63"/>
-      <c r="BA27" s="62"/>
-      <c r="BB27" s="62"/>
-      <c r="BC27" s="62"/>
-      <c r="BD27" s="63"/>
-      <c r="BE27" s="62"/>
-      <c r="BF27" s="62"/>
-      <c r="BG27" s="62"/>
-      <c r="BH27" s="63"/>
-      <c r="BI27" s="64"/>
-      <c r="BJ27" s="62"/>
-      <c r="BK27" s="62"/>
-      <c r="BL27" s="63"/>
-      <c r="BM27" s="65"/>
-      <c r="BN27" s="65"/>
-      <c r="BO27" s="65"/>
-      <c r="BP27" s="65"/>
-      <c r="BQ27" s="66"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="69"/>
+      <c r="AF27" s="70"/>
+      <c r="AG27" s="70"/>
+      <c r="AH27" s="70"/>
+      <c r="AI27" s="71"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="76"/>
+      <c r="AL27" s="77"/>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="42"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="43"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="16"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="15"/>
+      <c r="AZ27" s="16"/>
+      <c r="BA27" s="80"/>
+      <c r="BB27" s="80"/>
+      <c r="BC27" s="80"/>
+      <c r="BD27" s="81"/>
+      <c r="BE27" s="80"/>
+      <c r="BF27" s="80"/>
+      <c r="BG27" s="80"/>
+      <c r="BH27" s="81"/>
+      <c r="BI27" s="17"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="15"/>
+      <c r="BL27" s="16"/>
+      <c r="BM27" s="18"/>
+      <c r="BN27" s="18"/>
+      <c r="BO27" s="18"/>
+      <c r="BP27" s="18"/>
+      <c r="BQ27" s="19"/>
     </row>
     <row r="28" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="40"/>
-      <c r="AG28" s="40"/>
-      <c r="AH28" s="40"/>
-      <c r="AI28" s="41"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="35"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="28"/>
-      <c r="AO28" s="28"/>
-      <c r="AP28" s="28"/>
-      <c r="AQ28" s="29"/>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="42"/>
-      <c r="AT28" s="42"/>
-      <c r="AU28" s="42"/>
-      <c r="AV28" s="43"/>
-      <c r="AW28" s="42"/>
-      <c r="AX28" s="42"/>
-      <c r="AY28" s="42"/>
-      <c r="AZ28" s="43"/>
-      <c r="BA28" s="42"/>
-      <c r="BB28" s="42"/>
-      <c r="BC28" s="42"/>
-      <c r="BD28" s="43"/>
-      <c r="BE28" s="42"/>
-      <c r="BF28" s="42"/>
-      <c r="BG28" s="42"/>
-      <c r="BH28" s="43"/>
-      <c r="BI28" s="44"/>
-      <c r="BJ28" s="42"/>
-      <c r="BK28" s="42"/>
-      <c r="BL28" s="43"/>
-      <c r="BM28" s="45"/>
-      <c r="BN28" s="45"/>
-      <c r="BO28" s="45"/>
-      <c r="BP28" s="45"/>
-      <c r="BQ28" s="46"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="67"/>
+      <c r="AI28" s="68"/>
+      <c r="AJ28" s="72"/>
+      <c r="AK28" s="73"/>
+      <c r="AL28" s="74"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="25"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="10"/>
+      <c r="AY28" s="10"/>
+      <c r="AZ28" s="11"/>
+      <c r="BA28" s="78"/>
+      <c r="BB28" s="78"/>
+      <c r="BC28" s="78"/>
+      <c r="BD28" s="79"/>
+      <c r="BE28" s="78"/>
+      <c r="BF28" s="78"/>
+      <c r="BG28" s="78"/>
+      <c r="BH28" s="79"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="10"/>
+      <c r="BK28" s="10"/>
+      <c r="BL28" s="11"/>
+      <c r="BM28" s="13"/>
+      <c r="BN28" s="13"/>
+      <c r="BO28" s="13"/>
+      <c r="BP28" s="13"/>
+      <c r="BQ28" s="14"/>
     </row>
     <row r="29" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="57"/>
-      <c r="AC29" s="57"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="61"/>
-      <c r="AJ29" s="53"/>
-      <c r="AK29" s="54"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="53"/>
-      <c r="AN29" s="48"/>
-      <c r="AO29" s="48"/>
-      <c r="AP29" s="48"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="62"/>
-      <c r="AS29" s="62"/>
-      <c r="AT29" s="62"/>
-      <c r="AU29" s="62"/>
-      <c r="AV29" s="63"/>
-      <c r="AW29" s="62"/>
-      <c r="AX29" s="62"/>
-      <c r="AY29" s="62"/>
-      <c r="AZ29" s="63"/>
-      <c r="BA29" s="62"/>
-      <c r="BB29" s="62"/>
-      <c r="BC29" s="62"/>
-      <c r="BD29" s="63"/>
-      <c r="BE29" s="62"/>
-      <c r="BF29" s="62"/>
-      <c r="BG29" s="62"/>
-      <c r="BH29" s="63"/>
-      <c r="BI29" s="64"/>
-      <c r="BJ29" s="62"/>
-      <c r="BK29" s="62"/>
-      <c r="BL29" s="63"/>
-      <c r="BM29" s="65"/>
-      <c r="BN29" s="65"/>
-      <c r="BO29" s="65"/>
-      <c r="BP29" s="65"/>
-      <c r="BQ29" s="66"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="41"/>
+      <c r="AE29" s="69"/>
+      <c r="AF29" s="70"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="75"/>
+      <c r="AK29" s="76"/>
+      <c r="AL29" s="77"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="42"/>
+      <c r="AO29" s="42"/>
+      <c r="AP29" s="42"/>
+      <c r="AQ29" s="43"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="16"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="15"/>
+      <c r="AZ29" s="16"/>
+      <c r="BA29" s="80"/>
+      <c r="BB29" s="80"/>
+      <c r="BC29" s="80"/>
+      <c r="BD29" s="81"/>
+      <c r="BE29" s="80"/>
+      <c r="BF29" s="80"/>
+      <c r="BG29" s="80"/>
+      <c r="BH29" s="81"/>
+      <c r="BI29" s="17"/>
+      <c r="BJ29" s="15"/>
+      <c r="BK29" s="15"/>
+      <c r="BL29" s="16"/>
+      <c r="BM29" s="18"/>
+      <c r="BN29" s="18"/>
+      <c r="BO29" s="18"/>
+      <c r="BP29" s="18"/>
+      <c r="BQ29" s="19"/>
     </row>
     <row r="30" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="40"/>
-      <c r="AG30" s="40"/>
-      <c r="AH30" s="40"/>
-      <c r="AI30" s="41"/>
-      <c r="AJ30" s="33"/>
-      <c r="AK30" s="34"/>
-      <c r="AL30" s="35"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="28"/>
-      <c r="AO30" s="28"/>
-      <c r="AP30" s="28"/>
-      <c r="AQ30" s="29"/>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
-      <c r="AT30" s="42"/>
-      <c r="AU30" s="42"/>
-      <c r="AV30" s="43"/>
-      <c r="AW30" s="42"/>
-      <c r="AX30" s="42"/>
-      <c r="AY30" s="42"/>
-      <c r="AZ30" s="43"/>
-      <c r="BA30" s="42"/>
-      <c r="BB30" s="42"/>
-      <c r="BC30" s="42"/>
-      <c r="BD30" s="43"/>
-      <c r="BE30" s="42"/>
-      <c r="BF30" s="42"/>
-      <c r="BG30" s="42"/>
-      <c r="BH30" s="43"/>
-      <c r="BI30" s="44"/>
-      <c r="BJ30" s="42"/>
-      <c r="BK30" s="42"/>
-      <c r="BL30" s="43"/>
-      <c r="BM30" s="45"/>
-      <c r="BN30" s="45"/>
-      <c r="BO30" s="45"/>
-      <c r="BP30" s="45"/>
-      <c r="BQ30" s="46"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="66"/>
+      <c r="AF30" s="67"/>
+      <c r="AG30" s="67"/>
+      <c r="AH30" s="67"/>
+      <c r="AI30" s="68"/>
+      <c r="AJ30" s="72"/>
+      <c r="AK30" s="73"/>
+      <c r="AL30" s="74"/>
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="25"/>
+      <c r="AP30" s="25"/>
+      <c r="AQ30" s="26"/>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="10"/>
+      <c r="AY30" s="10"/>
+      <c r="AZ30" s="11"/>
+      <c r="BA30" s="78"/>
+      <c r="BB30" s="78"/>
+      <c r="BC30" s="78"/>
+      <c r="BD30" s="79"/>
+      <c r="BE30" s="78"/>
+      <c r="BF30" s="78"/>
+      <c r="BG30" s="78"/>
+      <c r="BH30" s="79"/>
+      <c r="BI30" s="12"/>
+      <c r="BJ30" s="10"/>
+      <c r="BK30" s="10"/>
+      <c r="BL30" s="11"/>
+      <c r="BM30" s="13"/>
+      <c r="BN30" s="13"/>
+      <c r="BO30" s="13"/>
+      <c r="BP30" s="13"/>
+      <c r="BQ30" s="14"/>
     </row>
     <row r="31" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="57"/>
-      <c r="AC31" s="57"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="60"/>
-      <c r="AG31" s="60"/>
-      <c r="AH31" s="60"/>
-      <c r="AI31" s="61"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="54"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="53"/>
-      <c r="AN31" s="48"/>
-      <c r="AO31" s="48"/>
-      <c r="AP31" s="48"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="62"/>
-      <c r="AS31" s="62"/>
-      <c r="AT31" s="62"/>
-      <c r="AU31" s="62"/>
-      <c r="AV31" s="63"/>
-      <c r="AW31" s="62"/>
-      <c r="AX31" s="62"/>
-      <c r="AY31" s="62"/>
-      <c r="AZ31" s="63"/>
-      <c r="BA31" s="62"/>
-      <c r="BB31" s="62"/>
-      <c r="BC31" s="62"/>
-      <c r="BD31" s="63"/>
-      <c r="BE31" s="62"/>
-      <c r="BF31" s="62"/>
-      <c r="BG31" s="62"/>
-      <c r="BH31" s="63"/>
-      <c r="BI31" s="64"/>
-      <c r="BJ31" s="62"/>
-      <c r="BK31" s="62"/>
-      <c r="BL31" s="63"/>
-      <c r="BM31" s="65"/>
-      <c r="BN31" s="65"/>
-      <c r="BO31" s="65"/>
-      <c r="BP31" s="65"/>
-      <c r="BQ31" s="66"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="69"/>
+      <c r="AF31" s="70"/>
+      <c r="AG31" s="70"/>
+      <c r="AH31" s="70"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="75"/>
+      <c r="AK31" s="76"/>
+      <c r="AL31" s="77"/>
+      <c r="AM31" s="38"/>
+      <c r="AN31" s="42"/>
+      <c r="AO31" s="42"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="43"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="15"/>
+      <c r="AT31" s="15"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="16"/>
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="15"/>
+      <c r="AY31" s="15"/>
+      <c r="AZ31" s="16"/>
+      <c r="BA31" s="80"/>
+      <c r="BB31" s="80"/>
+      <c r="BC31" s="80"/>
+      <c r="BD31" s="81"/>
+      <c r="BE31" s="80"/>
+      <c r="BF31" s="80"/>
+      <c r="BG31" s="80"/>
+      <c r="BH31" s="81"/>
+      <c r="BI31" s="17"/>
+      <c r="BJ31" s="15"/>
+      <c r="BK31" s="15"/>
+      <c r="BL31" s="16"/>
+      <c r="BM31" s="18"/>
+      <c r="BN31" s="18"/>
+      <c r="BO31" s="18"/>
+      <c r="BP31" s="18"/>
+      <c r="BQ31" s="19"/>
     </row>
     <row r="32" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="40"/>
-      <c r="AG32" s="40"/>
-      <c r="AH32" s="40"/>
-      <c r="AI32" s="41"/>
-      <c r="AJ32" s="33"/>
-      <c r="AK32" s="34"/>
-      <c r="AL32" s="35"/>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="28"/>
-      <c r="AO32" s="28"/>
-      <c r="AP32" s="28"/>
-      <c r="AQ32" s="29"/>
-      <c r="AR32" s="42"/>
-      <c r="AS32" s="42"/>
-      <c r="AT32" s="42"/>
-      <c r="AU32" s="42"/>
-      <c r="AV32" s="43"/>
-      <c r="AW32" s="42"/>
-      <c r="AX32" s="42"/>
-      <c r="AY32" s="42"/>
-      <c r="AZ32" s="43"/>
-      <c r="BA32" s="42"/>
-      <c r="BB32" s="42"/>
-      <c r="BC32" s="42"/>
-      <c r="BD32" s="43"/>
-      <c r="BE32" s="42"/>
-      <c r="BF32" s="42"/>
-      <c r="BG32" s="42"/>
-      <c r="BH32" s="43"/>
-      <c r="BI32" s="44"/>
-      <c r="BJ32" s="42"/>
-      <c r="BK32" s="42"/>
-      <c r="BL32" s="43"/>
-      <c r="BM32" s="45"/>
-      <c r="BN32" s="45"/>
-      <c r="BO32" s="45"/>
-      <c r="BP32" s="45"/>
-      <c r="BQ32" s="46"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="67"/>
+      <c r="AG32" s="67"/>
+      <c r="AH32" s="67"/>
+      <c r="AI32" s="68"/>
+      <c r="AJ32" s="72"/>
+      <c r="AK32" s="73"/>
+      <c r="AL32" s="74"/>
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="25"/>
+      <c r="AP32" s="25"/>
+      <c r="AQ32" s="26"/>
+      <c r="AR32" s="10"/>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="10"/>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="10"/>
+      <c r="AX32" s="10"/>
+      <c r="AY32" s="10"/>
+      <c r="AZ32" s="11"/>
+      <c r="BA32" s="78"/>
+      <c r="BB32" s="78"/>
+      <c r="BC32" s="78"/>
+      <c r="BD32" s="79"/>
+      <c r="BE32" s="78"/>
+      <c r="BF32" s="78"/>
+      <c r="BG32" s="78"/>
+      <c r="BH32" s="79"/>
+      <c r="BI32" s="12"/>
+      <c r="BJ32" s="10"/>
+      <c r="BK32" s="10"/>
+      <c r="BL32" s="11"/>
+      <c r="BM32" s="13"/>
+      <c r="BN32" s="13"/>
+      <c r="BO32" s="13"/>
+      <c r="BP32" s="13"/>
+      <c r="BQ32" s="14"/>
     </row>
     <row r="33" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="57"/>
-      <c r="AC33" s="57"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="60"/>
-      <c r="AG33" s="60"/>
-      <c r="AH33" s="60"/>
-      <c r="AI33" s="61"/>
-      <c r="AJ33" s="53"/>
-      <c r="AK33" s="54"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="53"/>
-      <c r="AN33" s="48"/>
-      <c r="AO33" s="48"/>
-      <c r="AP33" s="48"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="62"/>
-      <c r="AS33" s="62"/>
-      <c r="AT33" s="62"/>
-      <c r="AU33" s="62"/>
-      <c r="AV33" s="63"/>
-      <c r="AW33" s="62"/>
-      <c r="AX33" s="62"/>
-      <c r="AY33" s="62"/>
-      <c r="AZ33" s="63"/>
-      <c r="BA33" s="62"/>
-      <c r="BB33" s="62"/>
-      <c r="BC33" s="62"/>
-      <c r="BD33" s="63"/>
-      <c r="BE33" s="62"/>
-      <c r="BF33" s="62"/>
-      <c r="BG33" s="62"/>
-      <c r="BH33" s="63"/>
-      <c r="BI33" s="64"/>
-      <c r="BJ33" s="62"/>
-      <c r="BK33" s="62"/>
-      <c r="BL33" s="63"/>
-      <c r="BM33" s="65"/>
-      <c r="BN33" s="65"/>
-      <c r="BO33" s="65"/>
-      <c r="BP33" s="65"/>
-      <c r="BQ33" s="66"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="69"/>
+      <c r="AF33" s="70"/>
+      <c r="AG33" s="70"/>
+      <c r="AH33" s="70"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="75"/>
+      <c r="AK33" s="76"/>
+      <c r="AL33" s="77"/>
+      <c r="AM33" s="38"/>
+      <c r="AN33" s="42"/>
+      <c r="AO33" s="42"/>
+      <c r="AP33" s="42"/>
+      <c r="AQ33" s="43"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="16"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="16"/>
+      <c r="BA33" s="80"/>
+      <c r="BB33" s="80"/>
+      <c r="BC33" s="80"/>
+      <c r="BD33" s="81"/>
+      <c r="BE33" s="80"/>
+      <c r="BF33" s="80"/>
+      <c r="BG33" s="80"/>
+      <c r="BH33" s="81"/>
+      <c r="BI33" s="17"/>
+      <c r="BJ33" s="15"/>
+      <c r="BK33" s="15"/>
+      <c r="BL33" s="16"/>
+      <c r="BM33" s="18"/>
+      <c r="BN33" s="18"/>
+      <c r="BO33" s="18"/>
+      <c r="BP33" s="18"/>
+      <c r="BQ33" s="19"/>
     </row>
     <row r="34" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="38"/>
-      <c r="AE34" s="39"/>
-      <c r="AF34" s="40"/>
-      <c r="AG34" s="40"/>
-      <c r="AH34" s="40"/>
-      <c r="AI34" s="41"/>
-      <c r="AJ34" s="33"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="35"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="28"/>
-      <c r="AO34" s="28"/>
-      <c r="AP34" s="28"/>
-      <c r="AQ34" s="29"/>
-      <c r="AR34" s="42"/>
-      <c r="AS34" s="42"/>
-      <c r="AT34" s="42"/>
-      <c r="AU34" s="42"/>
-      <c r="AV34" s="43"/>
-      <c r="AW34" s="42"/>
-      <c r="AX34" s="42"/>
-      <c r="AY34" s="42"/>
-      <c r="AZ34" s="43"/>
-      <c r="BA34" s="42"/>
-      <c r="BB34" s="42"/>
-      <c r="BC34" s="42"/>
-      <c r="BD34" s="43"/>
-      <c r="BE34" s="42"/>
-      <c r="BF34" s="42"/>
-      <c r="BG34" s="42"/>
-      <c r="BH34" s="43"/>
-      <c r="BI34" s="44"/>
-      <c r="BJ34" s="42"/>
-      <c r="BK34" s="42"/>
-      <c r="BL34" s="43"/>
-      <c r="BM34" s="45"/>
-      <c r="BN34" s="45"/>
-      <c r="BO34" s="45"/>
-      <c r="BP34" s="45"/>
-      <c r="BQ34" s="46"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="32"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="67"/>
+      <c r="AG34" s="67"/>
+      <c r="AH34" s="67"/>
+      <c r="AI34" s="68"/>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="73"/>
+      <c r="AL34" s="74"/>
+      <c r="AM34" s="22"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="25"/>
+      <c r="AP34" s="25"/>
+      <c r="AQ34" s="26"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="10"/>
+      <c r="AX34" s="10"/>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="11"/>
+      <c r="BA34" s="78"/>
+      <c r="BB34" s="78"/>
+      <c r="BC34" s="78"/>
+      <c r="BD34" s="79"/>
+      <c r="BE34" s="78"/>
+      <c r="BF34" s="78"/>
+      <c r="BG34" s="78"/>
+      <c r="BH34" s="79"/>
+      <c r="BI34" s="12"/>
+      <c r="BJ34" s="10"/>
+      <c r="BK34" s="10"/>
+      <c r="BL34" s="11"/>
+      <c r="BM34" s="13"/>
+      <c r="BN34" s="13"/>
+      <c r="BO34" s="13"/>
+      <c r="BP34" s="13"/>
+      <c r="BQ34" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="270">

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KDP003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KDP003.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD9992B6-3B51-4D02-8682-3F02BC16A7B8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E13A4D79-998E-4659-BF4F-391A77FD13E4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9585" tabRatio="628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="帳票レイアウト" sheetId="36" r:id="rId1"/>
+    <sheet name="打刻一覧表" sheetId="36" r:id="rId1"/>
     <sheet name="copy" sheetId="35" r:id="rId2"/>
   </sheets>
   <externalReferences>
@@ -118,9 +118,9 @@
     <definedName name="PG田中" localSheetId="0">#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">copy!$A$1:$BQ$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帳票レイアウト!$A$1:$BQ$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">打刻一覧表!$A$1:$BQ$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">copy!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">帳票レイアウト!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">打刻一覧表!$1:$2</definedName>
     <definedName name="PrintDaicho" localSheetId="0">[9]!PrintDaicho</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
     <definedName name="QuitDaicho" localSheetId="0">[9]!QuitDaicho</definedName>
@@ -1393,71 +1393,17 @@
     <xf numFmtId="49" fontId="30" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1513,26 +1459,50 @@
     <xf numFmtId="49" fontId="30" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1541,15 +1511,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1561,17 +1522,56 @@
     <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="30" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="81">
@@ -45563,7 +45563,7 @@
   <dimension ref="A1:CB34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10:AQ10"/>
+      <selection activeCell="R31" sqref="R31:W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="15" customHeight="1"/>
@@ -45573,75 +45573,75 @@
   <sheetData>
     <row r="1" spans="1:80" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="46"/>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="45"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="44"/>
-      <c r="BJ2" s="45"/>
-      <c r="BK2" s="45"/>
-      <c r="BL2" s="46"/>
-      <c r="BM2" s="44"/>
-      <c r="BN2" s="45"/>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="45"/>
-      <c r="BQ2" s="45"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="26"/>
+      <c r="BF2" s="27"/>
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="26"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="27"/>
+      <c r="BL2" s="28"/>
+      <c r="BM2" s="26"/>
+      <c r="BN2" s="27"/>
+      <c r="BO2" s="27"/>
+      <c r="BP2" s="27"/>
+      <c r="BQ2" s="27"/>
       <c r="BU2" s="3"/>
       <c r="BV2" s="3"/>
       <c r="BW2" s="3"/>
@@ -45652,49 +45652,49 @@
       <c r="CB2" s="3"/>
     </row>
     <row r="3" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="48"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="30"/>
       <c r="AR3" s="6"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="6"/>
@@ -45723,49 +45723,49 @@
       <c r="BQ3" s="6"/>
     </row>
     <row r="4" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="26"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="49"/>
       <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
       <c r="AT4" s="10"/>
@@ -45775,14 +45775,14 @@
       <c r="AX4" s="10"/>
       <c r="AY4" s="10"/>
       <c r="AZ4" s="11"/>
-      <c r="BA4" s="78"/>
-      <c r="BB4" s="78"/>
-      <c r="BC4" s="78"/>
-      <c r="BD4" s="79"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="78"/>
-      <c r="BG4" s="78"/>
-      <c r="BH4" s="79"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="23"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="22"/>
+      <c r="BG4" s="22"/>
+      <c r="BH4" s="23"/>
       <c r="BI4" s="12"/>
       <c r="BJ4" s="10"/>
       <c r="BK4" s="10"/>
@@ -45794,49 +45794,49 @@
       <c r="BQ4" s="10"/>
     </row>
     <row r="5" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="71"/>
-      <c r="AJ5" s="75"/>
-      <c r="AK5" s="76"/>
-      <c r="AL5" s="77"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="43"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="65"/>
+      <c r="AO5" s="65"/>
+      <c r="AP5" s="65"/>
+      <c r="AQ5" s="66"/>
       <c r="AR5" s="15"/>
       <c r="AS5" s="15"/>
       <c r="AT5" s="15"/>
@@ -45846,14 +45846,14 @@
       <c r="AX5" s="15"/>
       <c r="AY5" s="15"/>
       <c r="AZ5" s="16"/>
-      <c r="BA5" s="80"/>
-      <c r="BB5" s="80"/>
-      <c r="BC5" s="80"/>
-      <c r="BD5" s="81"/>
-      <c r="BE5" s="80"/>
-      <c r="BF5" s="80"/>
-      <c r="BG5" s="80"/>
-      <c r="BH5" s="81"/>
+      <c r="BA5" s="24"/>
+      <c r="BB5" s="24"/>
+      <c r="BC5" s="24"/>
+      <c r="BD5" s="25"/>
+      <c r="BE5" s="24"/>
+      <c r="BF5" s="24"/>
+      <c r="BG5" s="24"/>
+      <c r="BH5" s="25"/>
       <c r="BI5" s="17"/>
       <c r="BJ5" s="15"/>
       <c r="BK5" s="15"/>
@@ -45865,49 +45865,49 @@
       <c r="BQ5" s="15"/>
     </row>
     <row r="6" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="67"/>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="73"/>
-      <c r="AL6" s="74"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="26"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="49"/>
       <c r="AR6" s="10"/>
       <c r="AS6" s="10"/>
       <c r="AT6" s="10"/>
@@ -45917,14 +45917,14 @@
       <c r="AX6" s="10"/>
       <c r="AY6" s="10"/>
       <c r="AZ6" s="11"/>
-      <c r="BA6" s="78"/>
-      <c r="BB6" s="78"/>
-      <c r="BC6" s="78"/>
-      <c r="BD6" s="79"/>
-      <c r="BE6" s="78"/>
-      <c r="BF6" s="78"/>
-      <c r="BG6" s="78"/>
-      <c r="BH6" s="79"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
+      <c r="BD6" s="23"/>
+      <c r="BE6" s="22"/>
+      <c r="BF6" s="22"/>
+      <c r="BG6" s="22"/>
+      <c r="BH6" s="23"/>
       <c r="BI6" s="12"/>
       <c r="BJ6" s="10"/>
       <c r="BK6" s="10"/>
@@ -45936,49 +45936,49 @@
       <c r="BQ6" s="10"/>
     </row>
     <row r="7" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="76"/>
-      <c r="AL7" s="77"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="43"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="55"/>
+      <c r="AN7" s="65"/>
+      <c r="AO7" s="65"/>
+      <c r="AP7" s="65"/>
+      <c r="AQ7" s="66"/>
       <c r="AR7" s="15"/>
       <c r="AS7" s="15"/>
       <c r="AT7" s="15"/>
@@ -45988,14 +45988,14 @@
       <c r="AX7" s="15"/>
       <c r="AY7" s="15"/>
       <c r="AZ7" s="16"/>
-      <c r="BA7" s="80"/>
-      <c r="BB7" s="80"/>
-      <c r="BC7" s="80"/>
-      <c r="BD7" s="81"/>
-      <c r="BE7" s="80"/>
-      <c r="BF7" s="80"/>
-      <c r="BG7" s="80"/>
-      <c r="BH7" s="81"/>
+      <c r="BA7" s="24"/>
+      <c r="BB7" s="24"/>
+      <c r="BC7" s="24"/>
+      <c r="BD7" s="25"/>
+      <c r="BE7" s="24"/>
+      <c r="BF7" s="24"/>
+      <c r="BG7" s="24"/>
+      <c r="BH7" s="25"/>
       <c r="BI7" s="17"/>
       <c r="BJ7" s="15"/>
       <c r="BK7" s="15"/>
@@ -46007,49 +46007,49 @@
       <c r="BQ7" s="15"/>
     </row>
     <row r="8" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="68"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="73"/>
-      <c r="AL8" s="74"/>
-      <c r="AM8" s="22"/>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="26"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="76"/>
+      <c r="AI8" s="77"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="49"/>
       <c r="AR8" s="10"/>
       <c r="AS8" s="10"/>
       <c r="AT8" s="10"/>
@@ -46059,14 +46059,14 @@
       <c r="AX8" s="10"/>
       <c r="AY8" s="10"/>
       <c r="AZ8" s="11"/>
-      <c r="BA8" s="78"/>
-      <c r="BB8" s="78"/>
-      <c r="BC8" s="78"/>
-      <c r="BD8" s="79"/>
-      <c r="BE8" s="78"/>
-      <c r="BF8" s="78"/>
-      <c r="BG8" s="78"/>
-      <c r="BH8" s="79"/>
+      <c r="BA8" s="22"/>
+      <c r="BB8" s="22"/>
+      <c r="BC8" s="22"/>
+      <c r="BD8" s="23"/>
+      <c r="BE8" s="22"/>
+      <c r="BF8" s="22"/>
+      <c r="BG8" s="22"/>
+      <c r="BH8" s="23"/>
       <c r="BI8" s="12"/>
       <c r="BJ8" s="10"/>
       <c r="BK8" s="10"/>
@@ -46078,49 +46078,49 @@
       <c r="BQ8" s="10"/>
     </row>
     <row r="9" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="76"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="43"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="64"/>
+      <c r="AM9" s="55"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="66"/>
       <c r="AR9" s="15"/>
       <c r="AS9" s="15"/>
       <c r="AT9" s="15"/>
@@ -46130,14 +46130,14 @@
       <c r="AX9" s="15"/>
       <c r="AY9" s="15"/>
       <c r="AZ9" s="16"/>
-      <c r="BA9" s="80"/>
-      <c r="BB9" s="80"/>
-      <c r="BC9" s="80"/>
-      <c r="BD9" s="81"/>
-      <c r="BE9" s="80"/>
-      <c r="BF9" s="80"/>
-      <c r="BG9" s="80"/>
-      <c r="BH9" s="81"/>
+      <c r="BA9" s="24"/>
+      <c r="BB9" s="24"/>
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="24"/>
+      <c r="BF9" s="24"/>
+      <c r="BG9" s="24"/>
+      <c r="BH9" s="25"/>
       <c r="BI9" s="17"/>
       <c r="BJ9" s="15"/>
       <c r="BK9" s="15"/>
@@ -46149,49 +46149,49 @@
       <c r="BQ9" s="15"/>
     </row>
     <row r="10" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="67"/>
-      <c r="AG10" s="67"/>
-      <c r="AH10" s="67"/>
-      <c r="AI10" s="68"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="25"/>
-      <c r="AQ10" s="26"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="47"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="48"/>
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="49"/>
       <c r="AR10" s="10"/>
       <c r="AS10" s="10"/>
       <c r="AT10" s="10"/>
@@ -46201,14 +46201,14 @@
       <c r="AX10" s="10"/>
       <c r="AY10" s="10"/>
       <c r="AZ10" s="11"/>
-      <c r="BA10" s="78"/>
-      <c r="BB10" s="78"/>
-      <c r="BC10" s="78"/>
-      <c r="BD10" s="79"/>
-      <c r="BE10" s="78"/>
-      <c r="BF10" s="78"/>
-      <c r="BG10" s="78"/>
-      <c r="BH10" s="79"/>
+      <c r="BA10" s="22"/>
+      <c r="BB10" s="22"/>
+      <c r="BC10" s="22"/>
+      <c r="BD10" s="23"/>
+      <c r="BE10" s="22"/>
+      <c r="BF10" s="22"/>
+      <c r="BG10" s="22"/>
+      <c r="BH10" s="23"/>
       <c r="BI10" s="12"/>
       <c r="BJ10" s="10"/>
       <c r="BK10" s="10"/>
@@ -46220,49 +46220,49 @@
       <c r="BQ10" s="10"/>
     </row>
     <row r="11" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="70"/>
-      <c r="AH11" s="70"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="76"/>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="42"/>
-      <c r="AO11" s="42"/>
-      <c r="AP11" s="42"/>
-      <c r="AQ11" s="43"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="61"/>
+      <c r="AJ11" s="62"/>
+      <c r="AK11" s="63"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="65"/>
+      <c r="AQ11" s="66"/>
       <c r="AR11" s="15"/>
       <c r="AS11" s="15"/>
       <c r="AT11" s="15"/>
@@ -46272,14 +46272,14 @@
       <c r="AX11" s="15"/>
       <c r="AY11" s="15"/>
       <c r="AZ11" s="16"/>
-      <c r="BA11" s="80"/>
-      <c r="BB11" s="80"/>
-      <c r="BC11" s="80"/>
-      <c r="BD11" s="81"/>
-      <c r="BE11" s="80"/>
-      <c r="BF11" s="80"/>
-      <c r="BG11" s="80"/>
-      <c r="BH11" s="81"/>
+      <c r="BA11" s="24"/>
+      <c r="BB11" s="24"/>
+      <c r="BC11" s="24"/>
+      <c r="BD11" s="25"/>
+      <c r="BE11" s="24"/>
+      <c r="BF11" s="24"/>
+      <c r="BG11" s="24"/>
+      <c r="BH11" s="25"/>
       <c r="BI11" s="17"/>
       <c r="BJ11" s="15"/>
       <c r="BK11" s="15"/>
@@ -46291,49 +46291,49 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="74"/>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="25"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="26"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="77"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="47"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="48"/>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="49"/>
       <c r="AR12" s="10"/>
       <c r="AS12" s="10"/>
       <c r="AT12" s="10"/>
@@ -46343,14 +46343,14 @@
       <c r="AX12" s="10"/>
       <c r="AY12" s="10"/>
       <c r="AZ12" s="11"/>
-      <c r="BA12" s="78"/>
-      <c r="BB12" s="78"/>
-      <c r="BC12" s="78"/>
-      <c r="BD12" s="79"/>
-      <c r="BE12" s="78"/>
-      <c r="BF12" s="78"/>
-      <c r="BG12" s="78"/>
-      <c r="BH12" s="79"/>
+      <c r="BA12" s="22"/>
+      <c r="BB12" s="22"/>
+      <c r="BC12" s="22"/>
+      <c r="BD12" s="23"/>
+      <c r="BE12" s="22"/>
+      <c r="BF12" s="22"/>
+      <c r="BG12" s="22"/>
+      <c r="BH12" s="23"/>
       <c r="BI12" s="12"/>
       <c r="BJ12" s="10"/>
       <c r="BK12" s="10"/>
@@ -46362,49 +46362,49 @@
       <c r="BQ12" s="10"/>
     </row>
     <row r="13" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="70"/>
-      <c r="AH13" s="70"/>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="77"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="42"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="43"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="60"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="62"/>
+      <c r="AK13" s="63"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="66"/>
       <c r="AR13" s="15"/>
       <c r="AS13" s="15"/>
       <c r="AT13" s="15"/>
@@ -46414,14 +46414,14 @@
       <c r="AX13" s="15"/>
       <c r="AY13" s="15"/>
       <c r="AZ13" s="16"/>
-      <c r="BA13" s="80"/>
-      <c r="BB13" s="80"/>
-      <c r="BC13" s="80"/>
-      <c r="BD13" s="81"/>
-      <c r="BE13" s="80"/>
-      <c r="BF13" s="80"/>
-      <c r="BG13" s="80"/>
-      <c r="BH13" s="81"/>
+      <c r="BA13" s="24"/>
+      <c r="BB13" s="24"/>
+      <c r="BC13" s="24"/>
+      <c r="BD13" s="25"/>
+      <c r="BE13" s="24"/>
+      <c r="BF13" s="24"/>
+      <c r="BG13" s="24"/>
+      <c r="BH13" s="25"/>
       <c r="BI13" s="17"/>
       <c r="BJ13" s="15"/>
       <c r="BK13" s="15"/>
@@ -46433,49 +46433,49 @@
       <c r="BQ13" s="15"/>
     </row>
     <row r="14" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="68"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="73"/>
-      <c r="AL14" s="74"/>
-      <c r="AM14" s="22"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="26"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="76"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="47"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="49"/>
       <c r="AR14" s="10"/>
       <c r="AS14" s="10"/>
       <c r="AT14" s="10"/>
@@ -46485,14 +46485,14 @@
       <c r="AX14" s="10"/>
       <c r="AY14" s="10"/>
       <c r="AZ14" s="11"/>
-      <c r="BA14" s="78"/>
-      <c r="BB14" s="78"/>
-      <c r="BC14" s="78"/>
-      <c r="BD14" s="79"/>
-      <c r="BE14" s="78"/>
-      <c r="BF14" s="78"/>
-      <c r="BG14" s="78"/>
-      <c r="BH14" s="79"/>
+      <c r="BA14" s="22"/>
+      <c r="BB14" s="22"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="23"/>
+      <c r="BE14" s="22"/>
+      <c r="BF14" s="22"/>
+      <c r="BG14" s="22"/>
+      <c r="BH14" s="23"/>
       <c r="BI14" s="12"/>
       <c r="BJ14" s="10"/>
       <c r="BK14" s="10"/>
@@ -46504,49 +46504,49 @@
       <c r="BQ14" s="10"/>
     </row>
     <row r="15" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="70"/>
-      <c r="AH15" s="70"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="76"/>
-      <c r="AL15" s="77"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="42"/>
-      <c r="AO15" s="42"/>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="43"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="60"/>
+      <c r="AH15" s="60"/>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="64"/>
+      <c r="AM15" s="55"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="65"/>
+      <c r="AQ15" s="66"/>
       <c r="AR15" s="15"/>
       <c r="AS15" s="15"/>
       <c r="AT15" s="15"/>
@@ -46556,14 +46556,14 @@
       <c r="AX15" s="15"/>
       <c r="AY15" s="15"/>
       <c r="AZ15" s="16"/>
-      <c r="BA15" s="80"/>
-      <c r="BB15" s="80"/>
-      <c r="BC15" s="80"/>
-      <c r="BD15" s="81"/>
-      <c r="BE15" s="80"/>
-      <c r="BF15" s="80"/>
-      <c r="BG15" s="80"/>
-      <c r="BH15" s="81"/>
+      <c r="BA15" s="24"/>
+      <c r="BB15" s="24"/>
+      <c r="BC15" s="24"/>
+      <c r="BD15" s="25"/>
+      <c r="BE15" s="24"/>
+      <c r="BF15" s="24"/>
+      <c r="BG15" s="24"/>
+      <c r="BH15" s="25"/>
       <c r="BI15" s="17"/>
       <c r="BJ15" s="15"/>
       <c r="BK15" s="15"/>
@@ -46575,49 +46575,49 @@
       <c r="BQ15" s="15"/>
     </row>
     <row r="16" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="73"/>
-      <c r="AL16" s="74"/>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="25"/>
-      <c r="AQ16" s="26"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="77"/>
+      <c r="AJ16" s="44"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="47"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="49"/>
       <c r="AR16" s="10"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
@@ -46627,14 +46627,14 @@
       <c r="AX16" s="10"/>
       <c r="AY16" s="10"/>
       <c r="AZ16" s="11"/>
-      <c r="BA16" s="78"/>
-      <c r="BB16" s="78"/>
-      <c r="BC16" s="78"/>
-      <c r="BD16" s="79"/>
-      <c r="BE16" s="78"/>
-      <c r="BF16" s="78"/>
-      <c r="BG16" s="78"/>
-      <c r="BH16" s="79"/>
+      <c r="BA16" s="22"/>
+      <c r="BB16" s="22"/>
+      <c r="BC16" s="22"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="22"/>
+      <c r="BF16" s="22"/>
+      <c r="BG16" s="22"/>
+      <c r="BH16" s="23"/>
       <c r="BI16" s="12"/>
       <c r="BJ16" s="10"/>
       <c r="BK16" s="10"/>
@@ -46646,49 +46646,49 @@
       <c r="BQ16" s="10"/>
     </row>
     <row r="17" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="75"/>
-      <c r="AK17" s="76"/>
-      <c r="AL17" s="77"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="42"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="43"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="62"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="64"/>
+      <c r="AM17" s="55"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="66"/>
       <c r="AR17" s="15"/>
       <c r="AS17" s="15"/>
       <c r="AT17" s="15"/>
@@ -46698,14 +46698,14 @@
       <c r="AX17" s="15"/>
       <c r="AY17" s="15"/>
       <c r="AZ17" s="16"/>
-      <c r="BA17" s="80"/>
-      <c r="BB17" s="80"/>
-      <c r="BC17" s="80"/>
-      <c r="BD17" s="81"/>
-      <c r="BE17" s="80"/>
-      <c r="BF17" s="80"/>
-      <c r="BG17" s="80"/>
-      <c r="BH17" s="81"/>
+      <c r="BA17" s="24"/>
+      <c r="BB17" s="24"/>
+      <c r="BC17" s="24"/>
+      <c r="BD17" s="25"/>
+      <c r="BE17" s="24"/>
+      <c r="BF17" s="24"/>
+      <c r="BG17" s="24"/>
+      <c r="BH17" s="25"/>
       <c r="BI17" s="17"/>
       <c r="BJ17" s="15"/>
       <c r="BK17" s="15"/>
@@ -46717,49 +46717,49 @@
       <c r="BQ17" s="15"/>
     </row>
     <row r="18" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="67"/>
-      <c r="AG18" s="67"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="68"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="74"/>
-      <c r="AM18" s="22"/>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="25"/>
-      <c r="AP18" s="25"/>
-      <c r="AQ18" s="26"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="76"/>
+      <c r="AH18" s="76"/>
+      <c r="AI18" s="77"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="47"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="48"/>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="49"/>
       <c r="AR18" s="10"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
@@ -46769,14 +46769,14 @@
       <c r="AX18" s="10"/>
       <c r="AY18" s="10"/>
       <c r="AZ18" s="11"/>
-      <c r="BA18" s="78"/>
-      <c r="BB18" s="78"/>
-      <c r="BC18" s="78"/>
-      <c r="BD18" s="79"/>
-      <c r="BE18" s="78"/>
-      <c r="BF18" s="78"/>
-      <c r="BG18" s="78"/>
-      <c r="BH18" s="79"/>
+      <c r="BA18" s="22"/>
+      <c r="BB18" s="22"/>
+      <c r="BC18" s="22"/>
+      <c r="BD18" s="23"/>
+      <c r="BE18" s="22"/>
+      <c r="BF18" s="22"/>
+      <c r="BG18" s="22"/>
+      <c r="BH18" s="23"/>
       <c r="BI18" s="12"/>
       <c r="BJ18" s="10"/>
       <c r="BK18" s="10"/>
@@ -46788,49 +46788,49 @@
       <c r="BQ18" s="10"/>
     </row>
     <row r="19" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="70"/>
-      <c r="AG19" s="70"/>
-      <c r="AH19" s="70"/>
-      <c r="AI19" s="71"/>
-      <c r="AJ19" s="75"/>
-      <c r="AK19" s="76"/>
-      <c r="AL19" s="77"/>
-      <c r="AM19" s="38"/>
-      <c r="AN19" s="42"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="43"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="64"/>
+      <c r="AM19" s="55"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="66"/>
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
       <c r="AT19" s="15"/>
@@ -46840,14 +46840,14 @@
       <c r="AX19" s="15"/>
       <c r="AY19" s="15"/>
       <c r="AZ19" s="16"/>
-      <c r="BA19" s="80"/>
-      <c r="BB19" s="80"/>
-      <c r="BC19" s="80"/>
-      <c r="BD19" s="81"/>
-      <c r="BE19" s="80"/>
-      <c r="BF19" s="80"/>
-      <c r="BG19" s="80"/>
-      <c r="BH19" s="81"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="24"/>
+      <c r="BC19" s="24"/>
+      <c r="BD19" s="25"/>
+      <c r="BE19" s="24"/>
+      <c r="BF19" s="24"/>
+      <c r="BG19" s="24"/>
+      <c r="BH19" s="25"/>
       <c r="BI19" s="17"/>
       <c r="BJ19" s="15"/>
       <c r="BK19" s="15"/>
@@ -46859,49 +46859,49 @@
       <c r="BQ19" s="15"/>
     </row>
     <row r="20" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="74"/>
-      <c r="AM20" s="22"/>
-      <c r="AN20" s="25"/>
-      <c r="AO20" s="25"/>
-      <c r="AP20" s="25"/>
-      <c r="AQ20" s="26"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="77"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="46"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="49"/>
       <c r="AR20" s="10"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
@@ -46911,14 +46911,14 @@
       <c r="AX20" s="10"/>
       <c r="AY20" s="10"/>
       <c r="AZ20" s="11"/>
-      <c r="BA20" s="78"/>
-      <c r="BB20" s="78"/>
-      <c r="BC20" s="78"/>
-      <c r="BD20" s="79"/>
-      <c r="BE20" s="78"/>
-      <c r="BF20" s="78"/>
-      <c r="BG20" s="78"/>
-      <c r="BH20" s="79"/>
+      <c r="BA20" s="22"/>
+      <c r="BB20" s="22"/>
+      <c r="BC20" s="22"/>
+      <c r="BD20" s="23"/>
+      <c r="BE20" s="22"/>
+      <c r="BF20" s="22"/>
+      <c r="BG20" s="22"/>
+      <c r="BH20" s="23"/>
       <c r="BI20" s="12"/>
       <c r="BJ20" s="10"/>
       <c r="BK20" s="10"/>
@@ -46930,49 +46930,49 @@
       <c r="BQ20" s="10"/>
     </row>
     <row r="21" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="70"/>
-      <c r="AG21" s="70"/>
-      <c r="AH21" s="70"/>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="75"/>
-      <c r="AK21" s="76"/>
-      <c r="AL21" s="77"/>
-      <c r="AM21" s="38"/>
-      <c r="AN21" s="42"/>
-      <c r="AO21" s="42"/>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="43"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="60"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="62"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="64"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="65"/>
+      <c r="AQ21" s="66"/>
       <c r="AR21" s="15"/>
       <c r="AS21" s="15"/>
       <c r="AT21" s="15"/>
@@ -46982,14 +46982,14 @@
       <c r="AX21" s="15"/>
       <c r="AY21" s="15"/>
       <c r="AZ21" s="16"/>
-      <c r="BA21" s="80"/>
-      <c r="BB21" s="80"/>
-      <c r="BC21" s="80"/>
-      <c r="BD21" s="81"/>
-      <c r="BE21" s="80"/>
-      <c r="BF21" s="80"/>
-      <c r="BG21" s="80"/>
-      <c r="BH21" s="81"/>
+      <c r="BA21" s="24"/>
+      <c r="BB21" s="24"/>
+      <c r="BC21" s="24"/>
+      <c r="BD21" s="25"/>
+      <c r="BE21" s="24"/>
+      <c r="BF21" s="24"/>
+      <c r="BG21" s="24"/>
+      <c r="BH21" s="25"/>
       <c r="BI21" s="17"/>
       <c r="BJ21" s="15"/>
       <c r="BK21" s="15"/>
@@ -47001,49 +47001,49 @@
       <c r="BQ21" s="15"/>
     </row>
     <row r="22" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="67"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="68"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="73"/>
-      <c r="AL22" s="74"/>
-      <c r="AM22" s="22"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="25"/>
-      <c r="AQ22" s="26"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="76"/>
+      <c r="AH22" s="76"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="46"/>
+      <c r="AM22" s="47"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="49"/>
       <c r="AR22" s="10"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
@@ -47053,14 +47053,14 @@
       <c r="AX22" s="10"/>
       <c r="AY22" s="10"/>
       <c r="AZ22" s="11"/>
-      <c r="BA22" s="78"/>
-      <c r="BB22" s="78"/>
-      <c r="BC22" s="78"/>
-      <c r="BD22" s="79"/>
-      <c r="BE22" s="78"/>
-      <c r="BF22" s="78"/>
-      <c r="BG22" s="78"/>
-      <c r="BH22" s="79"/>
+      <c r="BA22" s="22"/>
+      <c r="BB22" s="22"/>
+      <c r="BC22" s="22"/>
+      <c r="BD22" s="23"/>
+      <c r="BE22" s="22"/>
+      <c r="BF22" s="22"/>
+      <c r="BG22" s="22"/>
+      <c r="BH22" s="23"/>
       <c r="BI22" s="12"/>
       <c r="BJ22" s="10"/>
       <c r="BK22" s="10"/>
@@ -47072,49 +47072,49 @@
       <c r="BQ22" s="10"/>
     </row>
     <row r="23" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="70"/>
-      <c r="AG23" s="70"/>
-      <c r="AH23" s="70"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="75"/>
-      <c r="AK23" s="76"/>
-      <c r="AL23" s="77"/>
-      <c r="AM23" s="38"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="43"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="63"/>
+      <c r="AL23" s="64"/>
+      <c r="AM23" s="55"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="65"/>
+      <c r="AP23" s="65"/>
+      <c r="AQ23" s="66"/>
       <c r="AR23" s="15"/>
       <c r="AS23" s="15"/>
       <c r="AT23" s="15"/>
@@ -47124,14 +47124,14 @@
       <c r="AX23" s="15"/>
       <c r="AY23" s="15"/>
       <c r="AZ23" s="16"/>
-      <c r="BA23" s="80"/>
-      <c r="BB23" s="80"/>
-      <c r="BC23" s="80"/>
-      <c r="BD23" s="81"/>
-      <c r="BE23" s="80"/>
-      <c r="BF23" s="80"/>
-      <c r="BG23" s="80"/>
-      <c r="BH23" s="81"/>
+      <c r="BA23" s="24"/>
+      <c r="BB23" s="24"/>
+      <c r="BC23" s="24"/>
+      <c r="BD23" s="25"/>
+      <c r="BE23" s="24"/>
+      <c r="BF23" s="24"/>
+      <c r="BG23" s="24"/>
+      <c r="BH23" s="25"/>
       <c r="BI23" s="17"/>
       <c r="BJ23" s="15"/>
       <c r="BK23" s="15"/>
@@ -47143,49 +47143,49 @@
       <c r="BQ23" s="15"/>
     </row>
     <row r="24" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="67"/>
-      <c r="AG24" s="67"/>
-      <c r="AH24" s="67"/>
-      <c r="AI24" s="68"/>
-      <c r="AJ24" s="72"/>
-      <c r="AK24" s="73"/>
-      <c r="AL24" s="74"/>
-      <c r="AM24" s="22"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="25"/>
-      <c r="AQ24" s="26"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="73"/>
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="76"/>
+      <c r="AH24" s="76"/>
+      <c r="AI24" s="77"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="45"/>
+      <c r="AL24" s="46"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="48"/>
+      <c r="AO24" s="48"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="49"/>
       <c r="AR24" s="10"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
@@ -47195,14 +47195,14 @@
       <c r="AX24" s="10"/>
       <c r="AY24" s="10"/>
       <c r="AZ24" s="11"/>
-      <c r="BA24" s="78"/>
-      <c r="BB24" s="78"/>
-      <c r="BC24" s="78"/>
-      <c r="BD24" s="79"/>
-      <c r="BE24" s="78"/>
-      <c r="BF24" s="78"/>
-      <c r="BG24" s="78"/>
-      <c r="BH24" s="79"/>
+      <c r="BA24" s="22"/>
+      <c r="BB24" s="22"/>
+      <c r="BC24" s="22"/>
+      <c r="BD24" s="23"/>
+      <c r="BE24" s="22"/>
+      <c r="BF24" s="22"/>
+      <c r="BG24" s="22"/>
+      <c r="BH24" s="23"/>
       <c r="BI24" s="12"/>
       <c r="BJ24" s="10"/>
       <c r="BK24" s="10"/>
@@ -47214,49 +47214,49 @@
       <c r="BQ24" s="10"/>
     </row>
     <row r="25" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="69"/>
-      <c r="AF25" s="70"/>
-      <c r="AG25" s="70"/>
-      <c r="AH25" s="70"/>
-      <c r="AI25" s="71"/>
-      <c r="AJ25" s="75"/>
-      <c r="AK25" s="76"/>
-      <c r="AL25" s="77"/>
-      <c r="AM25" s="38"/>
-      <c r="AN25" s="42"/>
-      <c r="AO25" s="42"/>
-      <c r="AP25" s="42"/>
-      <c r="AQ25" s="43"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="57"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="64"/>
+      <c r="AM25" s="55"/>
+      <c r="AN25" s="65"/>
+      <c r="AO25" s="65"/>
+      <c r="AP25" s="65"/>
+      <c r="AQ25" s="66"/>
       <c r="AR25" s="15"/>
       <c r="AS25" s="15"/>
       <c r="AT25" s="15"/>
@@ -47266,14 +47266,14 @@
       <c r="AX25" s="15"/>
       <c r="AY25" s="15"/>
       <c r="AZ25" s="16"/>
-      <c r="BA25" s="80"/>
-      <c r="BB25" s="80"/>
-      <c r="BC25" s="80"/>
-      <c r="BD25" s="81"/>
-      <c r="BE25" s="80"/>
-      <c r="BF25" s="80"/>
-      <c r="BG25" s="80"/>
-      <c r="BH25" s="81"/>
+      <c r="BA25" s="24"/>
+      <c r="BB25" s="24"/>
+      <c r="BC25" s="24"/>
+      <c r="BD25" s="25"/>
+      <c r="BE25" s="24"/>
+      <c r="BF25" s="24"/>
+      <c r="BG25" s="24"/>
+      <c r="BH25" s="25"/>
       <c r="BI25" s="17"/>
       <c r="BJ25" s="15"/>
       <c r="BK25" s="15"/>
@@ -47285,49 +47285,49 @@
       <c r="BQ25" s="15"/>
     </row>
     <row r="26" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="67"/>
-      <c r="AG26" s="67"/>
-      <c r="AH26" s="67"/>
-      <c r="AI26" s="68"/>
-      <c r="AJ26" s="72"/>
-      <c r="AK26" s="73"/>
-      <c r="AL26" s="74"/>
-      <c r="AM26" s="22"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
-      <c r="AP26" s="25"/>
-      <c r="AQ26" s="26"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="73"/>
+      <c r="AC26" s="73"/>
+      <c r="AD26" s="74"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="76"/>
+      <c r="AG26" s="76"/>
+      <c r="AH26" s="76"/>
+      <c r="AI26" s="77"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="47"/>
+      <c r="AN26" s="48"/>
+      <c r="AO26" s="48"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="49"/>
       <c r="AR26" s="10"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
@@ -47337,14 +47337,14 @@
       <c r="AX26" s="10"/>
       <c r="AY26" s="10"/>
       <c r="AZ26" s="11"/>
-      <c r="BA26" s="78"/>
-      <c r="BB26" s="78"/>
-      <c r="BC26" s="78"/>
-      <c r="BD26" s="79"/>
-      <c r="BE26" s="78"/>
-      <c r="BF26" s="78"/>
-      <c r="BG26" s="78"/>
-      <c r="BH26" s="79"/>
+      <c r="BA26" s="22"/>
+      <c r="BB26" s="22"/>
+      <c r="BC26" s="22"/>
+      <c r="BD26" s="23"/>
+      <c r="BE26" s="22"/>
+      <c r="BF26" s="22"/>
+      <c r="BG26" s="22"/>
+      <c r="BH26" s="23"/>
       <c r="BI26" s="12"/>
       <c r="BJ26" s="10"/>
       <c r="BK26" s="10"/>
@@ -47356,49 +47356,49 @@
       <c r="BQ26" s="10"/>
     </row>
     <row r="27" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="69"/>
-      <c r="AF27" s="70"/>
-      <c r="AG27" s="70"/>
-      <c r="AH27" s="70"/>
-      <c r="AI27" s="71"/>
-      <c r="AJ27" s="75"/>
-      <c r="AK27" s="76"/>
-      <c r="AL27" s="77"/>
-      <c r="AM27" s="38"/>
-      <c r="AN27" s="42"/>
-      <c r="AO27" s="42"/>
-      <c r="AP27" s="42"/>
-      <c r="AQ27" s="43"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="64"/>
+      <c r="AM27" s="55"/>
+      <c r="AN27" s="65"/>
+      <c r="AO27" s="65"/>
+      <c r="AP27" s="65"/>
+      <c r="AQ27" s="66"/>
       <c r="AR27" s="15"/>
       <c r="AS27" s="15"/>
       <c r="AT27" s="15"/>
@@ -47408,14 +47408,14 @@
       <c r="AX27" s="15"/>
       <c r="AY27" s="15"/>
       <c r="AZ27" s="16"/>
-      <c r="BA27" s="80"/>
-      <c r="BB27" s="80"/>
-      <c r="BC27" s="80"/>
-      <c r="BD27" s="81"/>
-      <c r="BE27" s="80"/>
-      <c r="BF27" s="80"/>
-      <c r="BG27" s="80"/>
-      <c r="BH27" s="81"/>
+      <c r="BA27" s="24"/>
+      <c r="BB27" s="24"/>
+      <c r="BC27" s="24"/>
+      <c r="BD27" s="25"/>
+      <c r="BE27" s="24"/>
+      <c r="BF27" s="24"/>
+      <c r="BG27" s="24"/>
+      <c r="BH27" s="25"/>
       <c r="BI27" s="17"/>
       <c r="BJ27" s="15"/>
       <c r="BK27" s="15"/>
@@ -47427,49 +47427,49 @@
       <c r="BQ27" s="15"/>
     </row>
     <row r="28" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="67"/>
-      <c r="AG28" s="67"/>
-      <c r="AH28" s="67"/>
-      <c r="AI28" s="68"/>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="73"/>
-      <c r="AL28" s="74"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
-      <c r="AP28" s="25"/>
-      <c r="AQ28" s="26"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="67"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="73"/>
+      <c r="AC28" s="73"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="77"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="46"/>
+      <c r="AM28" s="47"/>
+      <c r="AN28" s="48"/>
+      <c r="AO28" s="48"/>
+      <c r="AP28" s="48"/>
+      <c r="AQ28" s="49"/>
       <c r="AR28" s="10"/>
       <c r="AS28" s="10"/>
       <c r="AT28" s="10"/>
@@ -47479,14 +47479,14 @@
       <c r="AX28" s="10"/>
       <c r="AY28" s="10"/>
       <c r="AZ28" s="11"/>
-      <c r="BA28" s="78"/>
-      <c r="BB28" s="78"/>
-      <c r="BC28" s="78"/>
-      <c r="BD28" s="79"/>
-      <c r="BE28" s="78"/>
-      <c r="BF28" s="78"/>
-      <c r="BG28" s="78"/>
-      <c r="BH28" s="79"/>
+      <c r="BA28" s="22"/>
+      <c r="BB28" s="22"/>
+      <c r="BC28" s="22"/>
+      <c r="BD28" s="23"/>
+      <c r="BE28" s="22"/>
+      <c r="BF28" s="22"/>
+      <c r="BG28" s="22"/>
+      <c r="BH28" s="23"/>
       <c r="BI28" s="12"/>
       <c r="BJ28" s="10"/>
       <c r="BK28" s="10"/>
@@ -47498,49 +47498,49 @@
       <c r="BQ28" s="10"/>
     </row>
     <row r="29" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="40"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="69"/>
-      <c r="AF29" s="70"/>
-      <c r="AG29" s="70"/>
-      <c r="AH29" s="70"/>
-      <c r="AI29" s="71"/>
-      <c r="AJ29" s="75"/>
-      <c r="AK29" s="76"/>
-      <c r="AL29" s="77"/>
-      <c r="AM29" s="38"/>
-      <c r="AN29" s="42"/>
-      <c r="AO29" s="42"/>
-      <c r="AP29" s="42"/>
-      <c r="AQ29" s="43"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="57"/>
+      <c r="AC29" s="57"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="60"/>
+      <c r="AI29" s="61"/>
+      <c r="AJ29" s="62"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="55"/>
+      <c r="AN29" s="65"/>
+      <c r="AO29" s="65"/>
+      <c r="AP29" s="65"/>
+      <c r="AQ29" s="66"/>
       <c r="AR29" s="15"/>
       <c r="AS29" s="15"/>
       <c r="AT29" s="15"/>
@@ -47550,14 +47550,14 @@
       <c r="AX29" s="15"/>
       <c r="AY29" s="15"/>
       <c r="AZ29" s="16"/>
-      <c r="BA29" s="80"/>
-      <c r="BB29" s="80"/>
-      <c r="BC29" s="80"/>
-      <c r="BD29" s="81"/>
-      <c r="BE29" s="80"/>
-      <c r="BF29" s="80"/>
-      <c r="BG29" s="80"/>
-      <c r="BH29" s="81"/>
+      <c r="BA29" s="24"/>
+      <c r="BB29" s="24"/>
+      <c r="BC29" s="24"/>
+      <c r="BD29" s="25"/>
+      <c r="BE29" s="24"/>
+      <c r="BF29" s="24"/>
+      <c r="BG29" s="24"/>
+      <c r="BH29" s="25"/>
       <c r="BI29" s="17"/>
       <c r="BJ29" s="15"/>
       <c r="BK29" s="15"/>
@@ -47569,49 +47569,49 @@
       <c r="BQ29" s="15"/>
     </row>
     <row r="30" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="66"/>
-      <c r="AF30" s="67"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="68"/>
-      <c r="AJ30" s="72"/>
-      <c r="AK30" s="73"/>
-      <c r="AL30" s="74"/>
-      <c r="AM30" s="22"/>
-      <c r="AN30" s="25"/>
-      <c r="AO30" s="25"/>
-      <c r="AP30" s="25"/>
-      <c r="AQ30" s="26"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="76"/>
+      <c r="AG30" s="76"/>
+      <c r="AH30" s="76"/>
+      <c r="AI30" s="77"/>
+      <c r="AJ30" s="44"/>
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="46"/>
+      <c r="AM30" s="47"/>
+      <c r="AN30" s="48"/>
+      <c r="AO30" s="48"/>
+      <c r="AP30" s="48"/>
+      <c r="AQ30" s="49"/>
       <c r="AR30" s="10"/>
       <c r="AS30" s="10"/>
       <c r="AT30" s="10"/>
@@ -47621,14 +47621,14 @@
       <c r="AX30" s="10"/>
       <c r="AY30" s="10"/>
       <c r="AZ30" s="11"/>
-      <c r="BA30" s="78"/>
-      <c r="BB30" s="78"/>
-      <c r="BC30" s="78"/>
-      <c r="BD30" s="79"/>
-      <c r="BE30" s="78"/>
-      <c r="BF30" s="78"/>
-      <c r="BG30" s="78"/>
-      <c r="BH30" s="79"/>
+      <c r="BA30" s="22"/>
+      <c r="BB30" s="22"/>
+      <c r="BC30" s="22"/>
+      <c r="BD30" s="23"/>
+      <c r="BE30" s="22"/>
+      <c r="BF30" s="22"/>
+      <c r="BG30" s="22"/>
+      <c r="BH30" s="23"/>
       <c r="BI30" s="12"/>
       <c r="BJ30" s="10"/>
       <c r="BK30" s="10"/>
@@ -47640,49 +47640,49 @@
       <c r="BQ30" s="10"/>
     </row>
     <row r="31" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="70"/>
-      <c r="AG31" s="70"/>
-      <c r="AH31" s="70"/>
-      <c r="AI31" s="71"/>
-      <c r="AJ31" s="75"/>
-      <c r="AK31" s="76"/>
-      <c r="AL31" s="77"/>
-      <c r="AM31" s="38"/>
-      <c r="AN31" s="42"/>
-      <c r="AO31" s="42"/>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="43"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="59"/>
+      <c r="AF31" s="60"/>
+      <c r="AG31" s="60"/>
+      <c r="AH31" s="60"/>
+      <c r="AI31" s="61"/>
+      <c r="AJ31" s="62"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="64"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="65"/>
+      <c r="AO31" s="65"/>
+      <c r="AP31" s="65"/>
+      <c r="AQ31" s="66"/>
       <c r="AR31" s="15"/>
       <c r="AS31" s="15"/>
       <c r="AT31" s="15"/>
@@ -47692,14 +47692,14 @@
       <c r="AX31" s="15"/>
       <c r="AY31" s="15"/>
       <c r="AZ31" s="16"/>
-      <c r="BA31" s="80"/>
-      <c r="BB31" s="80"/>
-      <c r="BC31" s="80"/>
-      <c r="BD31" s="81"/>
-      <c r="BE31" s="80"/>
-      <c r="BF31" s="80"/>
-      <c r="BG31" s="80"/>
-      <c r="BH31" s="81"/>
+      <c r="BA31" s="24"/>
+      <c r="BB31" s="24"/>
+      <c r="BC31" s="24"/>
+      <c r="BD31" s="25"/>
+      <c r="BE31" s="24"/>
+      <c r="BF31" s="24"/>
+      <c r="BG31" s="24"/>
+      <c r="BH31" s="25"/>
       <c r="BI31" s="17"/>
       <c r="BJ31" s="15"/>
       <c r="BK31" s="15"/>
@@ -47711,49 +47711,49 @@
       <c r="BQ31" s="15"/>
     </row>
     <row r="32" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="67"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="68"/>
-      <c r="AJ32" s="72"/>
-      <c r="AK32" s="73"/>
-      <c r="AL32" s="74"/>
-      <c r="AM32" s="22"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="25"/>
-      <c r="AP32" s="25"/>
-      <c r="AQ32" s="26"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="67"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="73"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="76"/>
+      <c r="AG32" s="76"/>
+      <c r="AH32" s="76"/>
+      <c r="AI32" s="77"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="46"/>
+      <c r="AM32" s="47"/>
+      <c r="AN32" s="48"/>
+      <c r="AO32" s="48"/>
+      <c r="AP32" s="48"/>
+      <c r="AQ32" s="49"/>
       <c r="AR32" s="10"/>
       <c r="AS32" s="10"/>
       <c r="AT32" s="10"/>
@@ -47763,14 +47763,14 @@
       <c r="AX32" s="10"/>
       <c r="AY32" s="10"/>
       <c r="AZ32" s="11"/>
-      <c r="BA32" s="78"/>
-      <c r="BB32" s="78"/>
-      <c r="BC32" s="78"/>
-      <c r="BD32" s="79"/>
-      <c r="BE32" s="78"/>
-      <c r="BF32" s="78"/>
-      <c r="BG32" s="78"/>
-      <c r="BH32" s="79"/>
+      <c r="BA32" s="22"/>
+      <c r="BB32" s="22"/>
+      <c r="BC32" s="22"/>
+      <c r="BD32" s="23"/>
+      <c r="BE32" s="22"/>
+      <c r="BF32" s="22"/>
+      <c r="BG32" s="22"/>
+      <c r="BH32" s="23"/>
       <c r="BI32" s="12"/>
       <c r="BJ32" s="10"/>
       <c r="BK32" s="10"/>
@@ -47782,49 +47782,49 @@
       <c r="BQ32" s="10"/>
     </row>
     <row r="33" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="40"/>
-      <c r="AC33" s="40"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="69"/>
-      <c r="AF33" s="70"/>
-      <c r="AG33" s="70"/>
-      <c r="AH33" s="70"/>
-      <c r="AI33" s="71"/>
-      <c r="AJ33" s="75"/>
-      <c r="AK33" s="76"/>
-      <c r="AL33" s="77"/>
-      <c r="AM33" s="38"/>
-      <c r="AN33" s="42"/>
-      <c r="AO33" s="42"/>
-      <c r="AP33" s="42"/>
-      <c r="AQ33" s="43"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57"/>
+      <c r="AB33" s="57"/>
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="60"/>
+      <c r="AG33" s="60"/>
+      <c r="AH33" s="60"/>
+      <c r="AI33" s="61"/>
+      <c r="AJ33" s="62"/>
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="64"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="65"/>
+      <c r="AO33" s="65"/>
+      <c r="AP33" s="65"/>
+      <c r="AQ33" s="66"/>
       <c r="AR33" s="15"/>
       <c r="AS33" s="15"/>
       <c r="AT33" s="15"/>
@@ -47834,14 +47834,14 @@
       <c r="AX33" s="15"/>
       <c r="AY33" s="15"/>
       <c r="AZ33" s="16"/>
-      <c r="BA33" s="80"/>
-      <c r="BB33" s="80"/>
-      <c r="BC33" s="80"/>
-      <c r="BD33" s="81"/>
-      <c r="BE33" s="80"/>
-      <c r="BF33" s="80"/>
-      <c r="BG33" s="80"/>
-      <c r="BH33" s="81"/>
+      <c r="BA33" s="24"/>
+      <c r="BB33" s="24"/>
+      <c r="BC33" s="24"/>
+      <c r="BD33" s="25"/>
+      <c r="BE33" s="24"/>
+      <c r="BF33" s="24"/>
+      <c r="BG33" s="24"/>
+      <c r="BH33" s="25"/>
       <c r="BI33" s="17"/>
       <c r="BJ33" s="15"/>
       <c r="BK33" s="15"/>
@@ -47853,49 +47853,49 @@
       <c r="BQ33" s="15"/>
     </row>
     <row r="34" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="67"/>
-      <c r="AG34" s="67"/>
-      <c r="AH34" s="67"/>
-      <c r="AI34" s="68"/>
-      <c r="AJ34" s="72"/>
-      <c r="AK34" s="73"/>
-      <c r="AL34" s="74"/>
-      <c r="AM34" s="22"/>
-      <c r="AN34" s="25"/>
-      <c r="AO34" s="25"/>
-      <c r="AP34" s="25"/>
-      <c r="AQ34" s="26"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="75"/>
+      <c r="AF34" s="76"/>
+      <c r="AG34" s="76"/>
+      <c r="AH34" s="76"/>
+      <c r="AI34" s="77"/>
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="45"/>
+      <c r="AL34" s="46"/>
+      <c r="AM34" s="47"/>
+      <c r="AN34" s="48"/>
+      <c r="AO34" s="48"/>
+      <c r="AP34" s="48"/>
+      <c r="AQ34" s="49"/>
       <c r="AR34" s="10"/>
       <c r="AS34" s="10"/>
       <c r="AT34" s="10"/>
@@ -47905,14 +47905,14 @@
       <c r="AX34" s="10"/>
       <c r="AY34" s="10"/>
       <c r="AZ34" s="11"/>
-      <c r="BA34" s="78"/>
-      <c r="BB34" s="78"/>
-      <c r="BC34" s="78"/>
-      <c r="BD34" s="79"/>
-      <c r="BE34" s="78"/>
-      <c r="BF34" s="78"/>
-      <c r="BG34" s="78"/>
-      <c r="BH34" s="79"/>
+      <c r="BA34" s="22"/>
+      <c r="BB34" s="22"/>
+      <c r="BC34" s="22"/>
+      <c r="BD34" s="23"/>
+      <c r="BE34" s="22"/>
+      <c r="BF34" s="22"/>
+      <c r="BG34" s="22"/>
+      <c r="BH34" s="23"/>
       <c r="BI34" s="12"/>
       <c r="BJ34" s="10"/>
       <c r="BK34" s="10"/>
@@ -47925,252 +47925,6 @@
     </row>
   </sheetData>
   <mergeCells count="270">
-    <mergeCell ref="BI2:BL2"/>
-    <mergeCell ref="BM2:BQ2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:W3"/>
-    <mergeCell ref="X3:AD3"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="BA2:BD2"/>
-    <mergeCell ref="BE2:BH2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="X2:AD2"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AM4:AQ4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="AE5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="X4:AD4"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="AJ7:AL7"/>
-    <mergeCell ref="AM7:AQ7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="AE8:AI8"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="X11:AD11"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AM11:AQ11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="X10:AD10"/>
-    <mergeCell ref="AE10:AI10"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AM12:AQ12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="X13:AD13"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AM13:AQ13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="X12:AD12"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AM15:AQ15"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AM16:AQ16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AM17:AQ17"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="AM18:AQ18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="R19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="AM19:AQ19"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="AM20:AQ20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="AJ21:AL21"/>
-    <mergeCell ref="AM21:AQ21"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="AJ22:AL22"/>
-    <mergeCell ref="AM22:AQ22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="AJ23:AL23"/>
-    <mergeCell ref="AM23:AQ23"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="AJ24:AL24"/>
-    <mergeCell ref="AM24:AQ24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="AJ25:AL25"/>
-    <mergeCell ref="AM25:AQ25"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="AJ26:AL26"/>
-    <mergeCell ref="AM26:AQ26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="X27:AD27"/>
-    <mergeCell ref="AE27:AI27"/>
-    <mergeCell ref="AJ27:AL27"/>
-    <mergeCell ref="AM27:AQ27"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="X26:AD26"/>
-    <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="AJ28:AL28"/>
-    <mergeCell ref="AM28:AQ28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="X29:AD29"/>
-    <mergeCell ref="AE29:AI29"/>
-    <mergeCell ref="AJ29:AL29"/>
-    <mergeCell ref="AM29:AQ29"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="X28:AD28"/>
-    <mergeCell ref="AE28:AI28"/>
-    <mergeCell ref="AJ30:AL30"/>
-    <mergeCell ref="AM30:AQ30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="X31:AD31"/>
-    <mergeCell ref="AE31:AI31"/>
-    <mergeCell ref="AJ31:AL31"/>
-    <mergeCell ref="AM31:AQ31"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="X30:AD30"/>
-    <mergeCell ref="AE30:AI30"/>
     <mergeCell ref="AJ34:AL34"/>
     <mergeCell ref="AM34:AQ34"/>
     <mergeCell ref="A34:E34"/>
@@ -48195,6 +47949,252 @@
     <mergeCell ref="R32:W32"/>
     <mergeCell ref="X32:AD32"/>
     <mergeCell ref="AE32:AI32"/>
+    <mergeCell ref="AJ30:AL30"/>
+    <mergeCell ref="AM30:AQ30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="X31:AD31"/>
+    <mergeCell ref="AE31:AI31"/>
+    <mergeCell ref="AJ31:AL31"/>
+    <mergeCell ref="AM31:AQ31"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="X30:AD30"/>
+    <mergeCell ref="AE30:AI30"/>
+    <mergeCell ref="AJ28:AL28"/>
+    <mergeCell ref="AM28:AQ28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="X29:AD29"/>
+    <mergeCell ref="AE29:AI29"/>
+    <mergeCell ref="AJ29:AL29"/>
+    <mergeCell ref="AM29:AQ29"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="X28:AD28"/>
+    <mergeCell ref="AE28:AI28"/>
+    <mergeCell ref="AJ26:AL26"/>
+    <mergeCell ref="AM26:AQ26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="X27:AD27"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="AJ27:AL27"/>
+    <mergeCell ref="AM27:AQ27"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="X26:AD26"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="AJ24:AL24"/>
+    <mergeCell ref="AM24:AQ24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="AE25:AI25"/>
+    <mergeCell ref="AJ25:AL25"/>
+    <mergeCell ref="AM25:AQ25"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="AM22:AQ22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="AM23:AQ23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="AM20:AQ20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="AM21:AQ21"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="AM18:AQ18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="R19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="AJ19:AL19"/>
+    <mergeCell ref="AM19:AQ19"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AM16:AQ16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AM17:AQ17"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="AM14:AQ14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AM15:AQ15"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="AM12:AQ12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="X13:AD13"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="AM13:AQ13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="X12:AD12"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="X11:AD11"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AM11:AQ11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="X10:AD10"/>
+    <mergeCell ref="AE10:AI10"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AM8:AQ8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="AE8:AI8"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="AM7:AQ7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AM4:AQ4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="X5:AD5"/>
+    <mergeCell ref="AE5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="X4:AD4"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="BI2:BL2"/>
+    <mergeCell ref="BM2:BQ2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="X3:AD3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="BA2:BD2"/>
+    <mergeCell ref="BE2:BH2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="X2:AD2"/>
+    <mergeCell ref="AE2:AI2"/>
   </mergeCells>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -48222,75 +48222,75 @@
       <c r="BQ1" s="5"/>
     </row>
     <row r="2" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="46"/>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="45"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="44"/>
-      <c r="BJ2" s="45"/>
-      <c r="BK2" s="45"/>
-      <c r="BL2" s="46"/>
-      <c r="BM2" s="44"/>
-      <c r="BN2" s="45"/>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="45"/>
-      <c r="BQ2" s="64"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="26"/>
+      <c r="BF2" s="27"/>
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="26"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="27"/>
+      <c r="BL2" s="28"/>
+      <c r="BM2" s="26"/>
+      <c r="BN2" s="27"/>
+      <c r="BO2" s="27"/>
+      <c r="BP2" s="27"/>
+      <c r="BQ2" s="78"/>
       <c r="BU2" s="3"/>
       <c r="BV2" s="3"/>
       <c r="BW2" s="3"/>
@@ -48301,49 +48301,49 @@
       <c r="CB2" s="3"/>
     </row>
     <row r="3" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="48"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="30"/>
       <c r="AR3" s="6"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="6"/>
@@ -48372,49 +48372,49 @@
       <c r="BQ3" s="9"/>
     </row>
     <row r="4" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="26"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="49"/>
       <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
       <c r="AT4" s="10"/>
@@ -48424,14 +48424,14 @@
       <c r="AX4" s="10"/>
       <c r="AY4" s="10"/>
       <c r="AZ4" s="11"/>
-      <c r="BA4" s="78"/>
-      <c r="BB4" s="78"/>
-      <c r="BC4" s="78"/>
-      <c r="BD4" s="79"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="78"/>
-      <c r="BG4" s="78"/>
-      <c r="BH4" s="79"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="23"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="22"/>
+      <c r="BG4" s="22"/>
+      <c r="BH4" s="23"/>
       <c r="BI4" s="12"/>
       <c r="BJ4" s="10"/>
       <c r="BK4" s="10"/>
@@ -48443,49 +48443,49 @@
       <c r="BQ4" s="14"/>
     </row>
     <row r="5" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="71"/>
-      <c r="AJ5" s="75"/>
-      <c r="AK5" s="76"/>
-      <c r="AL5" s="77"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="43"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="65"/>
+      <c r="AO5" s="65"/>
+      <c r="AP5" s="65"/>
+      <c r="AQ5" s="66"/>
       <c r="AR5" s="15"/>
       <c r="AS5" s="15"/>
       <c r="AT5" s="15"/>
@@ -48495,14 +48495,14 @@
       <c r="AX5" s="15"/>
       <c r="AY5" s="15"/>
       <c r="AZ5" s="16"/>
-      <c r="BA5" s="80"/>
-      <c r="BB5" s="80"/>
-      <c r="BC5" s="80"/>
-      <c r="BD5" s="81"/>
-      <c r="BE5" s="80"/>
-      <c r="BF5" s="80"/>
-      <c r="BG5" s="80"/>
-      <c r="BH5" s="81"/>
+      <c r="BA5" s="24"/>
+      <c r="BB5" s="24"/>
+      <c r="BC5" s="24"/>
+      <c r="BD5" s="25"/>
+      <c r="BE5" s="24"/>
+      <c r="BF5" s="24"/>
+      <c r="BG5" s="24"/>
+      <c r="BH5" s="25"/>
       <c r="BI5" s="17"/>
       <c r="BJ5" s="15"/>
       <c r="BK5" s="15"/>
@@ -48514,49 +48514,49 @@
       <c r="BQ5" s="19"/>
     </row>
     <row r="6" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="67"/>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="73"/>
-      <c r="AL6" s="74"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="26"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="49"/>
       <c r="AR6" s="10"/>
       <c r="AS6" s="10"/>
       <c r="AT6" s="10"/>
@@ -48566,14 +48566,14 @@
       <c r="AX6" s="10"/>
       <c r="AY6" s="10"/>
       <c r="AZ6" s="11"/>
-      <c r="BA6" s="78"/>
-      <c r="BB6" s="78"/>
-      <c r="BC6" s="78"/>
-      <c r="BD6" s="79"/>
-      <c r="BE6" s="78"/>
-      <c r="BF6" s="78"/>
-      <c r="BG6" s="78"/>
-      <c r="BH6" s="79"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
+      <c r="BD6" s="23"/>
+      <c r="BE6" s="22"/>
+      <c r="BF6" s="22"/>
+      <c r="BG6" s="22"/>
+      <c r="BH6" s="23"/>
       <c r="BI6" s="12"/>
       <c r="BJ6" s="10"/>
       <c r="BK6" s="10"/>
@@ -48585,49 +48585,49 @@
       <c r="BQ6" s="14"/>
     </row>
     <row r="7" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="76"/>
-      <c r="AL7" s="77"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="43"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="55"/>
+      <c r="AN7" s="65"/>
+      <c r="AO7" s="65"/>
+      <c r="AP7" s="65"/>
+      <c r="AQ7" s="66"/>
       <c r="AR7" s="15"/>
       <c r="AS7" s="15"/>
       <c r="AT7" s="15"/>
@@ -48637,14 +48637,14 @@
       <c r="AX7" s="15"/>
       <c r="AY7" s="15"/>
       <c r="AZ7" s="16"/>
-      <c r="BA7" s="80"/>
-      <c r="BB7" s="80"/>
-      <c r="BC7" s="80"/>
-      <c r="BD7" s="81"/>
-      <c r="BE7" s="80"/>
-      <c r="BF7" s="80"/>
-      <c r="BG7" s="80"/>
-      <c r="BH7" s="81"/>
+      <c r="BA7" s="24"/>
+      <c r="BB7" s="24"/>
+      <c r="BC7" s="24"/>
+      <c r="BD7" s="25"/>
+      <c r="BE7" s="24"/>
+      <c r="BF7" s="24"/>
+      <c r="BG7" s="24"/>
+      <c r="BH7" s="25"/>
       <c r="BI7" s="17"/>
       <c r="BJ7" s="15"/>
       <c r="BK7" s="15"/>
@@ -48656,49 +48656,49 @@
       <c r="BQ7" s="19"/>
     </row>
     <row r="8" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="68"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="73"/>
-      <c r="AL8" s="74"/>
-      <c r="AM8" s="22"/>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="26"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="76"/>
+      <c r="AI8" s="77"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="49"/>
       <c r="AR8" s="10"/>
       <c r="AS8" s="10"/>
       <c r="AT8" s="10"/>
@@ -48708,14 +48708,14 @@
       <c r="AX8" s="10"/>
       <c r="AY8" s="10"/>
       <c r="AZ8" s="11"/>
-      <c r="BA8" s="78"/>
-      <c r="BB8" s="78"/>
-      <c r="BC8" s="78"/>
-      <c r="BD8" s="79"/>
-      <c r="BE8" s="78"/>
-      <c r="BF8" s="78"/>
-      <c r="BG8" s="78"/>
-      <c r="BH8" s="79"/>
+      <c r="BA8" s="22"/>
+      <c r="BB8" s="22"/>
+      <c r="BC8" s="22"/>
+      <c r="BD8" s="23"/>
+      <c r="BE8" s="22"/>
+      <c r="BF8" s="22"/>
+      <c r="BG8" s="22"/>
+      <c r="BH8" s="23"/>
       <c r="BI8" s="12"/>
       <c r="BJ8" s="10"/>
       <c r="BK8" s="10"/>
@@ -48727,49 +48727,49 @@
       <c r="BQ8" s="14"/>
     </row>
     <row r="9" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="76"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="43"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="64"/>
+      <c r="AM9" s="55"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="66"/>
       <c r="AR9" s="15"/>
       <c r="AS9" s="15"/>
       <c r="AT9" s="15"/>
@@ -48779,14 +48779,14 @@
       <c r="AX9" s="15"/>
       <c r="AY9" s="15"/>
       <c r="AZ9" s="16"/>
-      <c r="BA9" s="80"/>
-      <c r="BB9" s="80"/>
-      <c r="BC9" s="80"/>
-      <c r="BD9" s="81"/>
-      <c r="BE9" s="80"/>
-      <c r="BF9" s="80"/>
-      <c r="BG9" s="80"/>
-      <c r="BH9" s="81"/>
+      <c r="BA9" s="24"/>
+      <c r="BB9" s="24"/>
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="24"/>
+      <c r="BF9" s="24"/>
+      <c r="BG9" s="24"/>
+      <c r="BH9" s="25"/>
       <c r="BI9" s="17"/>
       <c r="BJ9" s="15"/>
       <c r="BK9" s="15"/>
@@ -48798,49 +48798,49 @@
       <c r="BQ9" s="19"/>
     </row>
     <row r="10" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="67"/>
-      <c r="AG10" s="67"/>
-      <c r="AH10" s="67"/>
-      <c r="AI10" s="68"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="25"/>
-      <c r="AQ10" s="26"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="47"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="48"/>
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="49"/>
       <c r="AR10" s="10"/>
       <c r="AS10" s="10"/>
       <c r="AT10" s="10"/>
@@ -48850,14 +48850,14 @@
       <c r="AX10" s="10"/>
       <c r="AY10" s="10"/>
       <c r="AZ10" s="11"/>
-      <c r="BA10" s="78"/>
-      <c r="BB10" s="78"/>
-      <c r="BC10" s="78"/>
-      <c r="BD10" s="79"/>
-      <c r="BE10" s="78"/>
-      <c r="BF10" s="78"/>
-      <c r="BG10" s="78"/>
-      <c r="BH10" s="79"/>
+      <c r="BA10" s="22"/>
+      <c r="BB10" s="22"/>
+      <c r="BC10" s="22"/>
+      <c r="BD10" s="23"/>
+      <c r="BE10" s="22"/>
+      <c r="BF10" s="22"/>
+      <c r="BG10" s="22"/>
+      <c r="BH10" s="23"/>
       <c r="BI10" s="12"/>
       <c r="BJ10" s="10"/>
       <c r="BK10" s="10"/>
@@ -48869,49 +48869,49 @@
       <c r="BQ10" s="14"/>
     </row>
     <row r="11" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="70"/>
-      <c r="AH11" s="70"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="76"/>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="42"/>
-      <c r="AO11" s="42"/>
-      <c r="AP11" s="42"/>
-      <c r="AQ11" s="43"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="61"/>
+      <c r="AJ11" s="62"/>
+      <c r="AK11" s="63"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="65"/>
+      <c r="AQ11" s="66"/>
       <c r="AR11" s="15"/>
       <c r="AS11" s="15"/>
       <c r="AT11" s="15"/>
@@ -48921,14 +48921,14 @@
       <c r="AX11" s="15"/>
       <c r="AY11" s="15"/>
       <c r="AZ11" s="16"/>
-      <c r="BA11" s="80"/>
-      <c r="BB11" s="80"/>
-      <c r="BC11" s="80"/>
-      <c r="BD11" s="81"/>
-      <c r="BE11" s="80"/>
-      <c r="BF11" s="80"/>
-      <c r="BG11" s="80"/>
-      <c r="BH11" s="81"/>
+      <c r="BA11" s="24"/>
+      <c r="BB11" s="24"/>
+      <c r="BC11" s="24"/>
+      <c r="BD11" s="25"/>
+      <c r="BE11" s="24"/>
+      <c r="BF11" s="24"/>
+      <c r="BG11" s="24"/>
+      <c r="BH11" s="25"/>
       <c r="BI11" s="17"/>
       <c r="BJ11" s="15"/>
       <c r="BK11" s="15"/>
@@ -48940,49 +48940,49 @@
       <c r="BQ11" s="19"/>
     </row>
     <row r="12" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="74"/>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="25"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="26"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="77"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="47"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="48"/>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="49"/>
       <c r="AR12" s="10"/>
       <c r="AS12" s="10"/>
       <c r="AT12" s="10"/>
@@ -48992,14 +48992,14 @@
       <c r="AX12" s="10"/>
       <c r="AY12" s="10"/>
       <c r="AZ12" s="11"/>
-      <c r="BA12" s="78"/>
-      <c r="BB12" s="78"/>
-      <c r="BC12" s="78"/>
-      <c r="BD12" s="79"/>
-      <c r="BE12" s="78"/>
-      <c r="BF12" s="78"/>
-      <c r="BG12" s="78"/>
-      <c r="BH12" s="79"/>
+      <c r="BA12" s="22"/>
+      <c r="BB12" s="22"/>
+      <c r="BC12" s="22"/>
+      <c r="BD12" s="23"/>
+      <c r="BE12" s="22"/>
+      <c r="BF12" s="22"/>
+      <c r="BG12" s="22"/>
+      <c r="BH12" s="23"/>
       <c r="BI12" s="12"/>
       <c r="BJ12" s="10"/>
       <c r="BK12" s="10"/>
@@ -49011,49 +49011,49 @@
       <c r="BQ12" s="14"/>
     </row>
     <row r="13" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="70"/>
-      <c r="AH13" s="70"/>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="77"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="42"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="43"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="60"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="62"/>
+      <c r="AK13" s="63"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="66"/>
       <c r="AR13" s="15"/>
       <c r="AS13" s="15"/>
       <c r="AT13" s="15"/>
@@ -49063,14 +49063,14 @@
       <c r="AX13" s="15"/>
       <c r="AY13" s="15"/>
       <c r="AZ13" s="16"/>
-      <c r="BA13" s="80"/>
-      <c r="BB13" s="80"/>
-      <c r="BC13" s="80"/>
-      <c r="BD13" s="81"/>
-      <c r="BE13" s="80"/>
-      <c r="BF13" s="80"/>
-      <c r="BG13" s="80"/>
-      <c r="BH13" s="81"/>
+      <c r="BA13" s="24"/>
+      <c r="BB13" s="24"/>
+      <c r="BC13" s="24"/>
+      <c r="BD13" s="25"/>
+      <c r="BE13" s="24"/>
+      <c r="BF13" s="24"/>
+      <c r="BG13" s="24"/>
+      <c r="BH13" s="25"/>
       <c r="BI13" s="17"/>
       <c r="BJ13" s="15"/>
       <c r="BK13" s="15"/>
@@ -49082,49 +49082,49 @@
       <c r="BQ13" s="19"/>
     </row>
     <row r="14" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="68"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="73"/>
-      <c r="AL14" s="74"/>
-      <c r="AM14" s="22"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="26"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="76"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="47"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="49"/>
       <c r="AR14" s="10"/>
       <c r="AS14" s="10"/>
       <c r="AT14" s="10"/>
@@ -49134,14 +49134,14 @@
       <c r="AX14" s="10"/>
       <c r="AY14" s="10"/>
       <c r="AZ14" s="11"/>
-      <c r="BA14" s="78"/>
-      <c r="BB14" s="78"/>
-      <c r="BC14" s="78"/>
-      <c r="BD14" s="79"/>
-      <c r="BE14" s="78"/>
-      <c r="BF14" s="78"/>
-      <c r="BG14" s="78"/>
-      <c r="BH14" s="79"/>
+      <c r="BA14" s="22"/>
+      <c r="BB14" s="22"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="23"/>
+      <c r="BE14" s="22"/>
+      <c r="BF14" s="22"/>
+      <c r="BG14" s="22"/>
+      <c r="BH14" s="23"/>
       <c r="BI14" s="12"/>
       <c r="BJ14" s="10"/>
       <c r="BK14" s="10"/>
@@ -49153,49 +49153,49 @@
       <c r="BQ14" s="14"/>
     </row>
     <row r="15" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="70"/>
-      <c r="AH15" s="70"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="76"/>
-      <c r="AL15" s="77"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="42"/>
-      <c r="AO15" s="42"/>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="43"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="60"/>
+      <c r="AH15" s="60"/>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="64"/>
+      <c r="AM15" s="55"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="65"/>
+      <c r="AQ15" s="66"/>
       <c r="AR15" s="15"/>
       <c r="AS15" s="15"/>
       <c r="AT15" s="15"/>
@@ -49205,14 +49205,14 @@
       <c r="AX15" s="15"/>
       <c r="AY15" s="15"/>
       <c r="AZ15" s="16"/>
-      <c r="BA15" s="80"/>
-      <c r="BB15" s="80"/>
-      <c r="BC15" s="80"/>
-      <c r="BD15" s="81"/>
-      <c r="BE15" s="80"/>
-      <c r="BF15" s="80"/>
-      <c r="BG15" s="80"/>
-      <c r="BH15" s="81"/>
+      <c r="BA15" s="24"/>
+      <c r="BB15" s="24"/>
+      <c r="BC15" s="24"/>
+      <c r="BD15" s="25"/>
+      <c r="BE15" s="24"/>
+      <c r="BF15" s="24"/>
+      <c r="BG15" s="24"/>
+      <c r="BH15" s="25"/>
       <c r="BI15" s="17"/>
       <c r="BJ15" s="15"/>
       <c r="BK15" s="15"/>
@@ -49224,49 +49224,49 @@
       <c r="BQ15" s="19"/>
     </row>
     <row r="16" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="73"/>
-      <c r="AL16" s="74"/>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="25"/>
-      <c r="AQ16" s="26"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="77"/>
+      <c r="AJ16" s="44"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="47"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="49"/>
       <c r="AR16" s="10"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
@@ -49276,14 +49276,14 @@
       <c r="AX16" s="10"/>
       <c r="AY16" s="10"/>
       <c r="AZ16" s="11"/>
-      <c r="BA16" s="78"/>
-      <c r="BB16" s="78"/>
-      <c r="BC16" s="78"/>
-      <c r="BD16" s="79"/>
-      <c r="BE16" s="78"/>
-      <c r="BF16" s="78"/>
-      <c r="BG16" s="78"/>
-      <c r="BH16" s="79"/>
+      <c r="BA16" s="22"/>
+      <c r="BB16" s="22"/>
+      <c r="BC16" s="22"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="22"/>
+      <c r="BF16" s="22"/>
+      <c r="BG16" s="22"/>
+      <c r="BH16" s="23"/>
       <c r="BI16" s="12"/>
       <c r="BJ16" s="10"/>
       <c r="BK16" s="10"/>
@@ -49295,49 +49295,49 @@
       <c r="BQ16" s="14"/>
     </row>
     <row r="17" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="75"/>
-      <c r="AK17" s="76"/>
-      <c r="AL17" s="77"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="42"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="43"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="62"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="64"/>
+      <c r="AM17" s="55"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="66"/>
       <c r="AR17" s="15"/>
       <c r="AS17" s="15"/>
       <c r="AT17" s="15"/>
@@ -49347,14 +49347,14 @@
       <c r="AX17" s="15"/>
       <c r="AY17" s="15"/>
       <c r="AZ17" s="16"/>
-      <c r="BA17" s="80"/>
-      <c r="BB17" s="80"/>
-      <c r="BC17" s="80"/>
-      <c r="BD17" s="81"/>
-      <c r="BE17" s="80"/>
-      <c r="BF17" s="80"/>
-      <c r="BG17" s="80"/>
-      <c r="BH17" s="81"/>
+      <c r="BA17" s="24"/>
+      <c r="BB17" s="24"/>
+      <c r="BC17" s="24"/>
+      <c r="BD17" s="25"/>
+      <c r="BE17" s="24"/>
+      <c r="BF17" s="24"/>
+      <c r="BG17" s="24"/>
+      <c r="BH17" s="25"/>
       <c r="BI17" s="17"/>
       <c r="BJ17" s="15"/>
       <c r="BK17" s="15"/>
@@ -49366,49 +49366,49 @@
       <c r="BQ17" s="19"/>
     </row>
     <row r="18" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="67"/>
-      <c r="AG18" s="67"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="68"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="74"/>
-      <c r="AM18" s="22"/>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="25"/>
-      <c r="AP18" s="25"/>
-      <c r="AQ18" s="26"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="76"/>
+      <c r="AH18" s="76"/>
+      <c r="AI18" s="77"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="47"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="48"/>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="49"/>
       <c r="AR18" s="10"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
@@ -49418,14 +49418,14 @@
       <c r="AX18" s="10"/>
       <c r="AY18" s="10"/>
       <c r="AZ18" s="11"/>
-      <c r="BA18" s="78"/>
-      <c r="BB18" s="78"/>
-      <c r="BC18" s="78"/>
-      <c r="BD18" s="79"/>
-      <c r="BE18" s="78"/>
-      <c r="BF18" s="78"/>
-      <c r="BG18" s="78"/>
-      <c r="BH18" s="79"/>
+      <c r="BA18" s="22"/>
+      <c r="BB18" s="22"/>
+      <c r="BC18" s="22"/>
+      <c r="BD18" s="23"/>
+      <c r="BE18" s="22"/>
+      <c r="BF18" s="22"/>
+      <c r="BG18" s="22"/>
+      <c r="BH18" s="23"/>
       <c r="BI18" s="12"/>
       <c r="BJ18" s="10"/>
       <c r="BK18" s="10"/>
@@ -49437,49 +49437,49 @@
       <c r="BQ18" s="14"/>
     </row>
     <row r="19" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="70"/>
-      <c r="AG19" s="70"/>
-      <c r="AH19" s="70"/>
-      <c r="AI19" s="71"/>
-      <c r="AJ19" s="75"/>
-      <c r="AK19" s="76"/>
-      <c r="AL19" s="77"/>
-      <c r="AM19" s="38"/>
-      <c r="AN19" s="42"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="43"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="64"/>
+      <c r="AM19" s="55"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="66"/>
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
       <c r="AT19" s="15"/>
@@ -49489,14 +49489,14 @@
       <c r="AX19" s="15"/>
       <c r="AY19" s="15"/>
       <c r="AZ19" s="16"/>
-      <c r="BA19" s="80"/>
-      <c r="BB19" s="80"/>
-      <c r="BC19" s="80"/>
-      <c r="BD19" s="81"/>
-      <c r="BE19" s="80"/>
-      <c r="BF19" s="80"/>
-      <c r="BG19" s="80"/>
-      <c r="BH19" s="81"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="24"/>
+      <c r="BC19" s="24"/>
+      <c r="BD19" s="25"/>
+      <c r="BE19" s="24"/>
+      <c r="BF19" s="24"/>
+      <c r="BG19" s="24"/>
+      <c r="BH19" s="25"/>
       <c r="BI19" s="17"/>
       <c r="BJ19" s="15"/>
       <c r="BK19" s="15"/>
@@ -49508,49 +49508,49 @@
       <c r="BQ19" s="19"/>
     </row>
     <row r="20" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="74"/>
-      <c r="AM20" s="22"/>
-      <c r="AN20" s="25"/>
-      <c r="AO20" s="25"/>
-      <c r="AP20" s="25"/>
-      <c r="AQ20" s="26"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="77"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="46"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="49"/>
       <c r="AR20" s="10"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
@@ -49560,14 +49560,14 @@
       <c r="AX20" s="10"/>
       <c r="AY20" s="10"/>
       <c r="AZ20" s="11"/>
-      <c r="BA20" s="78"/>
-      <c r="BB20" s="78"/>
-      <c r="BC20" s="78"/>
-      <c r="BD20" s="79"/>
-      <c r="BE20" s="78"/>
-      <c r="BF20" s="78"/>
-      <c r="BG20" s="78"/>
-      <c r="BH20" s="79"/>
+      <c r="BA20" s="22"/>
+      <c r="BB20" s="22"/>
+      <c r="BC20" s="22"/>
+      <c r="BD20" s="23"/>
+      <c r="BE20" s="22"/>
+      <c r="BF20" s="22"/>
+      <c r="BG20" s="22"/>
+      <c r="BH20" s="23"/>
       <c r="BI20" s="12"/>
       <c r="BJ20" s="10"/>
       <c r="BK20" s="10"/>
@@ -49579,49 +49579,49 @@
       <c r="BQ20" s="14"/>
     </row>
     <row r="21" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="70"/>
-      <c r="AG21" s="70"/>
-      <c r="AH21" s="70"/>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="75"/>
-      <c r="AK21" s="76"/>
-      <c r="AL21" s="77"/>
-      <c r="AM21" s="38"/>
-      <c r="AN21" s="42"/>
-      <c r="AO21" s="42"/>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="43"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="60"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="62"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="64"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="65"/>
+      <c r="AQ21" s="66"/>
       <c r="AR21" s="15"/>
       <c r="AS21" s="15"/>
       <c r="AT21" s="15"/>
@@ -49631,14 +49631,14 @@
       <c r="AX21" s="15"/>
       <c r="AY21" s="15"/>
       <c r="AZ21" s="16"/>
-      <c r="BA21" s="80"/>
-      <c r="BB21" s="80"/>
-      <c r="BC21" s="80"/>
-      <c r="BD21" s="81"/>
-      <c r="BE21" s="80"/>
-      <c r="BF21" s="80"/>
-      <c r="BG21" s="80"/>
-      <c r="BH21" s="81"/>
+      <c r="BA21" s="24"/>
+      <c r="BB21" s="24"/>
+      <c r="BC21" s="24"/>
+      <c r="BD21" s="25"/>
+      <c r="BE21" s="24"/>
+      <c r="BF21" s="24"/>
+      <c r="BG21" s="24"/>
+      <c r="BH21" s="25"/>
       <c r="BI21" s="17"/>
       <c r="BJ21" s="15"/>
       <c r="BK21" s="15"/>
@@ -49650,49 +49650,49 @@
       <c r="BQ21" s="19"/>
     </row>
     <row r="22" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="62"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="67"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="68"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="73"/>
-      <c r="AL22" s="74"/>
-      <c r="AM22" s="22"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="25"/>
-      <c r="AQ22" s="26"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="76"/>
+      <c r="AH22" s="76"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="46"/>
+      <c r="AM22" s="47"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="49"/>
       <c r="AR22" s="10"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
@@ -49702,14 +49702,14 @@
       <c r="AX22" s="10"/>
       <c r="AY22" s="10"/>
       <c r="AZ22" s="11"/>
-      <c r="BA22" s="78"/>
-      <c r="BB22" s="78"/>
-      <c r="BC22" s="78"/>
-      <c r="BD22" s="79"/>
-      <c r="BE22" s="78"/>
-      <c r="BF22" s="78"/>
-      <c r="BG22" s="78"/>
-      <c r="BH22" s="79"/>
+      <c r="BA22" s="22"/>
+      <c r="BB22" s="22"/>
+      <c r="BC22" s="22"/>
+      <c r="BD22" s="23"/>
+      <c r="BE22" s="22"/>
+      <c r="BF22" s="22"/>
+      <c r="BG22" s="22"/>
+      <c r="BH22" s="23"/>
       <c r="BI22" s="12"/>
       <c r="BJ22" s="10"/>
       <c r="BK22" s="10"/>
@@ -49721,49 +49721,49 @@
       <c r="BQ22" s="14"/>
     </row>
     <row r="23" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="70"/>
-      <c r="AG23" s="70"/>
-      <c r="AH23" s="70"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="75"/>
-      <c r="AK23" s="76"/>
-      <c r="AL23" s="77"/>
-      <c r="AM23" s="38"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="43"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="63"/>
+      <c r="AL23" s="64"/>
+      <c r="AM23" s="55"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="65"/>
+      <c r="AP23" s="65"/>
+      <c r="AQ23" s="66"/>
       <c r="AR23" s="15"/>
       <c r="AS23" s="15"/>
       <c r="AT23" s="15"/>
@@ -49773,14 +49773,14 @@
       <c r="AX23" s="15"/>
       <c r="AY23" s="15"/>
       <c r="AZ23" s="16"/>
-      <c r="BA23" s="80"/>
-      <c r="BB23" s="80"/>
-      <c r="BC23" s="80"/>
-      <c r="BD23" s="81"/>
-      <c r="BE23" s="80"/>
-      <c r="BF23" s="80"/>
-      <c r="BG23" s="80"/>
-      <c r="BH23" s="81"/>
+      <c r="BA23" s="24"/>
+      <c r="BB23" s="24"/>
+      <c r="BC23" s="24"/>
+      <c r="BD23" s="25"/>
+      <c r="BE23" s="24"/>
+      <c r="BF23" s="24"/>
+      <c r="BG23" s="24"/>
+      <c r="BH23" s="25"/>
       <c r="BI23" s="17"/>
       <c r="BJ23" s="15"/>
       <c r="BK23" s="15"/>
@@ -49792,49 +49792,49 @@
       <c r="BQ23" s="19"/>
     </row>
     <row r="24" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="67"/>
-      <c r="AG24" s="67"/>
-      <c r="AH24" s="67"/>
-      <c r="AI24" s="68"/>
-      <c r="AJ24" s="72"/>
-      <c r="AK24" s="73"/>
-      <c r="AL24" s="74"/>
-      <c r="AM24" s="22"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="25"/>
-      <c r="AQ24" s="26"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="73"/>
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="76"/>
+      <c r="AH24" s="76"/>
+      <c r="AI24" s="77"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="45"/>
+      <c r="AL24" s="46"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="48"/>
+      <c r="AO24" s="48"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="49"/>
       <c r="AR24" s="10"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
@@ -49844,14 +49844,14 @@
       <c r="AX24" s="10"/>
       <c r="AY24" s="10"/>
       <c r="AZ24" s="11"/>
-      <c r="BA24" s="78"/>
-      <c r="BB24" s="78"/>
-      <c r="BC24" s="78"/>
-      <c r="BD24" s="79"/>
-      <c r="BE24" s="78"/>
-      <c r="BF24" s="78"/>
-      <c r="BG24" s="78"/>
-      <c r="BH24" s="79"/>
+      <c r="BA24" s="22"/>
+      <c r="BB24" s="22"/>
+      <c r="BC24" s="22"/>
+      <c r="BD24" s="23"/>
+      <c r="BE24" s="22"/>
+      <c r="BF24" s="22"/>
+      <c r="BG24" s="22"/>
+      <c r="BH24" s="23"/>
       <c r="BI24" s="12"/>
       <c r="BJ24" s="10"/>
       <c r="BK24" s="10"/>
@@ -49863,49 +49863,49 @@
       <c r="BQ24" s="14"/>
     </row>
     <row r="25" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="69"/>
-      <c r="AF25" s="70"/>
-      <c r="AG25" s="70"/>
-      <c r="AH25" s="70"/>
-      <c r="AI25" s="71"/>
-      <c r="AJ25" s="75"/>
-      <c r="AK25" s="76"/>
-      <c r="AL25" s="77"/>
-      <c r="AM25" s="38"/>
-      <c r="AN25" s="42"/>
-      <c r="AO25" s="42"/>
-      <c r="AP25" s="42"/>
-      <c r="AQ25" s="43"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="57"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="64"/>
+      <c r="AM25" s="55"/>
+      <c r="AN25" s="65"/>
+      <c r="AO25" s="65"/>
+      <c r="AP25" s="65"/>
+      <c r="AQ25" s="66"/>
       <c r="AR25" s="15"/>
       <c r="AS25" s="15"/>
       <c r="AT25" s="15"/>
@@ -49915,14 +49915,14 @@
       <c r="AX25" s="15"/>
       <c r="AY25" s="15"/>
       <c r="AZ25" s="16"/>
-      <c r="BA25" s="80"/>
-      <c r="BB25" s="80"/>
-      <c r="BC25" s="80"/>
-      <c r="BD25" s="81"/>
-      <c r="BE25" s="80"/>
-      <c r="BF25" s="80"/>
-      <c r="BG25" s="80"/>
-      <c r="BH25" s="81"/>
+      <c r="BA25" s="24"/>
+      <c r="BB25" s="24"/>
+      <c r="BC25" s="24"/>
+      <c r="BD25" s="25"/>
+      <c r="BE25" s="24"/>
+      <c r="BF25" s="24"/>
+      <c r="BG25" s="24"/>
+      <c r="BH25" s="25"/>
       <c r="BI25" s="17"/>
       <c r="BJ25" s="15"/>
       <c r="BK25" s="15"/>
@@ -49934,49 +49934,49 @@
       <c r="BQ25" s="19"/>
     </row>
     <row r="26" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="62"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="67"/>
-      <c r="AG26" s="67"/>
-      <c r="AH26" s="67"/>
-      <c r="AI26" s="68"/>
-      <c r="AJ26" s="72"/>
-      <c r="AK26" s="73"/>
-      <c r="AL26" s="74"/>
-      <c r="AM26" s="22"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
-      <c r="AP26" s="25"/>
-      <c r="AQ26" s="26"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="73"/>
+      <c r="AC26" s="73"/>
+      <c r="AD26" s="74"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="76"/>
+      <c r="AG26" s="76"/>
+      <c r="AH26" s="76"/>
+      <c r="AI26" s="77"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="47"/>
+      <c r="AN26" s="48"/>
+      <c r="AO26" s="48"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="49"/>
       <c r="AR26" s="10"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
@@ -49986,14 +49986,14 @@
       <c r="AX26" s="10"/>
       <c r="AY26" s="10"/>
       <c r="AZ26" s="11"/>
-      <c r="BA26" s="78"/>
-      <c r="BB26" s="78"/>
-      <c r="BC26" s="78"/>
-      <c r="BD26" s="79"/>
-      <c r="BE26" s="78"/>
-      <c r="BF26" s="78"/>
-      <c r="BG26" s="78"/>
-      <c r="BH26" s="79"/>
+      <c r="BA26" s="22"/>
+      <c r="BB26" s="22"/>
+      <c r="BC26" s="22"/>
+      <c r="BD26" s="23"/>
+      <c r="BE26" s="22"/>
+      <c r="BF26" s="22"/>
+      <c r="BG26" s="22"/>
+      <c r="BH26" s="23"/>
       <c r="BI26" s="12"/>
       <c r="BJ26" s="10"/>
       <c r="BK26" s="10"/>
@@ -50005,49 +50005,49 @@
       <c r="BQ26" s="14"/>
     </row>
     <row r="27" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="69"/>
-      <c r="AF27" s="70"/>
-      <c r="AG27" s="70"/>
-      <c r="AH27" s="70"/>
-      <c r="AI27" s="71"/>
-      <c r="AJ27" s="75"/>
-      <c r="AK27" s="76"/>
-      <c r="AL27" s="77"/>
-      <c r="AM27" s="38"/>
-      <c r="AN27" s="42"/>
-      <c r="AO27" s="42"/>
-      <c r="AP27" s="42"/>
-      <c r="AQ27" s="43"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="64"/>
+      <c r="AM27" s="55"/>
+      <c r="AN27" s="65"/>
+      <c r="AO27" s="65"/>
+      <c r="AP27" s="65"/>
+      <c r="AQ27" s="66"/>
       <c r="AR27" s="15"/>
       <c r="AS27" s="15"/>
       <c r="AT27" s="15"/>
@@ -50057,14 +50057,14 @@
       <c r="AX27" s="15"/>
       <c r="AY27" s="15"/>
       <c r="AZ27" s="16"/>
-      <c r="BA27" s="80"/>
-      <c r="BB27" s="80"/>
-      <c r="BC27" s="80"/>
-      <c r="BD27" s="81"/>
-      <c r="BE27" s="80"/>
-      <c r="BF27" s="80"/>
-      <c r="BG27" s="80"/>
-      <c r="BH27" s="81"/>
+      <c r="BA27" s="24"/>
+      <c r="BB27" s="24"/>
+      <c r="BC27" s="24"/>
+      <c r="BD27" s="25"/>
+      <c r="BE27" s="24"/>
+      <c r="BF27" s="24"/>
+      <c r="BG27" s="24"/>
+      <c r="BH27" s="25"/>
       <c r="BI27" s="17"/>
       <c r="BJ27" s="15"/>
       <c r="BK27" s="15"/>
@@ -50076,49 +50076,49 @@
       <c r="BQ27" s="19"/>
     </row>
     <row r="28" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="67"/>
-      <c r="AG28" s="67"/>
-      <c r="AH28" s="67"/>
-      <c r="AI28" s="68"/>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="73"/>
-      <c r="AL28" s="74"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
-      <c r="AP28" s="25"/>
-      <c r="AQ28" s="26"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="67"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="73"/>
+      <c r="AC28" s="73"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="77"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="46"/>
+      <c r="AM28" s="47"/>
+      <c r="AN28" s="48"/>
+      <c r="AO28" s="48"/>
+      <c r="AP28" s="48"/>
+      <c r="AQ28" s="49"/>
       <c r="AR28" s="10"/>
       <c r="AS28" s="10"/>
       <c r="AT28" s="10"/>
@@ -50128,14 +50128,14 @@
       <c r="AX28" s="10"/>
       <c r="AY28" s="10"/>
       <c r="AZ28" s="11"/>
-      <c r="BA28" s="78"/>
-      <c r="BB28" s="78"/>
-      <c r="BC28" s="78"/>
-      <c r="BD28" s="79"/>
-      <c r="BE28" s="78"/>
-      <c r="BF28" s="78"/>
-      <c r="BG28" s="78"/>
-      <c r="BH28" s="79"/>
+      <c r="BA28" s="22"/>
+      <c r="BB28" s="22"/>
+      <c r="BC28" s="22"/>
+      <c r="BD28" s="23"/>
+      <c r="BE28" s="22"/>
+      <c r="BF28" s="22"/>
+      <c r="BG28" s="22"/>
+      <c r="BH28" s="23"/>
       <c r="BI28" s="12"/>
       <c r="BJ28" s="10"/>
       <c r="BK28" s="10"/>
@@ -50147,49 +50147,49 @@
       <c r="BQ28" s="14"/>
     </row>
     <row r="29" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="63"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="40"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="69"/>
-      <c r="AF29" s="70"/>
-      <c r="AG29" s="70"/>
-      <c r="AH29" s="70"/>
-      <c r="AI29" s="71"/>
-      <c r="AJ29" s="75"/>
-      <c r="AK29" s="76"/>
-      <c r="AL29" s="77"/>
-      <c r="AM29" s="38"/>
-      <c r="AN29" s="42"/>
-      <c r="AO29" s="42"/>
-      <c r="AP29" s="42"/>
-      <c r="AQ29" s="43"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="57"/>
+      <c r="AC29" s="57"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="60"/>
+      <c r="AI29" s="61"/>
+      <c r="AJ29" s="62"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="55"/>
+      <c r="AN29" s="65"/>
+      <c r="AO29" s="65"/>
+      <c r="AP29" s="65"/>
+      <c r="AQ29" s="66"/>
       <c r="AR29" s="15"/>
       <c r="AS29" s="15"/>
       <c r="AT29" s="15"/>
@@ -50199,14 +50199,14 @@
       <c r="AX29" s="15"/>
       <c r="AY29" s="15"/>
       <c r="AZ29" s="16"/>
-      <c r="BA29" s="80"/>
-      <c r="BB29" s="80"/>
-      <c r="BC29" s="80"/>
-      <c r="BD29" s="81"/>
-      <c r="BE29" s="80"/>
-      <c r="BF29" s="80"/>
-      <c r="BG29" s="80"/>
-      <c r="BH29" s="81"/>
+      <c r="BA29" s="24"/>
+      <c r="BB29" s="24"/>
+      <c r="BC29" s="24"/>
+      <c r="BD29" s="25"/>
+      <c r="BE29" s="24"/>
+      <c r="BF29" s="24"/>
+      <c r="BG29" s="24"/>
+      <c r="BH29" s="25"/>
       <c r="BI29" s="17"/>
       <c r="BJ29" s="15"/>
       <c r="BK29" s="15"/>
@@ -50218,49 +50218,49 @@
       <c r="BQ29" s="19"/>
     </row>
     <row r="30" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="66"/>
-      <c r="AF30" s="67"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="68"/>
-      <c r="AJ30" s="72"/>
-      <c r="AK30" s="73"/>
-      <c r="AL30" s="74"/>
-      <c r="AM30" s="22"/>
-      <c r="AN30" s="25"/>
-      <c r="AO30" s="25"/>
-      <c r="AP30" s="25"/>
-      <c r="AQ30" s="26"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="76"/>
+      <c r="AG30" s="76"/>
+      <c r="AH30" s="76"/>
+      <c r="AI30" s="77"/>
+      <c r="AJ30" s="44"/>
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="46"/>
+      <c r="AM30" s="47"/>
+      <c r="AN30" s="48"/>
+      <c r="AO30" s="48"/>
+      <c r="AP30" s="48"/>
+      <c r="AQ30" s="49"/>
       <c r="AR30" s="10"/>
       <c r="AS30" s="10"/>
       <c r="AT30" s="10"/>
@@ -50270,14 +50270,14 @@
       <c r="AX30" s="10"/>
       <c r="AY30" s="10"/>
       <c r="AZ30" s="11"/>
-      <c r="BA30" s="78"/>
-      <c r="BB30" s="78"/>
-      <c r="BC30" s="78"/>
-      <c r="BD30" s="79"/>
-      <c r="BE30" s="78"/>
-      <c r="BF30" s="78"/>
-      <c r="BG30" s="78"/>
-      <c r="BH30" s="79"/>
+      <c r="BA30" s="22"/>
+      <c r="BB30" s="22"/>
+      <c r="BC30" s="22"/>
+      <c r="BD30" s="23"/>
+      <c r="BE30" s="22"/>
+      <c r="BF30" s="22"/>
+      <c r="BG30" s="22"/>
+      <c r="BH30" s="23"/>
       <c r="BI30" s="12"/>
       <c r="BJ30" s="10"/>
       <c r="BK30" s="10"/>
@@ -50289,49 +50289,49 @@
       <c r="BQ30" s="14"/>
     </row>
     <row r="31" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="63"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="70"/>
-      <c r="AG31" s="70"/>
-      <c r="AH31" s="70"/>
-      <c r="AI31" s="71"/>
-      <c r="AJ31" s="75"/>
-      <c r="AK31" s="76"/>
-      <c r="AL31" s="77"/>
-      <c r="AM31" s="38"/>
-      <c r="AN31" s="42"/>
-      <c r="AO31" s="42"/>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="43"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="59"/>
+      <c r="AF31" s="60"/>
+      <c r="AG31" s="60"/>
+      <c r="AH31" s="60"/>
+      <c r="AI31" s="61"/>
+      <c r="AJ31" s="62"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="64"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="65"/>
+      <c r="AO31" s="65"/>
+      <c r="AP31" s="65"/>
+      <c r="AQ31" s="66"/>
       <c r="AR31" s="15"/>
       <c r="AS31" s="15"/>
       <c r="AT31" s="15"/>
@@ -50341,14 +50341,14 @@
       <c r="AX31" s="15"/>
       <c r="AY31" s="15"/>
       <c r="AZ31" s="16"/>
-      <c r="BA31" s="80"/>
-      <c r="BB31" s="80"/>
-      <c r="BC31" s="80"/>
-      <c r="BD31" s="81"/>
-      <c r="BE31" s="80"/>
-      <c r="BF31" s="80"/>
-      <c r="BG31" s="80"/>
-      <c r="BH31" s="81"/>
+      <c r="BA31" s="24"/>
+      <c r="BB31" s="24"/>
+      <c r="BC31" s="24"/>
+      <c r="BD31" s="25"/>
+      <c r="BE31" s="24"/>
+      <c r="BF31" s="24"/>
+      <c r="BG31" s="24"/>
+      <c r="BH31" s="25"/>
       <c r="BI31" s="17"/>
       <c r="BJ31" s="15"/>
       <c r="BK31" s="15"/>
@@ -50360,49 +50360,49 @@
       <c r="BQ31" s="19"/>
     </row>
     <row r="32" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="67"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="68"/>
-      <c r="AJ32" s="72"/>
-      <c r="AK32" s="73"/>
-      <c r="AL32" s="74"/>
-      <c r="AM32" s="22"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="25"/>
-      <c r="AP32" s="25"/>
-      <c r="AQ32" s="26"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="67"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="73"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="76"/>
+      <c r="AG32" s="76"/>
+      <c r="AH32" s="76"/>
+      <c r="AI32" s="77"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="46"/>
+      <c r="AM32" s="47"/>
+      <c r="AN32" s="48"/>
+      <c r="AO32" s="48"/>
+      <c r="AP32" s="48"/>
+      <c r="AQ32" s="49"/>
       <c r="AR32" s="10"/>
       <c r="AS32" s="10"/>
       <c r="AT32" s="10"/>
@@ -50412,14 +50412,14 @@
       <c r="AX32" s="10"/>
       <c r="AY32" s="10"/>
       <c r="AZ32" s="11"/>
-      <c r="BA32" s="78"/>
-      <c r="BB32" s="78"/>
-      <c r="BC32" s="78"/>
-      <c r="BD32" s="79"/>
-      <c r="BE32" s="78"/>
-      <c r="BF32" s="78"/>
-      <c r="BG32" s="78"/>
-      <c r="BH32" s="79"/>
+      <c r="BA32" s="22"/>
+      <c r="BB32" s="22"/>
+      <c r="BC32" s="22"/>
+      <c r="BD32" s="23"/>
+      <c r="BE32" s="22"/>
+      <c r="BF32" s="22"/>
+      <c r="BG32" s="22"/>
+      <c r="BH32" s="23"/>
       <c r="BI32" s="12"/>
       <c r="BJ32" s="10"/>
       <c r="BK32" s="10"/>
@@ -50431,49 +50431,49 @@
       <c r="BQ32" s="14"/>
     </row>
     <row r="33" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="63"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="40"/>
-      <c r="AC33" s="40"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="69"/>
-      <c r="AF33" s="70"/>
-      <c r="AG33" s="70"/>
-      <c r="AH33" s="70"/>
-      <c r="AI33" s="71"/>
-      <c r="AJ33" s="75"/>
-      <c r="AK33" s="76"/>
-      <c r="AL33" s="77"/>
-      <c r="AM33" s="38"/>
-      <c r="AN33" s="42"/>
-      <c r="AO33" s="42"/>
-      <c r="AP33" s="42"/>
-      <c r="AQ33" s="43"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57"/>
+      <c r="AB33" s="57"/>
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="60"/>
+      <c r="AG33" s="60"/>
+      <c r="AH33" s="60"/>
+      <c r="AI33" s="61"/>
+      <c r="AJ33" s="62"/>
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="64"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="65"/>
+      <c r="AO33" s="65"/>
+      <c r="AP33" s="65"/>
+      <c r="AQ33" s="66"/>
       <c r="AR33" s="15"/>
       <c r="AS33" s="15"/>
       <c r="AT33" s="15"/>
@@ -50483,14 +50483,14 @@
       <c r="AX33" s="15"/>
       <c r="AY33" s="15"/>
       <c r="AZ33" s="16"/>
-      <c r="BA33" s="80"/>
-      <c r="BB33" s="80"/>
-      <c r="BC33" s="80"/>
-      <c r="BD33" s="81"/>
-      <c r="BE33" s="80"/>
-      <c r="BF33" s="80"/>
-      <c r="BG33" s="80"/>
-      <c r="BH33" s="81"/>
+      <c r="BA33" s="24"/>
+      <c r="BB33" s="24"/>
+      <c r="BC33" s="24"/>
+      <c r="BD33" s="25"/>
+      <c r="BE33" s="24"/>
+      <c r="BF33" s="24"/>
+      <c r="BG33" s="24"/>
+      <c r="BH33" s="25"/>
       <c r="BI33" s="17"/>
       <c r="BJ33" s="15"/>
       <c r="BK33" s="15"/>
@@ -50502,49 +50502,49 @@
       <c r="BQ33" s="19"/>
     </row>
     <row r="34" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="67"/>
-      <c r="AG34" s="67"/>
-      <c r="AH34" s="67"/>
-      <c r="AI34" s="68"/>
-      <c r="AJ34" s="72"/>
-      <c r="AK34" s="73"/>
-      <c r="AL34" s="74"/>
-      <c r="AM34" s="22"/>
-      <c r="AN34" s="25"/>
-      <c r="AO34" s="25"/>
-      <c r="AP34" s="25"/>
-      <c r="AQ34" s="26"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="75"/>
+      <c r="AF34" s="76"/>
+      <c r="AG34" s="76"/>
+      <c r="AH34" s="76"/>
+      <c r="AI34" s="77"/>
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="45"/>
+      <c r="AL34" s="46"/>
+      <c r="AM34" s="47"/>
+      <c r="AN34" s="48"/>
+      <c r="AO34" s="48"/>
+      <c r="AP34" s="48"/>
+      <c r="AQ34" s="49"/>
       <c r="AR34" s="10"/>
       <c r="AS34" s="10"/>
       <c r="AT34" s="10"/>
@@ -50554,14 +50554,14 @@
       <c r="AX34" s="10"/>
       <c r="AY34" s="10"/>
       <c r="AZ34" s="11"/>
-      <c r="BA34" s="78"/>
-      <c r="BB34" s="78"/>
-      <c r="BC34" s="78"/>
-      <c r="BD34" s="79"/>
-      <c r="BE34" s="78"/>
-      <c r="BF34" s="78"/>
-      <c r="BG34" s="78"/>
-      <c r="BH34" s="79"/>
+      <c r="BA34" s="22"/>
+      <c r="BB34" s="22"/>
+      <c r="BC34" s="22"/>
+      <c r="BD34" s="23"/>
+      <c r="BE34" s="22"/>
+      <c r="BF34" s="22"/>
+      <c r="BG34" s="22"/>
+      <c r="BH34" s="23"/>
       <c r="BI34" s="12"/>
       <c r="BJ34" s="10"/>
       <c r="BK34" s="10"/>
@@ -50574,6 +50574,255 @@
     </row>
   </sheetData>
   <mergeCells count="270">
+    <mergeCell ref="AE33:AI33"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AM33:AQ33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="X34:AD34"/>
+    <mergeCell ref="AE34:AI34"/>
+    <mergeCell ref="AJ34:AL34"/>
+    <mergeCell ref="AM34:AQ34"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="M33:Q33"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="X33:AD33"/>
+    <mergeCell ref="AE31:AI31"/>
+    <mergeCell ref="AJ31:AL31"/>
+    <mergeCell ref="AM31:AQ31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="X32:AD32"/>
+    <mergeCell ref="AE32:AI32"/>
+    <mergeCell ref="AJ32:AL32"/>
+    <mergeCell ref="AM32:AQ32"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="X31:AD31"/>
+    <mergeCell ref="AE29:AI29"/>
+    <mergeCell ref="AJ29:AL29"/>
+    <mergeCell ref="AM29:AQ29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="X30:AD30"/>
+    <mergeCell ref="AE30:AI30"/>
+    <mergeCell ref="AJ30:AL30"/>
+    <mergeCell ref="AM30:AQ30"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="X29:AD29"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="AJ27:AL27"/>
+    <mergeCell ref="AM27:AQ27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="X28:AD28"/>
+    <mergeCell ref="AE28:AI28"/>
+    <mergeCell ref="AJ28:AL28"/>
+    <mergeCell ref="AM28:AQ28"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="X27:AD27"/>
+    <mergeCell ref="AE25:AI25"/>
+    <mergeCell ref="AJ25:AL25"/>
+    <mergeCell ref="AM25:AQ25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="X26:AD26"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="AJ26:AL26"/>
+    <mergeCell ref="AM26:AQ26"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="AM23:AQ23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="AJ24:AL24"/>
+    <mergeCell ref="AM24:AQ24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="AM21:AQ21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="AM22:AQ22"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="AJ19:AL19"/>
+    <mergeCell ref="AM19:AQ19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="AM20:AQ20"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="R19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AM17:AQ17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="AM18:AQ18"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AM15:AQ15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AM16:AQ16"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="AM13:AQ13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="AM14:AQ14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="X13:AD13"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AM11:AQ11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="X12:AD12"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="AM12:AQ12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="X11:AD11"/>
+    <mergeCell ref="AM8:AQ8"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AM4:AQ4"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AM7:AQ7"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="X10:AD10"/>
+    <mergeCell ref="AE10:AI10"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="AE8:AI8"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="X5:AD5"/>
+    <mergeCell ref="AE5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="X4:AD4"/>
+    <mergeCell ref="AE4:AI4"/>
     <mergeCell ref="BI2:BL2"/>
     <mergeCell ref="BM2:BQ2"/>
     <mergeCell ref="A3:E3"/>
@@ -50595,255 +50844,6 @@
     <mergeCell ref="R2:W2"/>
     <mergeCell ref="X2:AD2"/>
     <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="AE5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="X4:AD4"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="AJ7:AL7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="X10:AD10"/>
-    <mergeCell ref="AE10:AI10"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="AE8:AI8"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AM4:AQ4"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AM7:AQ7"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AM11:AQ11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="X12:AD12"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AM12:AQ12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="X11:AD11"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AM13:AQ13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="X13:AD13"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AM15:AQ15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AM16:AQ16"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AM17:AQ17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="AM18:AQ18"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="AM19:AQ19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="AM20:AQ20"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="R19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="AJ21:AL21"/>
-    <mergeCell ref="AM21:AQ21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="AJ22:AL22"/>
-    <mergeCell ref="AM22:AQ22"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="AJ23:AL23"/>
-    <mergeCell ref="AM23:AQ23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="AJ24:AL24"/>
-    <mergeCell ref="AM24:AQ24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="AJ25:AL25"/>
-    <mergeCell ref="AM25:AQ25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="X26:AD26"/>
-    <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="AJ26:AL26"/>
-    <mergeCell ref="AM26:AQ26"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="AE27:AI27"/>
-    <mergeCell ref="AJ27:AL27"/>
-    <mergeCell ref="AM27:AQ27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="X28:AD28"/>
-    <mergeCell ref="AE28:AI28"/>
-    <mergeCell ref="AJ28:AL28"/>
-    <mergeCell ref="AM28:AQ28"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="X27:AD27"/>
-    <mergeCell ref="AE29:AI29"/>
-    <mergeCell ref="AJ29:AL29"/>
-    <mergeCell ref="AM29:AQ29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="X30:AD30"/>
-    <mergeCell ref="AE30:AI30"/>
-    <mergeCell ref="AJ30:AL30"/>
-    <mergeCell ref="AM30:AQ30"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="X29:AD29"/>
-    <mergeCell ref="AE31:AI31"/>
-    <mergeCell ref="AJ31:AL31"/>
-    <mergeCell ref="AM31:AQ31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="X32:AD32"/>
-    <mergeCell ref="AE32:AI32"/>
-    <mergeCell ref="AJ32:AL32"/>
-    <mergeCell ref="AM32:AQ32"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="X31:AD31"/>
-    <mergeCell ref="AE33:AI33"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AM33:AQ33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="X34:AD34"/>
-    <mergeCell ref="AE34:AI34"/>
-    <mergeCell ref="AJ34:AL34"/>
-    <mergeCell ref="AM34:AQ34"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="M33:Q33"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="X33:AD33"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KDP003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KDP003.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E13A4D79-998E-4659-BF4F-391A77FD13E4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A7C08AE3-B600-4ECA-9B0C-68CFCF1BD348}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9585" tabRatio="628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="打刻一覧表" sheetId="36" r:id="rId1"/>
+    <sheet name="打刻一覧" sheetId="36" r:id="rId1"/>
     <sheet name="copy" sheetId="35" r:id="rId2"/>
   </sheets>
   <externalReferences>
@@ -118,9 +118,9 @@
     <definedName name="PG田中" localSheetId="0">#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">copy!$A$1:$BQ$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">打刻一覧表!$A$1:$BQ$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">打刻一覧!$A$1:$BQ$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">copy!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">打刻一覧表!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">打刻一覧!$1:$2</definedName>
     <definedName name="PrintDaicho" localSheetId="0">[9]!PrintDaicho</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
     <definedName name="QuitDaicho" localSheetId="0">[9]!QuitDaicho</definedName>
@@ -1405,6 +1405,108 @@
     <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="30" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1459,118 +1561,16 @@
     <xf numFmtId="49" fontId="30" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -45563,7 +45563,7 @@
   <dimension ref="A1:CB34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31:W31"/>
+      <selection activeCell="M27" sqref="M27:Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="15" customHeight="1"/>
@@ -45573,75 +45573,75 @@
   <sheetData>
     <row r="1" spans="1:80" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="26"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="28"/>
-      <c r="BM2" s="26"/>
-      <c r="BN2" s="27"/>
-      <c r="BO2" s="27"/>
-      <c r="BP2" s="27"/>
-      <c r="BQ2" s="27"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="62"/>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="62"/>
+      <c r="BE2" s="60"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="60"/>
+      <c r="BH2" s="62"/>
+      <c r="BI2" s="60"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="62"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="61"/>
+      <c r="BO2" s="61"/>
+      <c r="BP2" s="61"/>
+      <c r="BQ2" s="61"/>
       <c r="BU2" s="3"/>
       <c r="BV2" s="3"/>
       <c r="BW2" s="3"/>
@@ -45652,49 +45652,49 @@
       <c r="CB2" s="3"/>
     </row>
     <row r="3" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="30"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="64"/>
       <c r="AR3" s="6"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="6"/>
@@ -45723,49 +45723,49 @@
       <c r="BQ3" s="6"/>
     </row>
     <row r="4" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="45"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="49"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="31"/>
       <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
       <c r="AT4" s="10"/>
@@ -45794,49 +45794,49 @@
       <c r="BQ4" s="10"/>
     </row>
     <row r="5" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="63"/>
-      <c r="AL5" s="64"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="65"/>
-      <c r="AO5" s="65"/>
-      <c r="AP5" s="65"/>
-      <c r="AQ5" s="66"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="59"/>
       <c r="AR5" s="15"/>
       <c r="AS5" s="15"/>
       <c r="AT5" s="15"/>
@@ -45865,49 +45865,49 @@
       <c r="BQ5" s="15"/>
     </row>
     <row r="6" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="73"/>
-      <c r="AB6" s="73"/>
-      <c r="AC6" s="73"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="45"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="49"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="31"/>
       <c r="AR6" s="10"/>
       <c r="AS6" s="10"/>
       <c r="AT6" s="10"/>
@@ -45936,49 +45936,49 @@
       <c r="BQ6" s="10"/>
     </row>
     <row r="7" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="63"/>
-      <c r="AL7" s="64"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="65"/>
-      <c r="AQ7" s="66"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="58"/>
+      <c r="AO7" s="58"/>
+      <c r="AP7" s="58"/>
+      <c r="AQ7" s="59"/>
       <c r="AR7" s="15"/>
       <c r="AS7" s="15"/>
       <c r="AT7" s="15"/>
@@ -46007,49 +46007,49 @@
       <c r="BQ7" s="15"/>
     </row>
     <row r="8" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="77"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="46"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="48"/>
-      <c r="AO8" s="48"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="49"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="31"/>
       <c r="AR8" s="10"/>
       <c r="AS8" s="10"/>
       <c r="AT8" s="10"/>
@@ -46078,49 +46078,49 @@
       <c r="BQ8" s="10"/>
     </row>
     <row r="9" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="66"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="58"/>
+      <c r="AO9" s="58"/>
+      <c r="AP9" s="58"/>
+      <c r="AQ9" s="59"/>
       <c r="AR9" s="15"/>
       <c r="AS9" s="15"/>
       <c r="AT9" s="15"/>
@@ -46149,49 +46149,49 @@
       <c r="BQ9" s="15"/>
     </row>
     <row r="10" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="46"/>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
-      <c r="AP10" s="48"/>
-      <c r="AQ10" s="49"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="31"/>
       <c r="AR10" s="10"/>
       <c r="AS10" s="10"/>
       <c r="AT10" s="10"/>
@@ -46220,49 +46220,49 @@
       <c r="BQ10" s="10"/>
     </row>
     <row r="11" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="63"/>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="55"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="66"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="54"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="58"/>
+      <c r="AO11" s="58"/>
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="59"/>
       <c r="AR11" s="15"/>
       <c r="AS11" s="15"/>
       <c r="AT11" s="15"/>
@@ -46291,49 +46291,49 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="47"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="49"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="31"/>
       <c r="AR12" s="10"/>
       <c r="AS12" s="10"/>
       <c r="AT12" s="10"/>
@@ -46362,49 +46362,49 @@
       <c r="BQ12" s="10"/>
     </row>
     <row r="13" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="60"/>
-      <c r="AI13" s="61"/>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="63"/>
-      <c r="AL13" s="64"/>
-      <c r="AM13" s="55"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="66"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="59"/>
       <c r="AR13" s="15"/>
       <c r="AS13" s="15"/>
       <c r="AT13" s="15"/>
@@ -46433,49 +46433,49 @@
       <c r="BQ13" s="15"/>
     </row>
     <row r="14" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="67"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="73"/>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="45"/>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="47"/>
-      <c r="AN14" s="48"/>
-      <c r="AO14" s="48"/>
-      <c r="AP14" s="48"/>
-      <c r="AQ14" s="49"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="31"/>
       <c r="AR14" s="10"/>
       <c r="AS14" s="10"/>
       <c r="AT14" s="10"/>
@@ -46504,49 +46504,49 @@
       <c r="BQ14" s="10"/>
     </row>
     <row r="15" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="61"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="64"/>
-      <c r="AM15" s="55"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="66"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="55"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="58"/>
+      <c r="AO15" s="58"/>
+      <c r="AP15" s="58"/>
+      <c r="AQ15" s="59"/>
       <c r="AR15" s="15"/>
       <c r="AS15" s="15"/>
       <c r="AT15" s="15"/>
@@ -46575,49 +46575,49 @@
       <c r="BQ15" s="15"/>
     </row>
     <row r="16" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="75"/>
-      <c r="AF16" s="76"/>
-      <c r="AG16" s="76"/>
-      <c r="AH16" s="76"/>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="44"/>
-      <c r="AK16" s="45"/>
-      <c r="AL16" s="46"/>
-      <c r="AM16" s="47"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="49"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="31"/>
       <c r="AR16" s="10"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
@@ -46646,49 +46646,49 @@
       <c r="BQ16" s="10"/>
     </row>
     <row r="17" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="60"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="63"/>
-      <c r="AL17" s="64"/>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="66"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="55"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="58"/>
+      <c r="AO17" s="58"/>
+      <c r="AP17" s="58"/>
+      <c r="AQ17" s="59"/>
       <c r="AR17" s="15"/>
       <c r="AS17" s="15"/>
       <c r="AT17" s="15"/>
@@ -46717,49 +46717,49 @@
       <c r="BQ17" s="15"/>
     </row>
     <row r="18" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="73"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="76"/>
-      <c r="AH18" s="76"/>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="48"/>
-      <c r="AO18" s="48"/>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="49"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="30"/>
+      <c r="AQ18" s="31"/>
       <c r="AR18" s="10"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
@@ -46788,49 +46788,49 @@
       <c r="BQ18" s="10"/>
     </row>
     <row r="19" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="63"/>
-      <c r="AL19" s="64"/>
-      <c r="AM19" s="55"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="66"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="54"/>
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="57"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="58"/>
+      <c r="AO19" s="58"/>
+      <c r="AP19" s="58"/>
+      <c r="AQ19" s="59"/>
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
       <c r="AT19" s="15"/>
@@ -46859,49 +46859,49 @@
       <c r="BQ19" s="15"/>
     </row>
     <row r="20" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="73"/>
-      <c r="AB20" s="73"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="74"/>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="76"/>
-      <c r="AH20" s="76"/>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="44"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="46"/>
-      <c r="AM20" s="47"/>
-      <c r="AN20" s="48"/>
-      <c r="AO20" s="48"/>
-      <c r="AP20" s="48"/>
-      <c r="AQ20" s="49"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
+      <c r="AQ20" s="31"/>
       <c r="AR20" s="10"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
@@ -46930,49 +46930,49 @@
       <c r="BQ20" s="10"/>
     </row>
     <row r="21" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="61"/>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="63"/>
-      <c r="AL21" s="64"/>
-      <c r="AM21" s="55"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="66"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="53"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="54"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="56"/>
+      <c r="AL21" s="57"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="58"/>
+      <c r="AO21" s="58"/>
+      <c r="AP21" s="58"/>
+      <c r="AQ21" s="59"/>
       <c r="AR21" s="15"/>
       <c r="AS21" s="15"/>
       <c r="AT21" s="15"/>
@@ -47001,49 +47001,49 @@
       <c r="BQ21" s="15"/>
     </row>
     <row r="22" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="73"/>
-      <c r="AC22" s="73"/>
-      <c r="AD22" s="74"/>
-      <c r="AE22" s="75"/>
-      <c r="AF22" s="76"/>
-      <c r="AG22" s="76"/>
-      <c r="AH22" s="76"/>
-      <c r="AI22" s="77"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="46"/>
-      <c r="AM22" s="47"/>
-      <c r="AN22" s="48"/>
-      <c r="AO22" s="48"/>
-      <c r="AP22" s="48"/>
-      <c r="AQ22" s="49"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="30"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="30"/>
+      <c r="AQ22" s="31"/>
       <c r="AR22" s="10"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
@@ -47072,49 +47072,49 @@
       <c r="BQ22" s="10"/>
     </row>
     <row r="23" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="57"/>
-      <c r="AC23" s="57"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="60"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="61"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="63"/>
-      <c r="AL23" s="64"/>
-      <c r="AM23" s="55"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65"/>
-      <c r="AP23" s="65"/>
-      <c r="AQ23" s="66"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="54"/>
+      <c r="AJ23" s="55"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="57"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="58"/>
+      <c r="AO23" s="58"/>
+      <c r="AP23" s="58"/>
+      <c r="AQ23" s="59"/>
       <c r="AR23" s="15"/>
       <c r="AS23" s="15"/>
       <c r="AT23" s="15"/>
@@ -47143,49 +47143,49 @@
       <c r="BQ23" s="15"/>
     </row>
     <row r="24" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="73"/>
-      <c r="AC24" s="73"/>
-      <c r="AD24" s="74"/>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="76"/>
-      <c r="AG24" s="76"/>
-      <c r="AH24" s="76"/>
-      <c r="AI24" s="77"/>
-      <c r="AJ24" s="44"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="46"/>
-      <c r="AM24" s="47"/>
-      <c r="AN24" s="48"/>
-      <c r="AO24" s="48"/>
-      <c r="AP24" s="48"/>
-      <c r="AQ24" s="49"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="41"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="31"/>
       <c r="AR24" s="10"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
@@ -47214,49 +47214,49 @@
       <c r="BQ24" s="10"/>
     </row>
     <row r="25" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="57"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="60"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="60"/>
-      <c r="AI25" s="61"/>
-      <c r="AJ25" s="62"/>
-      <c r="AK25" s="63"/>
-      <c r="AL25" s="64"/>
-      <c r="AM25" s="55"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="65"/>
-      <c r="AP25" s="65"/>
-      <c r="AQ25" s="66"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="54"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="58"/>
+      <c r="AO25" s="58"/>
+      <c r="AP25" s="58"/>
+      <c r="AQ25" s="59"/>
       <c r="AR25" s="15"/>
       <c r="AS25" s="15"/>
       <c r="AT25" s="15"/>
@@ -47285,49 +47285,49 @@
       <c r="BQ25" s="15"/>
     </row>
     <row r="26" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="73"/>
-      <c r="AA26" s="73"/>
-      <c r="AB26" s="73"/>
-      <c r="AC26" s="73"/>
-      <c r="AD26" s="74"/>
-      <c r="AE26" s="75"/>
-      <c r="AF26" s="76"/>
-      <c r="AG26" s="76"/>
-      <c r="AH26" s="76"/>
-      <c r="AI26" s="77"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="47"/>
-      <c r="AN26" s="48"/>
-      <c r="AO26" s="48"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="49"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="41"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="29"/>
+      <c r="AN26" s="30"/>
+      <c r="AO26" s="30"/>
+      <c r="AP26" s="30"/>
+      <c r="AQ26" s="31"/>
       <c r="AR26" s="10"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
@@ -47356,49 +47356,49 @@
       <c r="BQ26" s="10"/>
     </row>
     <row r="27" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="60"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="61"/>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="63"/>
-      <c r="AL27" s="64"/>
-      <c r="AM27" s="55"/>
-      <c r="AN27" s="65"/>
-      <c r="AO27" s="65"/>
-      <c r="AP27" s="65"/>
-      <c r="AQ27" s="66"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="54"/>
+      <c r="AJ27" s="55"/>
+      <c r="AK27" s="56"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="58"/>
+      <c r="AO27" s="58"/>
+      <c r="AP27" s="58"/>
+      <c r="AQ27" s="59"/>
       <c r="AR27" s="15"/>
       <c r="AS27" s="15"/>
       <c r="AT27" s="15"/>
@@ -47427,49 +47427,49 @@
       <c r="BQ27" s="15"/>
     </row>
     <row r="28" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
-      <c r="AA28" s="73"/>
-      <c r="AB28" s="73"/>
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="74"/>
-      <c r="AE28" s="75"/>
-      <c r="AF28" s="76"/>
-      <c r="AG28" s="76"/>
-      <c r="AH28" s="76"/>
-      <c r="AI28" s="77"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="46"/>
-      <c r="AM28" s="47"/>
-      <c r="AN28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="48"/>
-      <c r="AQ28" s="49"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="41"/>
+      <c r="AG28" s="41"/>
+      <c r="AH28" s="41"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="29"/>
+      <c r="AN28" s="30"/>
+      <c r="AO28" s="30"/>
+      <c r="AP28" s="30"/>
+      <c r="AQ28" s="31"/>
       <c r="AR28" s="10"/>
       <c r="AS28" s="10"/>
       <c r="AT28" s="10"/>
@@ -47498,49 +47498,49 @@
       <c r="BQ28" s="10"/>
     </row>
     <row r="29" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="57"/>
-      <c r="AC29" s="57"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="61"/>
-      <c r="AJ29" s="62"/>
-      <c r="AK29" s="63"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="55"/>
-      <c r="AN29" s="65"/>
-      <c r="AO29" s="65"/>
-      <c r="AP29" s="65"/>
-      <c r="AQ29" s="66"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="58"/>
+      <c r="AO29" s="58"/>
+      <c r="AP29" s="58"/>
+      <c r="AQ29" s="59"/>
       <c r="AR29" s="15"/>
       <c r="AS29" s="15"/>
       <c r="AT29" s="15"/>
@@ -47569,49 +47569,49 @@
       <c r="BQ29" s="15"/>
     </row>
     <row r="30" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="73"/>
-      <c r="AA30" s="73"/>
-      <c r="AB30" s="73"/>
-      <c r="AC30" s="73"/>
-      <c r="AD30" s="74"/>
-      <c r="AE30" s="75"/>
-      <c r="AF30" s="76"/>
-      <c r="AG30" s="76"/>
-      <c r="AH30" s="76"/>
-      <c r="AI30" s="77"/>
-      <c r="AJ30" s="44"/>
-      <c r="AK30" s="45"/>
-      <c r="AL30" s="46"/>
-      <c r="AM30" s="47"/>
-      <c r="AN30" s="48"/>
-      <c r="AO30" s="48"/>
-      <c r="AP30" s="48"/>
-      <c r="AQ30" s="49"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="28"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="30"/>
+      <c r="AO30" s="30"/>
+      <c r="AP30" s="30"/>
+      <c r="AQ30" s="31"/>
       <c r="AR30" s="10"/>
       <c r="AS30" s="10"/>
       <c r="AT30" s="10"/>
@@ -47640,49 +47640,49 @@
       <c r="BQ30" s="10"/>
     </row>
     <row r="31" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="57"/>
-      <c r="AC31" s="57"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="60"/>
-      <c r="AG31" s="60"/>
-      <c r="AH31" s="60"/>
-      <c r="AI31" s="61"/>
-      <c r="AJ31" s="62"/>
-      <c r="AK31" s="63"/>
-      <c r="AL31" s="64"/>
-      <c r="AM31" s="55"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="65"/>
-      <c r="AP31" s="65"/>
-      <c r="AQ31" s="66"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="54"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="56"/>
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="48"/>
+      <c r="AN31" s="58"/>
+      <c r="AO31" s="58"/>
+      <c r="AP31" s="58"/>
+      <c r="AQ31" s="59"/>
       <c r="AR31" s="15"/>
       <c r="AS31" s="15"/>
       <c r="AT31" s="15"/>
@@ -47711,49 +47711,49 @@
       <c r="BQ31" s="15"/>
     </row>
     <row r="32" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="67"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="67"/>
-      <c r="V32" s="67"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="73"/>
-      <c r="AB32" s="73"/>
-      <c r="AC32" s="73"/>
-      <c r="AD32" s="74"/>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="76"/>
-      <c r="AG32" s="76"/>
-      <c r="AH32" s="76"/>
-      <c r="AI32" s="77"/>
-      <c r="AJ32" s="44"/>
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="46"/>
-      <c r="AM32" s="47"/>
-      <c r="AN32" s="48"/>
-      <c r="AO32" s="48"/>
-      <c r="AP32" s="48"/>
-      <c r="AQ32" s="49"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="42"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="29"/>
+      <c r="AN32" s="30"/>
+      <c r="AO32" s="30"/>
+      <c r="AP32" s="30"/>
+      <c r="AQ32" s="31"/>
       <c r="AR32" s="10"/>
       <c r="AS32" s="10"/>
       <c r="AT32" s="10"/>
@@ -47782,49 +47782,49 @@
       <c r="BQ32" s="10"/>
     </row>
     <row r="33" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="57"/>
-      <c r="AC33" s="57"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="60"/>
-      <c r="AG33" s="60"/>
-      <c r="AH33" s="60"/>
-      <c r="AI33" s="61"/>
-      <c r="AJ33" s="62"/>
-      <c r="AK33" s="63"/>
-      <c r="AL33" s="64"/>
-      <c r="AM33" s="55"/>
-      <c r="AN33" s="65"/>
-      <c r="AO33" s="65"/>
-      <c r="AP33" s="65"/>
-      <c r="AQ33" s="66"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="54"/>
+      <c r="AJ33" s="55"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="57"/>
+      <c r="AM33" s="48"/>
+      <c r="AN33" s="58"/>
+      <c r="AO33" s="58"/>
+      <c r="AP33" s="58"/>
+      <c r="AQ33" s="59"/>
       <c r="AR33" s="15"/>
       <c r="AS33" s="15"/>
       <c r="AT33" s="15"/>
@@ -47853,49 +47853,49 @@
       <c r="BQ33" s="15"/>
     </row>
     <row r="34" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="67"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="67"/>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="72"/>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="73"/>
-      <c r="AB34" s="73"/>
-      <c r="AC34" s="73"/>
-      <c r="AD34" s="74"/>
-      <c r="AE34" s="75"/>
-      <c r="AF34" s="76"/>
-      <c r="AG34" s="76"/>
-      <c r="AH34" s="76"/>
-      <c r="AI34" s="77"/>
-      <c r="AJ34" s="44"/>
-      <c r="AK34" s="45"/>
-      <c r="AL34" s="46"/>
-      <c r="AM34" s="47"/>
-      <c r="AN34" s="48"/>
-      <c r="AO34" s="48"/>
-      <c r="AP34" s="48"/>
-      <c r="AQ34" s="49"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="40"/>
+      <c r="AF34" s="41"/>
+      <c r="AG34" s="41"/>
+      <c r="AH34" s="41"/>
+      <c r="AI34" s="42"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="29"/>
+      <c r="AN34" s="30"/>
+      <c r="AO34" s="30"/>
+      <c r="AP34" s="30"/>
+      <c r="AQ34" s="31"/>
       <c r="AR34" s="10"/>
       <c r="AS34" s="10"/>
       <c r="AT34" s="10"/>
@@ -47925,6 +47925,252 @@
     </row>
   </sheetData>
   <mergeCells count="270">
+    <mergeCell ref="BI2:BL2"/>
+    <mergeCell ref="BM2:BQ2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="X3:AD3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="BA2:BD2"/>
+    <mergeCell ref="BE2:BH2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="X2:AD2"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AM4:AQ4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="X5:AD5"/>
+    <mergeCell ref="AE5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="X4:AD4"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="AM7:AQ7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AM8:AQ8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="AE8:AI8"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="X11:AD11"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AM11:AQ11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="X10:AD10"/>
+    <mergeCell ref="AE10:AI10"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="AM12:AQ12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="X13:AD13"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="AM13:AQ13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="X12:AD12"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="AM14:AQ14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AM15:AQ15"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AM16:AQ16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AM17:AQ17"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="AM18:AQ18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="R19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="AJ19:AL19"/>
+    <mergeCell ref="AM19:AQ19"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="AM20:AQ20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="AM21:AQ21"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="AM22:AQ22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="AM23:AQ23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="AJ24:AL24"/>
+    <mergeCell ref="AM24:AQ24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="AE25:AI25"/>
+    <mergeCell ref="AJ25:AL25"/>
+    <mergeCell ref="AM25:AQ25"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="AJ26:AL26"/>
+    <mergeCell ref="AM26:AQ26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="X27:AD27"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="AJ27:AL27"/>
+    <mergeCell ref="AM27:AQ27"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="X26:AD26"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="AJ28:AL28"/>
+    <mergeCell ref="AM28:AQ28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="X29:AD29"/>
+    <mergeCell ref="AE29:AI29"/>
+    <mergeCell ref="AJ29:AL29"/>
+    <mergeCell ref="AM29:AQ29"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="X28:AD28"/>
+    <mergeCell ref="AE28:AI28"/>
+    <mergeCell ref="AJ30:AL30"/>
+    <mergeCell ref="AM30:AQ30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="X31:AD31"/>
+    <mergeCell ref="AE31:AI31"/>
+    <mergeCell ref="AJ31:AL31"/>
+    <mergeCell ref="AM31:AQ31"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="X30:AD30"/>
+    <mergeCell ref="AE30:AI30"/>
     <mergeCell ref="AJ34:AL34"/>
     <mergeCell ref="AM34:AQ34"/>
     <mergeCell ref="A34:E34"/>
@@ -47949,252 +48195,6 @@
     <mergeCell ref="R32:W32"/>
     <mergeCell ref="X32:AD32"/>
     <mergeCell ref="AE32:AI32"/>
-    <mergeCell ref="AJ30:AL30"/>
-    <mergeCell ref="AM30:AQ30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="X31:AD31"/>
-    <mergeCell ref="AE31:AI31"/>
-    <mergeCell ref="AJ31:AL31"/>
-    <mergeCell ref="AM31:AQ31"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="X30:AD30"/>
-    <mergeCell ref="AE30:AI30"/>
-    <mergeCell ref="AJ28:AL28"/>
-    <mergeCell ref="AM28:AQ28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="X29:AD29"/>
-    <mergeCell ref="AE29:AI29"/>
-    <mergeCell ref="AJ29:AL29"/>
-    <mergeCell ref="AM29:AQ29"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="X28:AD28"/>
-    <mergeCell ref="AE28:AI28"/>
-    <mergeCell ref="AJ26:AL26"/>
-    <mergeCell ref="AM26:AQ26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="X27:AD27"/>
-    <mergeCell ref="AE27:AI27"/>
-    <mergeCell ref="AJ27:AL27"/>
-    <mergeCell ref="AM27:AQ27"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="X26:AD26"/>
-    <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="AJ24:AL24"/>
-    <mergeCell ref="AM24:AQ24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="AJ25:AL25"/>
-    <mergeCell ref="AM25:AQ25"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="AJ22:AL22"/>
-    <mergeCell ref="AM22:AQ22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="AJ23:AL23"/>
-    <mergeCell ref="AM23:AQ23"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="AM20:AQ20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="AJ21:AL21"/>
-    <mergeCell ref="AM21:AQ21"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="AM18:AQ18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="R19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="AM19:AQ19"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AM16:AQ16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AM17:AQ17"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AM15:AQ15"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AM12:AQ12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="X13:AD13"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AM13:AQ13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="X12:AD12"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="X11:AD11"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AM11:AQ11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="X10:AD10"/>
-    <mergeCell ref="AE10:AI10"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="AE8:AI8"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="AJ7:AL7"/>
-    <mergeCell ref="AM7:AQ7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AM4:AQ4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="AE5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="X4:AD4"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="BI2:BL2"/>
-    <mergeCell ref="BM2:BQ2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:W3"/>
-    <mergeCell ref="X3:AD3"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="BA2:BD2"/>
-    <mergeCell ref="BE2:BH2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="X2:AD2"/>
-    <mergeCell ref="AE2:AI2"/>
   </mergeCells>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -48222,75 +48222,75 @@
       <c r="BQ1" s="5"/>
     </row>
     <row r="2" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="26"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="28"/>
-      <c r="BM2" s="26"/>
-      <c r="BN2" s="27"/>
-      <c r="BO2" s="27"/>
-      <c r="BP2" s="27"/>
-      <c r="BQ2" s="78"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="62"/>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="62"/>
+      <c r="BE2" s="60"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="60"/>
+      <c r="BH2" s="62"/>
+      <c r="BI2" s="60"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="62"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="61"/>
+      <c r="BO2" s="61"/>
+      <c r="BP2" s="61"/>
+      <c r="BQ2" s="80"/>
       <c r="BU2" s="3"/>
       <c r="BV2" s="3"/>
       <c r="BW2" s="3"/>
@@ -48301,49 +48301,49 @@
       <c r="CB2" s="3"/>
     </row>
     <row r="3" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="30"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="64"/>
       <c r="AR3" s="6"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="6"/>
@@ -48372,49 +48372,49 @@
       <c r="BQ3" s="9"/>
     </row>
     <row r="4" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="45"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="49"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="31"/>
       <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
       <c r="AT4" s="10"/>
@@ -48443,49 +48443,49 @@
       <c r="BQ4" s="14"/>
     </row>
     <row r="5" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="80"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="63"/>
-      <c r="AL5" s="64"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="65"/>
-      <c r="AO5" s="65"/>
-      <c r="AP5" s="65"/>
-      <c r="AQ5" s="66"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="59"/>
       <c r="AR5" s="15"/>
       <c r="AS5" s="15"/>
       <c r="AT5" s="15"/>
@@ -48514,49 +48514,49 @@
       <c r="BQ5" s="19"/>
     </row>
     <row r="6" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="73"/>
-      <c r="AB6" s="73"/>
-      <c r="AC6" s="73"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="45"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="49"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="31"/>
       <c r="AR6" s="10"/>
       <c r="AS6" s="10"/>
       <c r="AT6" s="10"/>
@@ -48585,49 +48585,49 @@
       <c r="BQ6" s="14"/>
     </row>
     <row r="7" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="80"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="63"/>
-      <c r="AL7" s="64"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="65"/>
-      <c r="AQ7" s="66"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="58"/>
+      <c r="AO7" s="58"/>
+      <c r="AP7" s="58"/>
+      <c r="AQ7" s="59"/>
       <c r="AR7" s="15"/>
       <c r="AS7" s="15"/>
       <c r="AT7" s="15"/>
@@ -48656,49 +48656,49 @@
       <c r="BQ7" s="19"/>
     </row>
     <row r="8" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="77"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="46"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="48"/>
-      <c r="AO8" s="48"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="49"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="31"/>
       <c r="AR8" s="10"/>
       <c r="AS8" s="10"/>
       <c r="AT8" s="10"/>
@@ -48727,49 +48727,49 @@
       <c r="BQ8" s="14"/>
     </row>
     <row r="9" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="80"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="66"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="58"/>
+      <c r="AO9" s="58"/>
+      <c r="AP9" s="58"/>
+      <c r="AQ9" s="59"/>
       <c r="AR9" s="15"/>
       <c r="AS9" s="15"/>
       <c r="AT9" s="15"/>
@@ -48798,49 +48798,49 @@
       <c r="BQ9" s="19"/>
     </row>
     <row r="10" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="81"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="46"/>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
-      <c r="AP10" s="48"/>
-      <c r="AQ10" s="49"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="31"/>
       <c r="AR10" s="10"/>
       <c r="AS10" s="10"/>
       <c r="AT10" s="10"/>
@@ -48869,49 +48869,49 @@
       <c r="BQ10" s="14"/>
     </row>
     <row r="11" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="63"/>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="55"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="66"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="54"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="58"/>
+      <c r="AO11" s="58"/>
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="59"/>
       <c r="AR11" s="15"/>
       <c r="AS11" s="15"/>
       <c r="AT11" s="15"/>
@@ -48940,49 +48940,49 @@
       <c r="BQ11" s="19"/>
     </row>
     <row r="12" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="81"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="47"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="49"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="31"/>
       <c r="AR12" s="10"/>
       <c r="AS12" s="10"/>
       <c r="AT12" s="10"/>
@@ -49011,49 +49011,49 @@
       <c r="BQ12" s="14"/>
     </row>
     <row r="13" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="80"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="60"/>
-      <c r="AI13" s="61"/>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="63"/>
-      <c r="AL13" s="64"/>
-      <c r="AM13" s="55"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="66"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="59"/>
       <c r="AR13" s="15"/>
       <c r="AS13" s="15"/>
       <c r="AT13" s="15"/>
@@ -49082,49 +49082,49 @@
       <c r="BQ13" s="19"/>
     </row>
     <row r="14" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="81"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="73"/>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="45"/>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="47"/>
-      <c r="AN14" s="48"/>
-      <c r="AO14" s="48"/>
-      <c r="AP14" s="48"/>
-      <c r="AQ14" s="49"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="31"/>
       <c r="AR14" s="10"/>
       <c r="AS14" s="10"/>
       <c r="AT14" s="10"/>
@@ -49153,49 +49153,49 @@
       <c r="BQ14" s="14"/>
     </row>
     <row r="15" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="61"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="64"/>
-      <c r="AM15" s="55"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="66"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="55"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="58"/>
+      <c r="AO15" s="58"/>
+      <c r="AP15" s="58"/>
+      <c r="AQ15" s="59"/>
       <c r="AR15" s="15"/>
       <c r="AS15" s="15"/>
       <c r="AT15" s="15"/>
@@ -49224,49 +49224,49 @@
       <c r="BQ15" s="19"/>
     </row>
     <row r="16" spans="1:80" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="81"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="75"/>
-      <c r="AF16" s="76"/>
-      <c r="AG16" s="76"/>
-      <c r="AH16" s="76"/>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="44"/>
-      <c r="AK16" s="45"/>
-      <c r="AL16" s="46"/>
-      <c r="AM16" s="47"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="49"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="31"/>
       <c r="AR16" s="10"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
@@ -49295,49 +49295,49 @@
       <c r="BQ16" s="14"/>
     </row>
     <row r="17" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="60"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="63"/>
-      <c r="AL17" s="64"/>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="66"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="55"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="58"/>
+      <c r="AO17" s="58"/>
+      <c r="AP17" s="58"/>
+      <c r="AQ17" s="59"/>
       <c r="AR17" s="15"/>
       <c r="AS17" s="15"/>
       <c r="AT17" s="15"/>
@@ -49366,49 +49366,49 @@
       <c r="BQ17" s="19"/>
     </row>
     <row r="18" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="81"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="73"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="76"/>
-      <c r="AH18" s="76"/>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="48"/>
-      <c r="AO18" s="48"/>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="49"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="30"/>
+      <c r="AQ18" s="31"/>
       <c r="AR18" s="10"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
@@ -49437,49 +49437,49 @@
       <c r="BQ18" s="14"/>
     </row>
     <row r="19" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="63"/>
-      <c r="AL19" s="64"/>
-      <c r="AM19" s="55"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="66"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="54"/>
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="57"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="58"/>
+      <c r="AO19" s="58"/>
+      <c r="AP19" s="58"/>
+      <c r="AQ19" s="59"/>
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
       <c r="AT19" s="15"/>
@@ -49508,49 +49508,49 @@
       <c r="BQ19" s="19"/>
     </row>
     <row r="20" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="81"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="73"/>
-      <c r="AB20" s="73"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="74"/>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="76"/>
-      <c r="AH20" s="76"/>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="44"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="46"/>
-      <c r="AM20" s="47"/>
-      <c r="AN20" s="48"/>
-      <c r="AO20" s="48"/>
-      <c r="AP20" s="48"/>
-      <c r="AQ20" s="49"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
+      <c r="AQ20" s="31"/>
       <c r="AR20" s="10"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
@@ -49579,49 +49579,49 @@
       <c r="BQ20" s="14"/>
     </row>
     <row r="21" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="61"/>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="63"/>
-      <c r="AL21" s="64"/>
-      <c r="AM21" s="55"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="66"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="53"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="54"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="56"/>
+      <c r="AL21" s="57"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="58"/>
+      <c r="AO21" s="58"/>
+      <c r="AP21" s="58"/>
+      <c r="AQ21" s="59"/>
       <c r="AR21" s="15"/>
       <c r="AS21" s="15"/>
       <c r="AT21" s="15"/>
@@ -49650,49 +49650,49 @@
       <c r="BQ21" s="19"/>
     </row>
     <row r="22" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="81"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="73"/>
-      <c r="AC22" s="73"/>
-      <c r="AD22" s="74"/>
-      <c r="AE22" s="75"/>
-      <c r="AF22" s="76"/>
-      <c r="AG22" s="76"/>
-      <c r="AH22" s="76"/>
-      <c r="AI22" s="77"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="46"/>
-      <c r="AM22" s="47"/>
-      <c r="AN22" s="48"/>
-      <c r="AO22" s="48"/>
-      <c r="AP22" s="48"/>
-      <c r="AQ22" s="49"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="30"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="30"/>
+      <c r="AQ22" s="31"/>
       <c r="AR22" s="10"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
@@ -49721,49 +49721,49 @@
       <c r="BQ22" s="14"/>
     </row>
     <row r="23" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="57"/>
-      <c r="AC23" s="57"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="60"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="61"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="63"/>
-      <c r="AL23" s="64"/>
-      <c r="AM23" s="55"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65"/>
-      <c r="AP23" s="65"/>
-      <c r="AQ23" s="66"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="54"/>
+      <c r="AJ23" s="55"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="57"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="58"/>
+      <c r="AO23" s="58"/>
+      <c r="AP23" s="58"/>
+      <c r="AQ23" s="59"/>
       <c r="AR23" s="15"/>
       <c r="AS23" s="15"/>
       <c r="AT23" s="15"/>
@@ -49792,49 +49792,49 @@
       <c r="BQ23" s="19"/>
     </row>
     <row r="24" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="81"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="73"/>
-      <c r="AC24" s="73"/>
-      <c r="AD24" s="74"/>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="76"/>
-      <c r="AG24" s="76"/>
-      <c r="AH24" s="76"/>
-      <c r="AI24" s="77"/>
-      <c r="AJ24" s="44"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="46"/>
-      <c r="AM24" s="47"/>
-      <c r="AN24" s="48"/>
-      <c r="AO24" s="48"/>
-      <c r="AP24" s="48"/>
-      <c r="AQ24" s="49"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="41"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="31"/>
       <c r="AR24" s="10"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
@@ -49863,49 +49863,49 @@
       <c r="BQ24" s="14"/>
     </row>
     <row r="25" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="80"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="57"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="60"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="60"/>
-      <c r="AI25" s="61"/>
-      <c r="AJ25" s="62"/>
-      <c r="AK25" s="63"/>
-      <c r="AL25" s="64"/>
-      <c r="AM25" s="55"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="65"/>
-      <c r="AP25" s="65"/>
-      <c r="AQ25" s="66"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="54"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="58"/>
+      <c r="AO25" s="58"/>
+      <c r="AP25" s="58"/>
+      <c r="AQ25" s="59"/>
       <c r="AR25" s="15"/>
       <c r="AS25" s="15"/>
       <c r="AT25" s="15"/>
@@ -49934,49 +49934,49 @@
       <c r="BQ25" s="19"/>
     </row>
     <row r="26" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="81"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="73"/>
-      <c r="AA26" s="73"/>
-      <c r="AB26" s="73"/>
-      <c r="AC26" s="73"/>
-      <c r="AD26" s="74"/>
-      <c r="AE26" s="75"/>
-      <c r="AF26" s="76"/>
-      <c r="AG26" s="76"/>
-      <c r="AH26" s="76"/>
-      <c r="AI26" s="77"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="47"/>
-      <c r="AN26" s="48"/>
-      <c r="AO26" s="48"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="49"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="41"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="29"/>
+      <c r="AN26" s="30"/>
+      <c r="AO26" s="30"/>
+      <c r="AP26" s="30"/>
+      <c r="AQ26" s="31"/>
       <c r="AR26" s="10"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
@@ -50005,49 +50005,49 @@
       <c r="BQ26" s="14"/>
     </row>
     <row r="27" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="80"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="60"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="61"/>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="63"/>
-      <c r="AL27" s="64"/>
-      <c r="AM27" s="55"/>
-      <c r="AN27" s="65"/>
-      <c r="AO27" s="65"/>
-      <c r="AP27" s="65"/>
-      <c r="AQ27" s="66"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="54"/>
+      <c r="AJ27" s="55"/>
+      <c r="AK27" s="56"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="58"/>
+      <c r="AO27" s="58"/>
+      <c r="AP27" s="58"/>
+      <c r="AQ27" s="59"/>
       <c r="AR27" s="15"/>
       <c r="AS27" s="15"/>
       <c r="AT27" s="15"/>
@@ -50076,49 +50076,49 @@
       <c r="BQ27" s="19"/>
     </row>
     <row r="28" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="81"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
-      <c r="AA28" s="73"/>
-      <c r="AB28" s="73"/>
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="74"/>
-      <c r="AE28" s="75"/>
-      <c r="AF28" s="76"/>
-      <c r="AG28" s="76"/>
-      <c r="AH28" s="76"/>
-      <c r="AI28" s="77"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="46"/>
-      <c r="AM28" s="47"/>
-      <c r="AN28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="48"/>
-      <c r="AQ28" s="49"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="41"/>
+      <c r="AG28" s="41"/>
+      <c r="AH28" s="41"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="29"/>
+      <c r="AN28" s="30"/>
+      <c r="AO28" s="30"/>
+      <c r="AP28" s="30"/>
+      <c r="AQ28" s="31"/>
       <c r="AR28" s="10"/>
       <c r="AS28" s="10"/>
       <c r="AT28" s="10"/>
@@ -50147,49 +50147,49 @@
       <c r="BQ28" s="14"/>
     </row>
     <row r="29" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="80"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="57"/>
-      <c r="AC29" s="57"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="61"/>
-      <c r="AJ29" s="62"/>
-      <c r="AK29" s="63"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="55"/>
-      <c r="AN29" s="65"/>
-      <c r="AO29" s="65"/>
-      <c r="AP29" s="65"/>
-      <c r="AQ29" s="66"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="58"/>
+      <c r="AO29" s="58"/>
+      <c r="AP29" s="58"/>
+      <c r="AQ29" s="59"/>
       <c r="AR29" s="15"/>
       <c r="AS29" s="15"/>
       <c r="AT29" s="15"/>
@@ -50218,49 +50218,49 @@
       <c r="BQ29" s="19"/>
     </row>
     <row r="30" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="81"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="73"/>
-      <c r="AA30" s="73"/>
-      <c r="AB30" s="73"/>
-      <c r="AC30" s="73"/>
-      <c r="AD30" s="74"/>
-      <c r="AE30" s="75"/>
-      <c r="AF30" s="76"/>
-      <c r="AG30" s="76"/>
-      <c r="AH30" s="76"/>
-      <c r="AI30" s="77"/>
-      <c r="AJ30" s="44"/>
-      <c r="AK30" s="45"/>
-      <c r="AL30" s="46"/>
-      <c r="AM30" s="47"/>
-      <c r="AN30" s="48"/>
-      <c r="AO30" s="48"/>
-      <c r="AP30" s="48"/>
-      <c r="AQ30" s="49"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="28"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="30"/>
+      <c r="AO30" s="30"/>
+      <c r="AP30" s="30"/>
+      <c r="AQ30" s="31"/>
       <c r="AR30" s="10"/>
       <c r="AS30" s="10"/>
       <c r="AT30" s="10"/>
@@ -50289,49 +50289,49 @@
       <c r="BQ30" s="14"/>
     </row>
     <row r="31" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="80"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="57"/>
-      <c r="AC31" s="57"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="60"/>
-      <c r="AG31" s="60"/>
-      <c r="AH31" s="60"/>
-      <c r="AI31" s="61"/>
-      <c r="AJ31" s="62"/>
-      <c r="AK31" s="63"/>
-      <c r="AL31" s="64"/>
-      <c r="AM31" s="55"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="65"/>
-      <c r="AP31" s="65"/>
-      <c r="AQ31" s="66"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="54"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="56"/>
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="48"/>
+      <c r="AN31" s="58"/>
+      <c r="AO31" s="58"/>
+      <c r="AP31" s="58"/>
+      <c r="AQ31" s="59"/>
       <c r="AR31" s="15"/>
       <c r="AS31" s="15"/>
       <c r="AT31" s="15"/>
@@ -50360,49 +50360,49 @@
       <c r="BQ31" s="19"/>
     </row>
     <row r="32" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="81"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="67"/>
-      <c r="V32" s="67"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="73"/>
-      <c r="AB32" s="73"/>
-      <c r="AC32" s="73"/>
-      <c r="AD32" s="74"/>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="76"/>
-      <c r="AG32" s="76"/>
-      <c r="AH32" s="76"/>
-      <c r="AI32" s="77"/>
-      <c r="AJ32" s="44"/>
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="46"/>
-      <c r="AM32" s="47"/>
-      <c r="AN32" s="48"/>
-      <c r="AO32" s="48"/>
-      <c r="AP32" s="48"/>
-      <c r="AQ32" s="49"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="42"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="29"/>
+      <c r="AN32" s="30"/>
+      <c r="AO32" s="30"/>
+      <c r="AP32" s="30"/>
+      <c r="AQ32" s="31"/>
       <c r="AR32" s="10"/>
       <c r="AS32" s="10"/>
       <c r="AT32" s="10"/>
@@ -50431,49 +50431,49 @@
       <c r="BQ32" s="14"/>
     </row>
     <row r="33" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="80"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="57"/>
-      <c r="AC33" s="57"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="60"/>
-      <c r="AG33" s="60"/>
-      <c r="AH33" s="60"/>
-      <c r="AI33" s="61"/>
-      <c r="AJ33" s="62"/>
-      <c r="AK33" s="63"/>
-      <c r="AL33" s="64"/>
-      <c r="AM33" s="55"/>
-      <c r="AN33" s="65"/>
-      <c r="AO33" s="65"/>
-      <c r="AP33" s="65"/>
-      <c r="AQ33" s="66"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="54"/>
+      <c r="AJ33" s="55"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="57"/>
+      <c r="AM33" s="48"/>
+      <c r="AN33" s="58"/>
+      <c r="AO33" s="58"/>
+      <c r="AP33" s="58"/>
+      <c r="AQ33" s="59"/>
       <c r="AR33" s="15"/>
       <c r="AS33" s="15"/>
       <c r="AT33" s="15"/>
@@ -50502,49 +50502,49 @@
       <c r="BQ33" s="19"/>
     </row>
     <row r="34" spans="1:69" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="81"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="67"/>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="72"/>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="73"/>
-      <c r="AB34" s="73"/>
-      <c r="AC34" s="73"/>
-      <c r="AD34" s="74"/>
-      <c r="AE34" s="75"/>
-      <c r="AF34" s="76"/>
-      <c r="AG34" s="76"/>
-      <c r="AH34" s="76"/>
-      <c r="AI34" s="77"/>
-      <c r="AJ34" s="44"/>
-      <c r="AK34" s="45"/>
-      <c r="AL34" s="46"/>
-      <c r="AM34" s="47"/>
-      <c r="AN34" s="48"/>
-      <c r="AO34" s="48"/>
-      <c r="AP34" s="48"/>
-      <c r="AQ34" s="49"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="40"/>
+      <c r="AF34" s="41"/>
+      <c r="AG34" s="41"/>
+      <c r="AH34" s="41"/>
+      <c r="AI34" s="42"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="29"/>
+      <c r="AN34" s="30"/>
+      <c r="AO34" s="30"/>
+      <c r="AP34" s="30"/>
+      <c r="AQ34" s="31"/>
       <c r="AR34" s="10"/>
       <c r="AS34" s="10"/>
       <c r="AT34" s="10"/>
@@ -50574,255 +50574,6 @@
     </row>
   </sheetData>
   <mergeCells count="270">
-    <mergeCell ref="AE33:AI33"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AM33:AQ33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="X34:AD34"/>
-    <mergeCell ref="AE34:AI34"/>
-    <mergeCell ref="AJ34:AL34"/>
-    <mergeCell ref="AM34:AQ34"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="M33:Q33"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="X33:AD33"/>
-    <mergeCell ref="AE31:AI31"/>
-    <mergeCell ref="AJ31:AL31"/>
-    <mergeCell ref="AM31:AQ31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="X32:AD32"/>
-    <mergeCell ref="AE32:AI32"/>
-    <mergeCell ref="AJ32:AL32"/>
-    <mergeCell ref="AM32:AQ32"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="X31:AD31"/>
-    <mergeCell ref="AE29:AI29"/>
-    <mergeCell ref="AJ29:AL29"/>
-    <mergeCell ref="AM29:AQ29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="X30:AD30"/>
-    <mergeCell ref="AE30:AI30"/>
-    <mergeCell ref="AJ30:AL30"/>
-    <mergeCell ref="AM30:AQ30"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="X29:AD29"/>
-    <mergeCell ref="AE27:AI27"/>
-    <mergeCell ref="AJ27:AL27"/>
-    <mergeCell ref="AM27:AQ27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="X28:AD28"/>
-    <mergeCell ref="AE28:AI28"/>
-    <mergeCell ref="AJ28:AL28"/>
-    <mergeCell ref="AM28:AQ28"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="X27:AD27"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="AJ25:AL25"/>
-    <mergeCell ref="AM25:AQ25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="X26:AD26"/>
-    <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="AJ26:AL26"/>
-    <mergeCell ref="AM26:AQ26"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="AJ23:AL23"/>
-    <mergeCell ref="AM23:AQ23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="AJ24:AL24"/>
-    <mergeCell ref="AM24:AQ24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="AJ21:AL21"/>
-    <mergeCell ref="AM21:AQ21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="AJ22:AL22"/>
-    <mergeCell ref="AM22:AQ22"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="AM19:AQ19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="AM20:AQ20"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="R19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AM17:AQ17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="AM18:AQ18"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AM15:AQ15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AM16:AQ16"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AM13:AQ13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="X13:AD13"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AM11:AQ11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="X12:AD12"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AM12:AQ12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="X11:AD11"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AM4:AQ4"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AM7:AQ7"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="X10:AD10"/>
-    <mergeCell ref="AE10:AI10"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="AE8:AI8"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="AJ7:AL7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="AE5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="X4:AD4"/>
-    <mergeCell ref="AE4:AI4"/>
     <mergeCell ref="BI2:BL2"/>
     <mergeCell ref="BM2:BQ2"/>
     <mergeCell ref="A3:E3"/>
@@ -50844,6 +50595,255 @@
     <mergeCell ref="R2:W2"/>
     <mergeCell ref="X2:AD2"/>
     <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="X5:AD5"/>
+    <mergeCell ref="AE5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="X4:AD4"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="X10:AD10"/>
+    <mergeCell ref="AE10:AI10"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="AE8:AI8"/>
+    <mergeCell ref="AM8:AQ8"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AM4:AQ4"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AM7:AQ7"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AM11:AQ11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="X12:AD12"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="AM12:AQ12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="X11:AD11"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="AM13:AQ13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="AM14:AQ14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="X13:AD13"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AM15:AQ15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AM16:AQ16"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AM17:AQ17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="AM18:AQ18"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="AJ19:AL19"/>
+    <mergeCell ref="AM19:AQ19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="AM20:AQ20"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="R19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="AM21:AQ21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="AM22:AQ22"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="AM23:AQ23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="AJ24:AL24"/>
+    <mergeCell ref="AM24:AQ24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE25:AI25"/>
+    <mergeCell ref="AJ25:AL25"/>
+    <mergeCell ref="AM25:AQ25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="X26:AD26"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="AJ26:AL26"/>
+    <mergeCell ref="AM26:AQ26"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="AJ27:AL27"/>
+    <mergeCell ref="AM27:AQ27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="X28:AD28"/>
+    <mergeCell ref="AE28:AI28"/>
+    <mergeCell ref="AJ28:AL28"/>
+    <mergeCell ref="AM28:AQ28"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="X27:AD27"/>
+    <mergeCell ref="AE29:AI29"/>
+    <mergeCell ref="AJ29:AL29"/>
+    <mergeCell ref="AM29:AQ29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="X30:AD30"/>
+    <mergeCell ref="AE30:AI30"/>
+    <mergeCell ref="AJ30:AL30"/>
+    <mergeCell ref="AM30:AQ30"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="X29:AD29"/>
+    <mergeCell ref="AE31:AI31"/>
+    <mergeCell ref="AJ31:AL31"/>
+    <mergeCell ref="AM31:AQ31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="X32:AD32"/>
+    <mergeCell ref="AE32:AI32"/>
+    <mergeCell ref="AJ32:AL32"/>
+    <mergeCell ref="AM32:AQ32"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="X31:AD31"/>
+    <mergeCell ref="AE33:AI33"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AM33:AQ33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="X34:AD34"/>
+    <mergeCell ref="AE34:AI34"/>
+    <mergeCell ref="AJ34:AL34"/>
+    <mergeCell ref="AM34:AQ34"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="M33:Q33"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="X33:AD33"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
